--- a/Crkbd 配列作成ブック.xlsx
+++ b/Crkbd 配列作成ブック.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0254fe376154954e/ドキュメント/資料集/自作キーボード/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B5614A4-A00D-4753-B49C-B3082AAEC7A5}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8409A946-AB1C-4756-BECA-88F3CA26E9BC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12750" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keycodes" sheetId="1" r:id="rId1"/>
     <sheet name="YuhichYOC" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">YuhichYOC!$A$3:$O$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">YuhichYOC!$A$3:$O$44</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +34,7 @@
     <author>吉井雄一</author>
   </authors>
   <commentList>
-    <comment ref="D147" authorId="0" shapeId="0" xr:uid="{AD61CCD6-A2E1-4A44-80FB-FA3037FA57B7}">
+    <comment ref="D149" authorId="0" shapeId="0" xr:uid="{AD61CCD6-A2E1-4A44-80FB-FA3037FA57B7}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="353">
   <si>
     <t>日本語キー</t>
     <rPh sb="0" eb="3">
@@ -83,6 +83,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>キーコードエイリアス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>NOOP</t>
   </si>
   <si>
@@ -591,6 +595,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>KC_INT1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>[</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -627,6 +635,10 @@
     <t>パイプ</t>
   </si>
   <si>
+    <t>KC_INT3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>半角/全角</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -635,6 +647,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>KC_LNG5</t>
+  </si>
+  <si>
     <t>無変換</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -643,11 +658,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>KC_INT5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>変換</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>KC_HENK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KC_INT4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -858,6 +881,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>S(KC_INT3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>S `</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -915,6 +942,10 @@
   </si>
   <si>
     <t>S(KC_RO)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S(KC_INT1)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -958,6 +989,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>マウスキー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wheel Up</t>
+  </si>
+  <si>
+    <t>MS_WHLU</t>
+  </si>
+  <si>
+    <t>Wheel Down</t>
+  </si>
+  <si>
+    <t>MS_WHLD</t>
+  </si>
+  <si>
+    <t>Wheel Left</t>
+  </si>
+  <si>
+    <t>MS_WHLL</t>
+  </si>
+  <si>
+    <t>Wheel Right</t>
+  </si>
+  <si>
+    <t>MS_WHLR</t>
+  </si>
+  <si>
     <t>レイヤー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1051,6 +1110,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>キーコード</t>
+  </si>
+  <si>
     <t>Tap dance Lower</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1085,146 +1147,118 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Shift &amp; Space</t>
+  </si>
+  <si>
+    <t>Shift &amp; Enter</t>
+  </si>
+  <si>
+    <t>S '</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>無変換</t>
+  </si>
+  <si>
+    <t>変換</t>
+  </si>
+  <si>
+    <t>S Tilde</t>
+  </si>
+  <si>
+    <t>半角/全角</t>
+  </si>
+  <si>
     <t>DEFAULT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>Shift &amp; Space</t>
-  </si>
-  <si>
-    <t>Shift &amp; Enter</t>
   </si>
   <si>
     <t>LOWER</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>RAISE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>S Tilde</t>
   </si>
   <si>
     <t>ADJUST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>LOWER</t>
-  </si>
-  <si>
-    <t>RAISE</t>
+  </si>
+  <si>
+    <t>[_QWERTY] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[_LOWER] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[_RAISE] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[_ADJUST] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LOWER_ADJUST</t>
+  </si>
+  <si>
+    <t>LOWER_ADJUST</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ADJUST</t>
-  </si>
-  <si>
-    <t>[_QWERTY] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>),</t>
-  </si>
-  <si>
-    <t>[_LOWER] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[_RAISE] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[_ADJUST] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>マウスキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wheel Up</t>
-  </si>
-  <si>
-    <t>MS_WHLU</t>
-  </si>
-  <si>
-    <t>Wheel Down</t>
-  </si>
-  <si>
-    <t>MS_WHLD</t>
-  </si>
-  <si>
-    <t>Wheel Left</t>
-  </si>
-  <si>
-    <t>MS_WHLL</t>
-  </si>
-  <si>
-    <t>Wheel Right</t>
-  </si>
-  <si>
-    <t>MS_WHLR</t>
-  </si>
-  <si>
-    <t>キーコードエイリアス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KC_INT1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KC_INT3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KC_INT5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KC_INT4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S(KC_INT3)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>S(KC_INT1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KC_LNG5</t>
-  </si>
-  <si>
-    <t>S '</t>
-  </si>
-  <si>
-    <t>無変換</t>
-  </si>
-  <si>
-    <t>変換</t>
-  </si>
-  <si>
-    <t>半角/全角</t>
-  </si>
-  <si>
-    <t>キーコード</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RAISE_ADJUST</t>
+  </si>
+  <si>
+    <t>RAISE_ADJUST</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoRaiseAdjust</t>
+  </si>
+  <si>
+    <t>MoRaiseAdjust</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoLowerAdjust</t>
+  </si>
+  <si>
+    <t>MoLowerAdjust</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MO_LA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MO_RA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#define MO_L MO(_LOWER_ADJUST)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>#define MO_R MO(_RAISE_ADJUST)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[_LOWER_ADJUST] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[_RAISE_ADJUST] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2161,10 +2195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2190,369 +2224,369 @@
         <v>3</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>331</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="35"/>
       <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="36"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="36"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="36"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="36"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="36"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="36"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="36"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="36"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="36"/>
@@ -2565,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="36"/>
@@ -2578,7 +2612,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="36"/>
@@ -2591,7 +2625,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="36"/>
@@ -2604,7 +2638,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="36"/>
@@ -2617,7 +2651,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="36"/>
@@ -2630,7 +2664,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="36"/>
@@ -2643,7 +2677,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="36"/>
@@ -2656,7 +2690,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="36"/>
@@ -2669,7 +2703,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="36"/>
@@ -2682,674 +2716,674 @@
         <v>0</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="36"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="36"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="36"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="36"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="36"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="36"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="36"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="36"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="36"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="36"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="36"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="36"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="36"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="36"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="36"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="36"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="36"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B60" s="34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="36"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="36"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="36"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="36"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="36"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="36"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="36"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="36"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="36"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E69" s="36"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="36"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="33" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="36"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="36"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E73" s="36"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E74" s="36"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="36"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="33" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="36"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="36"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="36"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="36"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="36"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="36"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B82" s="34"/>
       <c r="C82" s="34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D82" s="35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E82" s="36" t="s">
-        <v>332</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="36"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="36"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="36"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="33" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B86" s="37"/>
       <c r="C86" s="37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>333</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B87" s="37"/>
       <c r="C87" s="37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D87" s="38"/>
       <c r="E87" s="39" t="s">
-        <v>338</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="33" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="37" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D88" s="38"/>
       <c r="E88" s="39" t="s">
-        <v>334</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="40" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B89" s="41"/>
       <c r="C89" s="41" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D89" s="42"/>
       <c r="E89" s="43" t="s">
-        <v>335</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="44" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B90" s="45"/>
       <c r="C90" s="45"/>
@@ -3373,486 +3407,486 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="36"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="33" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="36"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="33" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="36"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="33" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="36"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="33" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D96" s="35"/>
       <c r="E96" s="36"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="33" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="36"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="33" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D98" s="35"/>
       <c r="E98" s="36"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="33" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="36"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="33" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="36"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="33" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D101" s="35"/>
       <c r="E101" s="36"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="33" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="36"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="33" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="36"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="33" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D104" s="35"/>
       <c r="E104" s="36"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="33" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="36"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="33" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="36"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="33" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="36"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="33" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B108" s="34"/>
       <c r="C108" s="34" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="36"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="33" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B109" s="34"/>
       <c r="C109" s="34" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="36"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="33" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B110" s="34"/>
       <c r="C110" s="34" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="36"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="33" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B111" s="34"/>
       <c r="C111" s="34" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="36"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="33" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B112" s="34"/>
       <c r="C112" s="34" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D112" s="35"/>
       <c r="E112" s="36"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="33" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B113" s="34"/>
       <c r="C113" s="34" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="36"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="33" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B114" s="34"/>
       <c r="C114" s="34" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="36"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="33" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B115" s="34"/>
       <c r="C115" s="34" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="36"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="33" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B116" s="34"/>
       <c r="C116" s="34" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="36"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="33" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B117" s="34"/>
       <c r="C117" s="34" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="36"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="33" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B118" s="34"/>
       <c r="C118" s="34" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D118" s="35" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E118" s="36"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="33" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B119" s="34"/>
       <c r="C119" s="34" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="36" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="33" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B120" s="34"/>
       <c r="C120" s="34" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="36"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="33" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B121" s="34"/>
       <c r="C121" s="34" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="36"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="33" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B122" s="34"/>
       <c r="C122" s="34" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D122" s="35" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E122" s="36"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="33" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="B123" s="34"/>
       <c r="C123" s="34" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="33" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B124" s="34"/>
       <c r="C124" s="34" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="36"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="33" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B125" s="34"/>
       <c r="C125" s="34" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E125" s="36"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="33" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B126" s="34"/>
       <c r="C126" s="34" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="36" t="s">
-        <v>337</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="33" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B127" s="34"/>
       <c r="C127" s="34" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="36"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="47" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B128" s="37"/>
       <c r="C128" s="37" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D128" s="38"/>
       <c r="E128" s="39"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="47" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B129" s="37" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D129" s="38" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E129" s="39"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="40" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B130" s="41" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C130" s="41" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D130" s="42" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="E130" s="43"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="44" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="B131" s="45"/>
       <c r="C131" s="45"/>
@@ -3876,52 +3910,52 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="33" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="36"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="33" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="B134" s="34" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="36"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="33" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="36"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="33" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="D136" s="35"/>
       <c r="E136" s="36"/>
@@ -3935,7 +3969,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="44" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B138" s="45"/>
       <c r="C138" s="45"/>
@@ -3959,216 +3993,246 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="33" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B140" s="34" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="D140" s="35" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="E140" s="36"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="33" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="C141" s="34" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="D141" s="35" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="E141" s="36"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="33" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="E142" s="36"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="47" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="B143" s="37" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="D143" s="38" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="E143" s="39"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" s="40"/>
-      <c r="B144" s="41"/>
-      <c r="C144" s="41"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="49"/>
+      <c r="A144" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B144" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="C144" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D144" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="E144" s="36"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="B145" s="45"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="45"/>
-      <c r="E145" s="46"/>
+      <c r="A145" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B145" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>348</v>
+      </c>
+      <c r="D145" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="E145" s="36"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="30" t="s">
+      <c r="A146" s="40"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="48"/>
+      <c r="E146" s="49"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" s="45"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="45"/>
+      <c r="E147" s="46"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B146" s="31" t="s">
+      <c r="B148" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C146" s="31" t="s">
+      <c r="C148" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D146" s="31" t="s">
+      <c r="D148" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E146" s="32"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B147" s="34"/>
-      <c r="C147" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="D147" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="E147" s="36"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="D148" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="E148" s="36"/>
+      <c r="E148" s="32"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="33"/>
+      <c r="A149" s="33" t="s">
+        <v>305</v>
+      </c>
       <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="35"/>
+      <c r="C149" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D149" s="35" t="s">
+        <v>307</v>
+      </c>
       <c r="E149" s="36"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="47"/>
-      <c r="B150" s="37"/>
-      <c r="C150" s="37"/>
-      <c r="D150" s="38"/>
-      <c r="E150" s="39"/>
+      <c r="A150" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="B150" s="34"/>
+      <c r="C150" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="D150" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="E150" s="36"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="40"/>
-      <c r="B151" s="41"/>
-      <c r="C151" s="41"/>
-      <c r="D151" s="42"/>
-      <c r="E151" s="43"/>
+      <c r="A151" s="33"/>
+      <c r="B151" s="34"/>
+      <c r="C151" s="34"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="36"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="B152" s="45"/>
-      <c r="C152" s="45"/>
-      <c r="D152" s="45"/>
-      <c r="E152" s="46"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="38"/>
+      <c r="E152" s="39"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="30" t="s">
+      <c r="A153" s="40"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="41"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="43"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B154" s="45"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="45"/>
+      <c r="E154" s="46"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B153" s="31" t="s">
+      <c r="B155" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C153" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="D153" s="31" t="s">
+      <c r="C155" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D155" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E153" s="32"/>
-    </row>
-    <row r="154" spans="1:5" ht="66" x14ac:dyDescent="0.35">
-      <c r="A154" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="B154" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="C154" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="D154" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="E154" s="51"/>
-    </row>
-    <row r="155" spans="1:5" ht="66" x14ac:dyDescent="0.35">
-      <c r="A155" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="B155" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="C155" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D155" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="E155" s="51"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="33"/>
-      <c r="B156" s="34"/>
-      <c r="C156" s="34"/>
-      <c r="D156" s="35"/>
-      <c r="E156" s="36"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="47"/>
-      <c r="B157" s="37"/>
-      <c r="C157" s="37"/>
-      <c r="D157" s="38"/>
-      <c r="E157" s="39"/>
+      <c r="E155" s="32"/>
+    </row>
+    <row r="156" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A156" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="D156" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="E156" s="51"/>
+    </row>
+    <row r="157" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A157" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B157" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C157" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="D157" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E157" s="51"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="40"/>
-      <c r="B158" s="41"/>
-      <c r="C158" s="41"/>
-      <c r="D158" s="42"/>
-      <c r="E158" s="43"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="34"/>
+      <c r="C158" s="34"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="36"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="47"/>
+      <c r="B159" s="37"/>
+      <c r="C159" s="37"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="39"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="40"/>
+      <c r="B160" s="41"/>
+      <c r="C160" s="41"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -4183,10 +4247,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:B73"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4197,7 +4261,7 @@
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4232,223 +4296,223 @@
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="5"/>
@@ -4458,179 +4522,179 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -4648,10 +4712,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J12" s="7">
         <v>6</v>
@@ -4669,2766 +4733,4314 @@
         <v>0</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>341</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="G18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4</v>
+      </c>
+      <c r="G24" s="7">
+        <v>5</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J24" s="7">
         <v>6</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B21" s="15" t="str">
+      <c r="K24" s="7">
+        <v>7</v>
+      </c>
+      <c r="L24" s="7">
+        <v>8</v>
+      </c>
+      <c r="M24" s="7">
+        <v>9</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" s="15" t="str">
         <f>IF(B3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B3,keycodes!$B:$B,0),0)))</f>
         <v>KC_ESC</v>
       </c>
-      <c r="C21" s="15" t="str">
+      <c r="C29" s="15" t="str">
         <f>IF(C3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C3,keycodes!$B:$B,0),0)))</f>
         <v>KC_Q</v>
       </c>
-      <c r="D21" s="15" t="str">
+      <c r="D29" s="15" t="str">
         <f>IF(D3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D3,keycodes!$B:$B,0),0)))</f>
         <v>KC_W</v>
       </c>
-      <c r="E21" s="15" t="str">
+      <c r="E29" s="15" t="str">
         <f>IF(E3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E3,keycodes!$B:$B,0),0)))</f>
         <v>KC_E</v>
       </c>
-      <c r="F21" s="15" t="str">
+      <c r="F29" s="15" t="str">
         <f>IF(F3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F3,keycodes!$B:$B,0),0)))</f>
         <v>KC_R</v>
       </c>
-      <c r="G21" s="15" t="str">
+      <c r="G29" s="15" t="str">
         <f>IF(G3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G3,keycodes!$B:$B,0),0)))</f>
         <v>KC_T</v>
       </c>
-      <c r="H21" s="16" t="str">
+      <c r="H29" s="16" t="str">
         <f>IF(H3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H3,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
-      <c r="I21" s="16" t="str">
+      <c r="I29" s="16" t="str">
         <f>IF(I3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I3,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
-      <c r="J21" s="15" t="str">
+      <c r="J29" s="15" t="str">
         <f>IF(J3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J3,keycodes!$B:$B,0),0)))</f>
         <v>KC_Y</v>
       </c>
-      <c r="K21" s="15" t="str">
+      <c r="K29" s="15" t="str">
         <f>IF(K3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K3,keycodes!$B:$B,0),0)))</f>
         <v>KC_U</v>
       </c>
-      <c r="L21" s="15" t="str">
+      <c r="L29" s="15" t="str">
         <f>IF(L3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L3,keycodes!$B:$B,0),0)))</f>
         <v>KC_I</v>
       </c>
-      <c r="M21" s="15" t="str">
+      <c r="M29" s="15" t="str">
         <f>IF(M3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M3,keycodes!$B:$B,0),0)))</f>
         <v>KC_O</v>
       </c>
-      <c r="N21" s="15" t="str">
+      <c r="N29" s="15" t="str">
         <f>IF(N3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N3,keycodes!$B:$B,0),0)))</f>
         <v>KC_P</v>
       </c>
-      <c r="O21" s="17" t="str">
+      <c r="O29" s="17" t="str">
         <f>IF(O3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O3,keycodes!$B:$B,0),0)))</f>
         <v>KC_LBRC</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
-      <c r="B22" s="18" t="str">
-        <f>IF(B4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_TAB</v>
-      </c>
-      <c r="C22" s="18" t="str">
-        <f>IF(C4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_A</v>
-      </c>
-      <c r="D22" s="18" t="str">
-        <f>IF(D4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_S</v>
-      </c>
-      <c r="E22" s="18" t="str">
-        <f>IF(E4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_D</v>
-      </c>
-      <c r="F22" s="18" t="str">
-        <f>IF(F4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F</v>
-      </c>
-      <c r="G22" s="18" t="str">
-        <f>IF(G4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_G</v>
-      </c>
-      <c r="H22" s="19" t="str">
-        <f>IF(H4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H4,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="I22" s="19" t="str">
-        <f>IF(I4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I4,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="J22" s="18" t="str">
-        <f>IF(J4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_H</v>
-      </c>
-      <c r="K22" s="18" t="str">
-        <f>IF(K4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_J</v>
-      </c>
-      <c r="L22" s="18" t="str">
-        <f>IF(L4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_K</v>
-      </c>
-      <c r="M22" s="18" t="str">
-        <f>IF(M4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_L</v>
-      </c>
-      <c r="N22" s="18" t="str">
-        <f>IF(N4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_SCLN</v>
-      </c>
-      <c r="O22" s="20" t="str">
-        <f>IF(O4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O4,keycodes!$B:$B,0),0)))</f>
-        <v>KC_QUOT</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="18" t="str">
-        <f>IF(B5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_LCTL</v>
-      </c>
-      <c r="C23" s="18" t="str">
-        <f>IF(C5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_Z</v>
-      </c>
-      <c r="D23" s="18" t="str">
-        <f>IF(D5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_X</v>
-      </c>
-      <c r="E23" s="18" t="str">
-        <f>IF(E5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_C</v>
-      </c>
-      <c r="F23" s="18" t="str">
-        <f>IF(F5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_V</v>
-      </c>
-      <c r="G23" s="18" t="str">
-        <f>IF(G5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_B</v>
-      </c>
-      <c r="H23" s="19" t="str">
-        <f>IF(H5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H5,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="I23" s="19" t="str">
-        <f>IF(I5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I5,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="J23" s="18" t="str">
-        <f>IF(J5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_N</v>
-      </c>
-      <c r="K23" s="18" t="str">
-        <f>IF(K5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_M</v>
-      </c>
-      <c r="L23" s="18" t="str">
-        <f>IF(L5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_COMM</v>
-      </c>
-      <c r="M23" s="18" t="str">
-        <f>IF(M5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_DOT</v>
-      </c>
-      <c r="N23" s="18" t="str">
-        <f>IF(N5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_SLSH</v>
-      </c>
-      <c r="O23" s="20" t="str">
-        <f>IF(O5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O5,keycodes!$B:$B,0),0)))</f>
-        <v>KC_INT1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="10"/>
-      <c r="B24" s="21" t="str">
-        <f>IF(B6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B6,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="C24" s="21" t="str">
-        <f>IF(C6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C6,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="D24" s="21" t="str">
-        <f>IF(D6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D6,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="E24" s="21" t="str">
-        <f>IF(E6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E6,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="F24" s="22" t="str">
-        <f>IF(F6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F6,keycodes!$B:$B,0),0)))</f>
-        <v>TG_R</v>
-      </c>
-      <c r="G24" s="22" t="str">
-        <f>IF(G6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G6,keycodes!$B:$B,0),0)))</f>
-        <v>MO_R</v>
-      </c>
-      <c r="H24" s="22" t="str">
-        <f>IF(H6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H6,keycodes!$B:$B,0),0)))</f>
-        <v>LSFT_SPC</v>
-      </c>
-      <c r="I24" s="22" t="str">
-        <f>IF(I6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I6,keycodes!$B:$B,0),0)))</f>
-        <v>RSTF_ENT</v>
-      </c>
-      <c r="J24" s="22" t="str">
-        <f>IF(J6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J6,keycodes!$B:$B,0),0)))</f>
-        <v>MO_L</v>
-      </c>
-      <c r="K24" s="22" t="str">
-        <f>IF(K6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K6,keycodes!$B:$B,0),0)))</f>
-        <v>TG_L</v>
-      </c>
-      <c r="L24" s="21" t="str">
-        <f>IF(L6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L6,keycodes!$B:$B,0),0)))</f>
-        <v>TERM</v>
-      </c>
-      <c r="M24" s="21" t="str">
-        <f>IF(M6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M6,keycodes!$B:$B,0),0)))</f>
-        <v>TERM</v>
-      </c>
-      <c r="N24" s="21" t="str">
-        <f>IF(N6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N6,keycodes!$B:$B,0),0)))</f>
-        <v>TERM</v>
-      </c>
-      <c r="O24" s="23" t="str">
-        <f>IF(O6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O6,keycodes!$B:$B,0),0)))</f>
-        <v>TERM</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B25" s="15" t="str">
-        <f>IF(B7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B7,keycodes!$B:$B,0),0)))</f>
-        <v>XXXXXXX</v>
-      </c>
-      <c r="C25" s="15" t="str">
-        <f>IF(C7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C7,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_1)</v>
-      </c>
-      <c r="D25" s="15" t="str">
-        <f>IF(D7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D7,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_2)</v>
-      </c>
-      <c r="E25" s="15" t="str">
-        <f>IF(E7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E7,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_3)</v>
-      </c>
-      <c r="F25" s="15" t="str">
-        <f>IF(F7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F7,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_4)</v>
-      </c>
-      <c r="G25" s="15" t="str">
-        <f>IF(G7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G7,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_5)</v>
-      </c>
-      <c r="H25" s="16" t="str">
-        <f>IF(H7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H7,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="I25" s="16" t="str">
-        <f>IF(I7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I7,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="J25" s="15" t="str">
-        <f>IF(J7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J7,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_6)</v>
-      </c>
-      <c r="K25" s="15" t="str">
-        <f>IF(K7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K7,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_7)</v>
-      </c>
-      <c r="L25" s="15" t="str">
-        <f>IF(L7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L7,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_8)</v>
-      </c>
-      <c r="M25" s="15" t="str">
-        <f>IF(M7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M7,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_9)</v>
-      </c>
-      <c r="N25" s="15" t="str">
-        <f>IF(N7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N7,keycodes!$B:$B,0),0)))</f>
-        <v>XXXXXXX</v>
-      </c>
-      <c r="O25" s="17" t="str">
-        <f>IF(O7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O7,keycodes!$B:$B,0),0)))</f>
-        <v>XXXXXXX</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="18" t="str">
-        <f>IF(B8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B8,keycodes!$B:$B,0),0)))</f>
-        <v>XXXXXXX</v>
-      </c>
-      <c r="C26" s="18" t="str">
-        <f>IF(C8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C8,keycodes!$B:$B,0),0)))</f>
-        <v>XXXXXXX</v>
-      </c>
-      <c r="D26" s="18" t="str">
-        <f>IF(D8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_HOME</v>
-      </c>
-      <c r="E26" s="18" t="str">
-        <f>IF(E8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_PGUP</v>
-      </c>
-      <c r="F26" s="18" t="str">
-        <f>IF(F8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_PGDN</v>
-      </c>
-      <c r="G26" s="18" t="str">
-        <f>IF(G8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_END</v>
-      </c>
-      <c r="H26" s="19" t="str">
-        <f>IF(H8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H8,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="I26" s="19" t="str">
-        <f>IF(I8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I8,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="J26" s="18" t="str">
-        <f>IF(J8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_LEFT</v>
-      </c>
-      <c r="K26" s="18" t="str">
-        <f>IF(K8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_DOWN</v>
-      </c>
-      <c r="L26" s="18" t="str">
-        <f>IF(L8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_UP</v>
-      </c>
-      <c r="M26" s="18" t="str">
-        <f>IF(M8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_RGHT</v>
-      </c>
-      <c r="N26" s="18" t="str">
-        <f>IF(N8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_EQL</v>
-      </c>
-      <c r="O26" s="20" t="str">
-        <f>IF(O8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O8,keycodes!$B:$B,0),0)))</f>
-        <v>KC_MINS</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="18" t="str">
-        <f>IF(B9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B9,keycodes!$B:$B,0),0)))</f>
-        <v>KC_LCTL</v>
-      </c>
-      <c r="C27" s="18" t="str">
-        <f>IF(C9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C9,keycodes!$B:$B,0),0)))</f>
-        <v>KC_LALT</v>
-      </c>
-      <c r="D27" s="18" t="str">
-        <f>IF(D9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D9,keycodes!$B:$B,0),0)))</f>
-        <v>XXXXXXX</v>
-      </c>
-      <c r="E27" s="18" t="str">
-        <f>IF(E9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E9,keycodes!$B:$B,0),0)))</f>
-        <v>XXXXXXX</v>
-      </c>
-      <c r="F27" s="18" t="str">
-        <f>IF(F9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F9,keycodes!$B:$B,0),0)))</f>
-        <v>KC_INT5</v>
-      </c>
-      <c r="G27" s="18" t="str">
-        <f>IF(G9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G9,keycodes!$B:$B,0),0)))</f>
-        <v>KC_BSPC</v>
-      </c>
-      <c r="H27" s="19" t="str">
-        <f>IF(H9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H9,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="I27" s="19" t="str">
-        <f>IF(I9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I9,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="J27" s="18" t="str">
-        <f>IF(J9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J9,keycodes!$B:$B,0),0)))</f>
-        <v>KC_DEL</v>
-      </c>
-      <c r="K27" s="18" t="str">
-        <f>IF(K9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K9,keycodes!$B:$B,0),0)))</f>
-        <v>KC_INT4</v>
-      </c>
-      <c r="L27" s="18" t="str">
-        <f>IF(L9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L9,keycodes!$B:$B,0),0)))</f>
-        <v>KC_RBRC</v>
-      </c>
-      <c r="M27" s="18" t="str">
-        <f>IF(M9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M9,keycodes!$B:$B,0),0)))</f>
-        <v>KC_BSLS</v>
-      </c>
-      <c r="N27" s="18" t="str">
-        <f>IF(N9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N9,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_EQL)</v>
-      </c>
-      <c r="O27" s="20" t="str">
-        <f>IF(O9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O9,keycodes!$B:$B,0),0)))</f>
-        <v>S(KC_INT3)</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="10"/>
-      <c r="B28" s="21" t="str">
-        <f>IF(B10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B10,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="C28" s="21" t="str">
-        <f>IF(C10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C10,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="D28" s="21" t="str">
-        <f>IF(D10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D10,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="E28" s="21" t="str">
-        <f>IF(E10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E10,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="F28" s="22" t="str">
-        <f>IF(F10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F10,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
-      </c>
-      <c r="G28" s="22" t="str">
-        <f>IF(G10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G10,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
-      </c>
-      <c r="H28" s="22" t="str">
-        <f>IF(H10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H10,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
-      </c>
-      <c r="I28" s="22" t="str">
-        <f>IF(I10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I10,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
-      </c>
-      <c r="J28" s="22" t="str">
-        <f>IF(J10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J10,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
-      </c>
-      <c r="K28" s="22" t="str">
-        <f>IF(K10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K10,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
-      </c>
-      <c r="L28" s="21" t="str">
-        <f>IF(L10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L10,keycodes!$B:$B,0),0)))</f>
-        <v>TERM</v>
-      </c>
-      <c r="M28" s="21" t="str">
-        <f>IF(M10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M10,keycodes!$B:$B,0),0)))</f>
-        <v>TERM</v>
-      </c>
-      <c r="N28" s="21" t="str">
-        <f>IF(N10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N10,keycodes!$B:$B,0),0)))</f>
-        <v>TERM</v>
-      </c>
-      <c r="O28" s="23" t="str">
-        <f>IF(O10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O10,keycodes!$B:$B,0),0)))</f>
-        <v>TERM</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" s="15" t="str">
-        <f>IF(B11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F1</v>
-      </c>
-      <c r="C29" s="15" t="str">
-        <f>IF(C11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F2</v>
-      </c>
-      <c r="D29" s="15" t="str">
-        <f>IF(D11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F3</v>
-      </c>
-      <c r="E29" s="15" t="str">
-        <f>IF(E11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F4</v>
-      </c>
-      <c r="F29" s="15" t="str">
-        <f>IF(F11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F5</v>
-      </c>
-      <c r="G29" s="15" t="str">
-        <f>IF(G11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F6</v>
-      </c>
-      <c r="H29" s="16" t="str">
-        <f>IF(H11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H11,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="I29" s="16" t="str">
-        <f>IF(I11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I11,keycodes!$B:$B,0),0)))</f>
-        <v>NONE</v>
-      </c>
-      <c r="J29" s="15" t="str">
-        <f>IF(J11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F7</v>
-      </c>
-      <c r="K29" s="15" t="str">
-        <f>IF(K11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F8</v>
-      </c>
-      <c r="L29" s="15" t="str">
-        <f>IF(L11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F9</v>
-      </c>
-      <c r="M29" s="15" t="str">
-        <f>IF(M11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F10</v>
-      </c>
-      <c r="N29" s="15" t="str">
-        <f>IF(N11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F11</v>
-      </c>
-      <c r="O29" s="17" t="str">
-        <f>IF(O11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O11,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F12</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
       <c r="B30" s="18" t="str">
-        <f>IF(B12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_LNG5</v>
+        <f>IF(B4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_TAB</v>
       </c>
       <c r="C30" s="18" t="str">
-        <f>IF(C12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_1</v>
+        <f>IF(C4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_A</v>
       </c>
       <c r="D30" s="18" t="str">
-        <f>IF(D12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_2</v>
+        <f>IF(D4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_S</v>
       </c>
       <c r="E30" s="18" t="str">
-        <f>IF(E12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_3</v>
+        <f>IF(E4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_D</v>
       </c>
       <c r="F30" s="18" t="str">
-        <f>IF(F12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_4</v>
+        <f>IF(F4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F</v>
       </c>
       <c r="G30" s="18" t="str">
-        <f>IF(G12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_5</v>
+        <f>IF(G4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_G</v>
       </c>
       <c r="H30" s="19" t="str">
-        <f>IF(H12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H12,keycodes!$B:$B,0),0)))</f>
+        <f>IF(H4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H4,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="I30" s="19" t="str">
-        <f>IF(I12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I12,keycodes!$B:$B,0),0)))</f>
+        <f>IF(I4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I4,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="J30" s="18" t="str">
-        <f>IF(J12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_6</v>
+        <f>IF(J4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_H</v>
       </c>
       <c r="K30" s="18" t="str">
-        <f>IF(K12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_7</v>
+        <f>IF(K4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_J</v>
       </c>
       <c r="L30" s="18" t="str">
-        <f>IF(L12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_8</v>
+        <f>IF(L4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_K</v>
       </c>
       <c r="M30" s="18" t="str">
-        <f>IF(M12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_9</v>
+        <f>IF(M4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_L</v>
       </c>
       <c r="N30" s="18" t="str">
-        <f>IF(N12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_0</v>
+        <f>IF(N4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_SCLN</v>
       </c>
       <c r="O30" s="20" t="str">
-        <f>IF(O12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O12,keycodes!$B:$B,0),0)))</f>
-        <v>KC_MINS</v>
+        <f>IF(O4="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O4,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O4,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O4,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O4,keycodes!$B:$B,0),0)))</f>
+        <v>KC_QUOT</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
       <c r="B31" s="18" t="str">
-        <f>IF(B13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B13,keycodes!$B:$B,0),0)))</f>
+        <f>IF(B5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B5,keycodes!$B:$B,0),0)))</f>
         <v>KC_LCTL</v>
       </c>
       <c r="C31" s="18" t="str">
-        <f>IF(C13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C13,keycodes!$B:$B,0),0)))</f>
-        <v>KC_LALT</v>
+        <f>IF(C5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C5,keycodes!$B:$B,0),0)))</f>
+        <v>KC_Z</v>
       </c>
       <c r="D31" s="18" t="str">
-        <f>IF(D13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D13,keycodes!$B:$B,0),0)))</f>
-        <v>MS_WHLL</v>
+        <f>IF(D5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D5,keycodes!$B:$B,0),0)))</f>
+        <v>KC_X</v>
       </c>
       <c r="E31" s="18" t="str">
-        <f>IF(E13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E13,keycodes!$B:$B,0),0)))</f>
-        <v>MS_WHLR</v>
+        <f>IF(E5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E5,keycodes!$B:$B,0),0)))</f>
+        <v>KC_C</v>
       </c>
       <c r="F31" s="18" t="str">
-        <f>IF(F13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F13,keycodes!$B:$B,0),0)))</f>
-        <v>KC_INT5</v>
+        <f>IF(F5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F5,keycodes!$B:$B,0),0)))</f>
+        <v>KC_V</v>
       </c>
       <c r="G31" s="18" t="str">
-        <f>IF(G13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G13,keycodes!$B:$B,0),0)))</f>
-        <v>KC_BSPC</v>
+        <f>IF(G5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G5,keycodes!$B:$B,0),0)))</f>
+        <v>KC_B</v>
       </c>
       <c r="H31" s="19" t="str">
-        <f>IF(H13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H13,keycodes!$B:$B,0),0)))</f>
+        <f>IF(H5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H5,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="I31" s="19" t="str">
-        <f>IF(I13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I13,keycodes!$B:$B,0),0)))</f>
+        <f>IF(I5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I5,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="J31" s="18" t="str">
-        <f>IF(J13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J13,keycodes!$B:$B,0),0)))</f>
-        <v>KC_DEL</v>
+        <f>IF(J5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J5,keycodes!$B:$B,0),0)))</f>
+        <v>KC_N</v>
       </c>
       <c r="K31" s="18" t="str">
-        <f>IF(K13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K13,keycodes!$B:$B,0),0)))</f>
-        <v>KC_INT4</v>
+        <f>IF(K5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K5,keycodes!$B:$B,0),0)))</f>
+        <v>KC_M</v>
       </c>
       <c r="L31" s="18" t="str">
-        <f>IF(L13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L13,keycodes!$B:$B,0),0)))</f>
+        <f>IF(L5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L5,keycodes!$B:$B,0),0)))</f>
         <v>KC_COMM</v>
       </c>
       <c r="M31" s="18" t="str">
-        <f>IF(M13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M13,keycodes!$B:$B,0),0)))</f>
+        <f>IF(M5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M5,keycodes!$B:$B,0),0)))</f>
         <v>KC_DOT</v>
       </c>
       <c r="N31" s="18" t="str">
-        <f>IF(N13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N13,keycodes!$B:$B,0),0)))</f>
+        <f>IF(N5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N5,keycodes!$B:$B,0),0)))</f>
         <v>KC_SLSH</v>
       </c>
       <c r="O31" s="20" t="str">
-        <f>IF(O13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O13,keycodes!$B:$B,0),0)))</f>
+        <f>IF(O5="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O5,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O5,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O5,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O5,keycodes!$B:$B,0),0)))</f>
         <v>KC_INT1</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="21" t="str">
-        <f>IF(B14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B14,keycodes!$B:$B,0),0)))</f>
+        <f>IF(B6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B6,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="C32" s="21" t="str">
-        <f>IF(C14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C14,keycodes!$B:$B,0),0)))</f>
+        <f>IF(C6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C6,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="D32" s="21" t="str">
-        <f>IF(D14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D14,keycodes!$B:$B,0),0)))</f>
+        <f>IF(D6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D6,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="E32" s="21" t="str">
-        <f>IF(E14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E14,keycodes!$B:$B,0),0)))</f>
+        <f>IF(E6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E6,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="F32" s="22" t="str">
-        <f>IF(F14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F14,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
+        <f>IF(F6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F6,keycodes!$B:$B,0),0)))</f>
+        <v>TG_R</v>
       </c>
       <c r="G32" s="22" t="str">
-        <f>IF(G14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G14,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
+        <f>IF(G6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G6,keycodes!$B:$B,0),0)))</f>
+        <v>MO_R</v>
       </c>
       <c r="H32" s="22" t="str">
-        <f>IF(H14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H14,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
+        <f>IF(H6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H6,keycodes!$B:$B,0),0)))</f>
+        <v>LSFT_SPC</v>
       </c>
       <c r="I32" s="22" t="str">
-        <f>IF(I14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I14,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
+        <f>IF(I6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I6,keycodes!$B:$B,0),0)))</f>
+        <v>RSTF_ENT</v>
       </c>
       <c r="J32" s="22" t="str">
-        <f>IF(J14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J14,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
+        <f>IF(J6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J6,keycodes!$B:$B,0),0)))</f>
+        <v>MO_L</v>
       </c>
       <c r="K32" s="22" t="str">
-        <f>IF(K14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K14,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
+        <f>IF(K6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K6,keycodes!$B:$B,0),0)))</f>
+        <v>TG_L</v>
       </c>
       <c r="L32" s="21" t="str">
-        <f>IF(L14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L14,keycodes!$B:$B,0),0)))</f>
+        <f>IF(L6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L6,keycodes!$B:$B,0),0)))</f>
         <v>TERM</v>
       </c>
       <c r="M32" s="21" t="str">
-        <f>IF(M14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M14,keycodes!$B:$B,0),0)))</f>
+        <f>IF(M6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M6,keycodes!$B:$B,0),0)))</f>
         <v>TERM</v>
       </c>
       <c r="N32" s="21" t="str">
-        <f>IF(N14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N14,keycodes!$B:$B,0),0)))</f>
+        <f>IF(N6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N6,keycodes!$B:$B,0),0)))</f>
         <v>TERM</v>
       </c>
       <c r="O32" s="23" t="str">
-        <f>IF(O14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O14,keycodes!$B:$B,0),0)))</f>
+        <f>IF(O6="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O6,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O6,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O6,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O6,keycodes!$B:$B,0),0)))</f>
         <v>TERM</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="B33" s="15" t="str">
-        <f>IF(B15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_ESC</v>
+        <f>IF(B7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B7,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
       </c>
       <c r="C33" s="15" t="str">
-        <f>IF(C15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_Q</v>
+        <f>IF(C7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C7,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_1)</v>
       </c>
       <c r="D33" s="15" t="str">
-        <f>IF(D15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_W</v>
+        <f>IF(D7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D7,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_2)</v>
       </c>
       <c r="E33" s="15" t="str">
-        <f>IF(E15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_E</v>
+        <f>IF(E7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E7,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_3)</v>
       </c>
       <c r="F33" s="15" t="str">
-        <f>IF(F15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_R</v>
+        <f>IF(F7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F7,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_4)</v>
       </c>
       <c r="G33" s="15" t="str">
-        <f>IF(G15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_T</v>
+        <f>IF(G7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G7,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_5)</v>
       </c>
       <c r="H33" s="16" t="str">
-        <f>IF(H15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H15,keycodes!$B:$B,0),0)))</f>
+        <f>IF(H7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H7,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="I33" s="16" t="str">
-        <f>IF(I15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I15,keycodes!$B:$B,0),0)))</f>
+        <f>IF(I7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I7,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="J33" s="15" t="str">
-        <f>IF(J15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_Y</v>
+        <f>IF(J7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J7,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_6)</v>
       </c>
       <c r="K33" s="15" t="str">
-        <f>IF(K15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_U</v>
+        <f>IF(K7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K7,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_7)</v>
       </c>
       <c r="L33" s="15" t="str">
-        <f>IF(L15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_I</v>
+        <f>IF(L7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L7,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_8)</v>
       </c>
       <c r="M33" s="15" t="str">
-        <f>IF(M15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_O</v>
+        <f>IF(M7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M7,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_9)</v>
       </c>
       <c r="N33" s="15" t="str">
-        <f>IF(N15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_P</v>
+        <f>IF(N7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N7,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
       </c>
       <c r="O33" s="17" t="str">
-        <f>IF(O15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O15,keycodes!$B:$B,0),0)))</f>
-        <v>KC_LBRC</v>
+        <f>IF(O7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O7,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
       <c r="B34" s="18" t="str">
-        <f>IF(B16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_TAB</v>
+        <f>IF(B8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B8,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
       </c>
       <c r="C34" s="18" t="str">
-        <f>IF(C16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_A</v>
+        <f>IF(C8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C8,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
       </c>
       <c r="D34" s="18" t="str">
-        <f>IF(D16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_S</v>
+        <f>IF(D8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_HOME</v>
       </c>
       <c r="E34" s="18" t="str">
-        <f>IF(E16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_D</v>
+        <f>IF(E8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_PGUP</v>
       </c>
       <c r="F34" s="18" t="str">
-        <f>IF(F16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_F</v>
+        <f>IF(F8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_PGDN</v>
       </c>
       <c r="G34" s="18" t="str">
-        <f>IF(G16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_G</v>
+        <f>IF(G8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_END</v>
       </c>
       <c r="H34" s="19" t="str">
-        <f>IF(H16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H16,keycodes!$B:$B,0),0)))</f>
+        <f>IF(H8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H8,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="I34" s="19" t="str">
-        <f>IF(I16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I16,keycodes!$B:$B,0),0)))</f>
+        <f>IF(I8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I8,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="J34" s="18" t="str">
-        <f>IF(J16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_H</v>
+        <f>IF(J8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LEFT</v>
       </c>
       <c r="K34" s="18" t="str">
-        <f>IF(K16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_J</v>
+        <f>IF(K8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_DOWN</v>
       </c>
       <c r="L34" s="18" t="str">
-        <f>IF(L16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_K</v>
+        <f>IF(L8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_UP</v>
       </c>
       <c r="M34" s="18" t="str">
-        <f>IF(M16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_L</v>
+        <f>IF(M8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_RGHT</v>
       </c>
       <c r="N34" s="18" t="str">
-        <f>IF(N16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_SCLN</v>
+        <f>IF(N8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_EQL</v>
       </c>
       <c r="O34" s="20" t="str">
-        <f>IF(O16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O16,keycodes!$B:$B,0),0)))</f>
-        <v>KC_QUOT</v>
+        <f>IF(O8="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O8,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O8,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O8,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O8,keycodes!$B:$B,0),0)))</f>
+        <v>KC_MINS</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
       <c r="B35" s="18" t="str">
-        <f>IF(B17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B17,keycodes!$B:$B,0),0)))</f>
+        <f>IF(B9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B9,keycodes!$B:$B,0),0)))</f>
         <v>KC_LCTL</v>
       </c>
       <c r="C35" s="18" t="str">
-        <f>IF(C17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_Z</v>
+        <f>IF(C9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C9,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LALT</v>
       </c>
       <c r="D35" s="18" t="str">
-        <f>IF(D17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_X</v>
+        <f>IF(D9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D9,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
       </c>
       <c r="E35" s="18" t="str">
-        <f>IF(E17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_C</v>
+        <f>IF(E9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E9,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
       </c>
       <c r="F35" s="18" t="str">
-        <f>IF(F17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_V</v>
+        <f>IF(F9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F9,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT5</v>
       </c>
       <c r="G35" s="18" t="str">
-        <f>IF(G17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_B</v>
+        <f>IF(G9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G9,keycodes!$B:$B,0),0)))</f>
+        <v>KC_BSPC</v>
       </c>
       <c r="H35" s="19" t="str">
-        <f>IF(H17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H17,keycodes!$B:$B,0),0)))</f>
+        <f>IF(H9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H9,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="I35" s="19" t="str">
-        <f>IF(I17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I17,keycodes!$B:$B,0),0)))</f>
+        <f>IF(I9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I9,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
       <c r="J35" s="18" t="str">
-        <f>IF(J17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_N</v>
+        <f>IF(J9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J9,keycodes!$B:$B,0),0)))</f>
+        <v>KC_DEL</v>
       </c>
       <c r="K35" s="18" t="str">
-        <f>IF(K17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_M</v>
+        <f>IF(K9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K9,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT4</v>
       </c>
       <c r="L35" s="18" t="str">
-        <f>IF(L17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_COMM</v>
+        <f>IF(L9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L9,keycodes!$B:$B,0),0)))</f>
+        <v>KC_RBRC</v>
       </c>
       <c r="M35" s="18" t="str">
-        <f>IF(M17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_DOT</v>
+        <f>IF(M9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M9,keycodes!$B:$B,0),0)))</f>
+        <v>KC_BSLS</v>
       </c>
       <c r="N35" s="18" t="str">
-        <f>IF(N17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_SLSH</v>
+        <f>IF(N9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N9,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_EQL)</v>
       </c>
       <c r="O35" s="20" t="str">
-        <f>IF(O17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O17,keycodes!$B:$B,0),0)))</f>
-        <v>KC_INT1</v>
+        <f>IF(O9="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O9,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O9,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O9,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O9,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_INT3)</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="21" t="str">
+        <f>IF(B10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B10,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="C36" s="21" t="str">
+        <f>IF(C10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C10,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="D36" s="21" t="str">
+        <f>IF(D10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D10,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="E36" s="21" t="str">
+        <f>IF(E10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E10,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="F36" s="22" t="str">
+        <f>IF(F10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F10,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="G36" s="22" t="str">
+        <f>IF(G10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G10,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="H36" s="22" t="str">
+        <f>IF(H10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H10,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="I36" s="22" t="str">
+        <f>IF(I10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I10,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="J36" s="22" t="str">
+        <f>IF(J10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J10,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="K36" s="22" t="str">
+        <f>IF(K10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K10,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="L36" s="21" t="str">
+        <f>IF(L10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L10,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="M36" s="21" t="str">
+        <f>IF(M10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M10,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="N36" s="21" t="str">
+        <f>IF(N10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N10,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="O36" s="23" t="str">
+        <f>IF(O10="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O10,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O10,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O10,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O10,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="15" t="str">
+        <f>IF(B11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F1</v>
+      </c>
+      <c r="C37" s="15" t="str">
+        <f>IF(C11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F2</v>
+      </c>
+      <c r="D37" s="15" t="str">
+        <f>IF(D11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F3</v>
+      </c>
+      <c r="E37" s="15" t="str">
+        <f>IF(E11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F4</v>
+      </c>
+      <c r="F37" s="15" t="str">
+        <f>IF(F11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F5</v>
+      </c>
+      <c r="G37" s="15" t="str">
+        <f>IF(G11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F6</v>
+      </c>
+      <c r="H37" s="16" t="str">
+        <f>IF(H11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H11,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I37" s="16" t="str">
+        <f>IF(I11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I11,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J37" s="15" t="str">
+        <f>IF(J11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F7</v>
+      </c>
+      <c r="K37" s="15" t="str">
+        <f>IF(K11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F8</v>
+      </c>
+      <c r="L37" s="15" t="str">
+        <f>IF(L11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F9</v>
+      </c>
+      <c r="M37" s="15" t="str">
+        <f>IF(M11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F10</v>
+      </c>
+      <c r="N37" s="15" t="str">
+        <f>IF(N11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F11</v>
+      </c>
+      <c r="O37" s="17" t="str">
+        <f>IF(O11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O11,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="6"/>
+      <c r="B38" s="18" t="str">
+        <f>IF(B12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LNG5</v>
+      </c>
+      <c r="C38" s="18" t="str">
+        <f>IF(C12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_1</v>
+      </c>
+      <c r="D38" s="18" t="str">
+        <f>IF(D12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_2</v>
+      </c>
+      <c r="E38" s="18" t="str">
+        <f>IF(E12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_3</v>
+      </c>
+      <c r="F38" s="18" t="str">
+        <f>IF(F12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_4</v>
+      </c>
+      <c r="G38" s="18" t="str">
+        <f>IF(G12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_5</v>
+      </c>
+      <c r="H38" s="19" t="str">
+        <f>IF(H12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H12,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I38" s="19" t="str">
+        <f>IF(I12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I12,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J38" s="18" t="str">
+        <f>IF(J12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_6</v>
+      </c>
+      <c r="K38" s="18" t="str">
+        <f>IF(K12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_7</v>
+      </c>
+      <c r="L38" s="18" t="str">
+        <f>IF(L12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_8</v>
+      </c>
+      <c r="M38" s="18" t="str">
+        <f>IF(M12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_9</v>
+      </c>
+      <c r="N38" s="18" t="str">
+        <f>IF(N12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_0</v>
+      </c>
+      <c r="O38" s="20" t="str">
+        <f>IF(O12="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O12,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O12,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O12,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O12,keycodes!$B:$B,0),0)))</f>
+        <v>KC_MINS</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="6"/>
+      <c r="B39" s="18" t="str">
+        <f>IF(B13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LCTL</v>
+      </c>
+      <c r="C39" s="18" t="str">
+        <f>IF(C13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LALT</v>
+      </c>
+      <c r="D39" s="18" t="str">
+        <f>IF(D13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D13,keycodes!$B:$B,0),0)))</f>
+        <v>MS_WHLL</v>
+      </c>
+      <c r="E39" s="18" t="str">
+        <f>IF(E13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E13,keycodes!$B:$B,0),0)))</f>
+        <v>MS_WHLR</v>
+      </c>
+      <c r="F39" s="18" t="str">
+        <f>IF(F13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT5</v>
+      </c>
+      <c r="G39" s="18" t="str">
+        <f>IF(G13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_BSPC</v>
+      </c>
+      <c r="H39" s="19" t="str">
+        <f>IF(H13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H13,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I39" s="19" t="str">
+        <f>IF(I13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I13,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J39" s="18" t="str">
+        <f>IF(J13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_DEL</v>
+      </c>
+      <c r="K39" s="18" t="str">
+        <f>IF(K13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT4</v>
+      </c>
+      <c r="L39" s="18" t="str">
+        <f>IF(L13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_COMM</v>
+      </c>
+      <c r="M39" s="18" t="str">
+        <f>IF(M13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_DOT</v>
+      </c>
+      <c r="N39" s="18" t="str">
+        <f>IF(N13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_SLSH</v>
+      </c>
+      <c r="O39" s="20" t="str">
+        <f>IF(O13="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O13,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O13,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O13,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O13,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="10"/>
+      <c r="B40" s="21" t="str">
+        <f>IF(B14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B14,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="C40" s="21" t="str">
+        <f>IF(C14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C14,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="D40" s="21" t="str">
+        <f>IF(D14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D14,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="E40" s="21" t="str">
+        <f>IF(E14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E14,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="F40" s="22" t="str">
+        <f>IF(F14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F14,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="G40" s="22" t="str">
+        <f>IF(G14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G14,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="H40" s="22" t="str">
+        <f>IF(H14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H14,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="I40" s="22" t="str">
+        <f>IF(I14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I14,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="J40" s="22" t="str">
+        <f>IF(J14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J14,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="K40" s="22" t="str">
+        <f>IF(K14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K14,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="L40" s="21" t="str">
+        <f>IF(L14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L14,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="M40" s="21" t="str">
+        <f>IF(M14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M14,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="N40" s="21" t="str">
+        <f>IF(N14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N14,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="O40" s="23" t="str">
+        <f>IF(O14="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O14,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O14,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O14,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O14,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="15" t="str">
+        <f>IF(B15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_ESC</v>
+      </c>
+      <c r="C41" s="15" t="str">
+        <f>IF(C15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_Q</v>
+      </c>
+      <c r="D41" s="15" t="str">
+        <f>IF(D15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_W</v>
+      </c>
+      <c r="E41" s="15" t="str">
+        <f>IF(E15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_E</v>
+      </c>
+      <c r="F41" s="15" t="str">
+        <f>IF(F15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_R</v>
+      </c>
+      <c r="G41" s="15" t="str">
+        <f>IF(G15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_T</v>
+      </c>
+      <c r="H41" s="16" t="str">
+        <f>IF(H15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H15,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I41" s="16" t="str">
+        <f>IF(I15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I15,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J41" s="15" t="str">
+        <f>IF(J15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_Y</v>
+      </c>
+      <c r="K41" s="15" t="str">
+        <f>IF(K15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_U</v>
+      </c>
+      <c r="L41" s="15" t="str">
+        <f>IF(L15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_I</v>
+      </c>
+      <c r="M41" s="15" t="str">
+        <f>IF(M15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_O</v>
+      </c>
+      <c r="N41" s="15" t="str">
+        <f>IF(N15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_P</v>
+      </c>
+      <c r="O41" s="17" t="str">
+        <f>IF(O15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O15,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LBRC</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="18" t="str">
+        <f>IF(B16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_TAB</v>
+      </c>
+      <c r="C42" s="18" t="str">
+        <f>IF(C16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_A</v>
+      </c>
+      <c r="D42" s="18" t="str">
+        <f>IF(D16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_S</v>
+      </c>
+      <c r="E42" s="18" t="str">
+        <f>IF(E16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_D</v>
+      </c>
+      <c r="F42" s="18" t="str">
+        <f>IF(F16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F</v>
+      </c>
+      <c r="G42" s="18" t="str">
+        <f>IF(G16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_G</v>
+      </c>
+      <c r="H42" s="19" t="str">
+        <f>IF(H16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H16,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I42" s="19" t="str">
+        <f>IF(I16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I16,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J42" s="18" t="str">
+        <f>IF(J16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_H</v>
+      </c>
+      <c r="K42" s="18" t="str">
+        <f>IF(K16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_J</v>
+      </c>
+      <c r="L42" s="18" t="str">
+        <f>IF(L16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_K</v>
+      </c>
+      <c r="M42" s="18" t="str">
+        <f>IF(M16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_L</v>
+      </c>
+      <c r="N42" s="18" t="str">
+        <f>IF(N16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_SCLN</v>
+      </c>
+      <c r="O42" s="20" t="str">
+        <f>IF(O16="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O16,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O16,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O16,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O16,keycodes!$B:$B,0),0)))</f>
+        <v>KC_QUOT</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="18" t="str">
+        <f>IF(B17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LCTL</v>
+      </c>
+      <c r="C43" s="18" t="str">
+        <f>IF(C17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_Z</v>
+      </c>
+      <c r="D43" s="18" t="str">
+        <f>IF(D17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_X</v>
+      </c>
+      <c r="E43" s="18" t="str">
+        <f>IF(E17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_C</v>
+      </c>
+      <c r="F43" s="18" t="str">
+        <f>IF(F17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_V</v>
+      </c>
+      <c r="G43" s="18" t="str">
+        <f>IF(G17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_B</v>
+      </c>
+      <c r="H43" s="19" t="str">
+        <f>IF(H17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H17,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I43" s="19" t="str">
+        <f>IF(I17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I17,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J43" s="18" t="str">
+        <f>IF(J17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_N</v>
+      </c>
+      <c r="K43" s="18" t="str">
+        <f>IF(K17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_M</v>
+      </c>
+      <c r="L43" s="18" t="str">
+        <f>IF(L17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_COMM</v>
+      </c>
+      <c r="M43" s="18" t="str">
+        <f>IF(M17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_DOT</v>
+      </c>
+      <c r="N43" s="18" t="str">
+        <f>IF(N17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_SLSH</v>
+      </c>
+      <c r="O43" s="20" t="str">
+        <f>IF(O17="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O17,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O17,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O17,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O17,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="10"/>
+      <c r="B44" s="21" t="str">
         <f>IF(B18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B18,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
-      <c r="C36" s="21" t="str">
+      <c r="C44" s="21" t="str">
         <f>IF(C18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C18,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
-      <c r="D36" s="21" t="str">
+      <c r="D44" s="21" t="str">
         <f>IF(D18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D18,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
-      <c r="E36" s="21" t="str">
+      <c r="E44" s="21" t="str">
         <f>IF(E18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E18,keycodes!$B:$B,0),0)))</f>
         <v>NONE</v>
       </c>
-      <c r="F36" s="22" t="str">
+      <c r="F44" s="22" t="str">
         <f>IF(F18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F18,keycodes!$B:$B,0),0)))</f>
-        <v>KC_LALT</v>
-      </c>
-      <c r="G36" s="22" t="str">
+        <v>TG_R</v>
+      </c>
+      <c r="G44" s="22" t="str">
         <f>IF(G18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G18,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
-      </c>
-      <c r="H36" s="22" t="str">
+        <v>KC_SPC</v>
+      </c>
+      <c r="H44" s="22" t="str">
         <f>IF(H18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H18,keycodes!$B:$B,0),0)))</f>
-        <v>KC_SPC</v>
-      </c>
-      <c r="I36" s="22" t="str">
+        <v>MO_RA</v>
+      </c>
+      <c r="I44" s="22" t="str">
         <f>IF(I18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I18,keycodes!$B:$B,0),0)))</f>
+        <v>MO_LA</v>
+      </c>
+      <c r="J44" s="22" t="str">
+        <f>IF(J18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J18,keycodes!$B:$B,0),0)))</f>
         <v>KC_ENT</v>
       </c>
-      <c r="J36" s="22" t="str">
-        <f>IF(J18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J18,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
-      </c>
-      <c r="K36" s="22" t="str">
+      <c r="K44" s="22" t="str">
         <f>IF(K18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K18,keycodes!$B:$B,0),0)))</f>
-        <v>_______</v>
-      </c>
-      <c r="L36" s="21" t="str">
+        <v>TG_L</v>
+      </c>
+      <c r="L44" s="21" t="str">
         <f>IF(L18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L18,keycodes!$B:$B,0),0)))</f>
         <v>TERM</v>
       </c>
-      <c r="M36" s="21" t="str">
+      <c r="M44" s="21" t="str">
         <f>IF(M18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M18,keycodes!$B:$B,0),0)))</f>
         <v>TERM</v>
       </c>
-      <c r="N36" s="21" t="str">
+      <c r="N44" s="21" t="str">
         <f>IF(N18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N18,keycodes!$B:$B,0),0)))</f>
         <v>TERM</v>
       </c>
-      <c r="O36" s="23" t="str">
+      <c r="O44" s="23" t="str">
         <f>IF(O18="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O18,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O18,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O18,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O18,keycodes!$B:$B,0),0)))</f>
         <v>TERM</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B39" s="15" t="str">
-        <f>IF(B21="TERM","",IF(B21="NONE",REPT(" ",12),REPT(" ",10-LEN(B21))&amp;B21))&amp;IF(OR(B21="TERM",B21="NONE"),"",IF(C21="TERM","",IF(C21="",",",", ")))</f>
+    <row r="45" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="15" t="str">
+        <f>IF(B19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B19,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
+      </c>
+      <c r="C45" s="15" t="str">
+        <f>IF(C19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C19,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_1)</v>
+      </c>
+      <c r="D45" s="15" t="str">
+        <f>IF(D19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D19,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_2)</v>
+      </c>
+      <c r="E45" s="15" t="str">
+        <f>IF(E19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E19,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_3)</v>
+      </c>
+      <c r="F45" s="15" t="str">
+        <f>IF(F19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F19,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_4)</v>
+      </c>
+      <c r="G45" s="15" t="str">
+        <f>IF(G19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G19,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_5)</v>
+      </c>
+      <c r="H45" s="16" t="str">
+        <f>IF(H19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H19,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I45" s="16" t="str">
+        <f>IF(I19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I19,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J45" s="15" t="str">
+        <f>IF(J19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J19,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_6)</v>
+      </c>
+      <c r="K45" s="15" t="str">
+        <f>IF(K19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K19,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_7)</v>
+      </c>
+      <c r="L45" s="15" t="str">
+        <f>IF(L19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L19,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_8)</v>
+      </c>
+      <c r="M45" s="15" t="str">
+        <f>IF(M19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M19,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_9)</v>
+      </c>
+      <c r="N45" s="15" t="str">
+        <f>IF(N19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N19,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
+      </c>
+      <c r="O45" s="17" t="str">
+        <f>IF(O19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O19,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="6"/>
+      <c r="B46" s="18" t="str">
+        <f>IF(B20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B20,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
+      </c>
+      <c r="C46" s="18" t="str">
+        <f>IF(C20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C20,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
+      </c>
+      <c r="D46" s="18" t="str">
+        <f>IF(D20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_HOME</v>
+      </c>
+      <c r="E46" s="18" t="str">
+        <f>IF(E20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_PGUP</v>
+      </c>
+      <c r="F46" s="18" t="str">
+        <f>IF(F20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_PGDN</v>
+      </c>
+      <c r="G46" s="18" t="str">
+        <f>IF(G20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_END</v>
+      </c>
+      <c r="H46" s="19" t="str">
+        <f>IF(H20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H20,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I46" s="19" t="str">
+        <f>IF(I20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I20,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J46" s="18" t="str">
+        <f>IF(J20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LEFT</v>
+      </c>
+      <c r="K46" s="18" t="str">
+        <f>IF(K20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_DOWN</v>
+      </c>
+      <c r="L46" s="18" t="str">
+        <f>IF(L20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_UP</v>
+      </c>
+      <c r="M46" s="18" t="str">
+        <f>IF(M20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_RGHT</v>
+      </c>
+      <c r="N46" s="18" t="str">
+        <f>IF(N20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_EQL</v>
+      </c>
+      <c r="O46" s="20" t="str">
+        <f>IF(O20="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O20,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O20,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O20,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O20,keycodes!$B:$B,0),0)))</f>
+        <v>KC_MINS</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="6"/>
+      <c r="B47" s="18" t="str">
+        <f>IF(B21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B21,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LCTL</v>
+      </c>
+      <c r="C47" s="18" t="str">
+        <f>IF(C21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C21,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LALT</v>
+      </c>
+      <c r="D47" s="18" t="str">
+        <f>IF(D21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D21,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
+      </c>
+      <c r="E47" s="18" t="str">
+        <f>IF(E21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E21,keycodes!$B:$B,0),0)))</f>
+        <v>XXXXXXX</v>
+      </c>
+      <c r="F47" s="18" t="str">
+        <f>IF(F21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F21,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT5</v>
+      </c>
+      <c r="G47" s="18" t="str">
+        <f>IF(G21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G21,keycodes!$B:$B,0),0)))</f>
+        <v>KC_BSPC</v>
+      </c>
+      <c r="H47" s="19" t="str">
+        <f>IF(H21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H21,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I47" s="19" t="str">
+        <f>IF(I21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I21,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J47" s="18" t="str">
+        <f>IF(J21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J21,keycodes!$B:$B,0),0)))</f>
+        <v>KC_DEL</v>
+      </c>
+      <c r="K47" s="18" t="str">
+        <f>IF(K21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K21,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT4</v>
+      </c>
+      <c r="L47" s="18" t="str">
+        <f>IF(L21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L21,keycodes!$B:$B,0),0)))</f>
+        <v>KC_RBRC</v>
+      </c>
+      <c r="M47" s="18" t="str">
+        <f>IF(M21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M21,keycodes!$B:$B,0),0)))</f>
+        <v>KC_BSLS</v>
+      </c>
+      <c r="N47" s="18" t="str">
+        <f>IF(N21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N21,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_EQL)</v>
+      </c>
+      <c r="O47" s="20" t="str">
+        <f>IF(O21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O21,keycodes!$B:$B,0),0)))</f>
+        <v>S(KC_INT3)</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="10"/>
+      <c r="B48" s="21" t="str">
+        <f>IF(B22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B22,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="C48" s="21" t="str">
+        <f>IF(C22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C22,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="D48" s="21" t="str">
+        <f>IF(D22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D22,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="E48" s="21" t="str">
+        <f>IF(E22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E22,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="F48" s="22" t="str">
+        <f>IF(F22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F22,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="G48" s="22" t="str">
+        <f>IF(G22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G22,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="H48" s="22" t="str">
+        <f>IF(H22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H22,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="I48" s="22" t="str">
+        <f>IF(I22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I22,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="J48" s="22" t="str">
+        <f>IF(J22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J22,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="K48" s="22" t="str">
+        <f>IF(K22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K22,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="L48" s="21" t="str">
+        <f>IF(L22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L22,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="M48" s="21" t="str">
+        <f>IF(M22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M22,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="N48" s="21" t="str">
+        <f>IF(N22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N22,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="O48" s="23" t="str">
+        <f>IF(O22="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O22,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O22,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O22,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O22,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B49" s="15" t="str">
+        <f>IF(B23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F1</v>
+      </c>
+      <c r="C49" s="15" t="str">
+        <f>IF(C23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F2</v>
+      </c>
+      <c r="D49" s="15" t="str">
+        <f>IF(D23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F3</v>
+      </c>
+      <c r="E49" s="15" t="str">
+        <f>IF(E23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F4</v>
+      </c>
+      <c r="F49" s="15" t="str">
+        <f>IF(F23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F5</v>
+      </c>
+      <c r="G49" s="15" t="str">
+        <f>IF(G23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F6</v>
+      </c>
+      <c r="H49" s="16" t="str">
+        <f>IF(H23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H23,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I49" s="16" t="str">
+        <f>IF(I23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I23,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J49" s="15" t="str">
+        <f>IF(J23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F7</v>
+      </c>
+      <c r="K49" s="15" t="str">
+        <f>IF(K23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F8</v>
+      </c>
+      <c r="L49" s="15" t="str">
+        <f>IF(L23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F9</v>
+      </c>
+      <c r="M49" s="15" t="str">
+        <f>IF(M23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F10</v>
+      </c>
+      <c r="N49" s="15" t="str">
+        <f>IF(N23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F11</v>
+      </c>
+      <c r="O49" s="17" t="str">
+        <f>IF(O23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O23,keycodes!$B:$B,0),0)))</f>
+        <v>KC_F12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="6"/>
+      <c r="B50" s="18" t="str">
+        <f>IF(B24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LNG5</v>
+      </c>
+      <c r="C50" s="18" t="str">
+        <f>IF(C24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_1</v>
+      </c>
+      <c r="D50" s="18" t="str">
+        <f>IF(D24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_2</v>
+      </c>
+      <c r="E50" s="18" t="str">
+        <f>IF(E24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_3</v>
+      </c>
+      <c r="F50" s="18" t="str">
+        <f>IF(F24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_4</v>
+      </c>
+      <c r="G50" s="18" t="str">
+        <f>IF(G24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_5</v>
+      </c>
+      <c r="H50" s="19" t="str">
+        <f>IF(H24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H24,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I50" s="19" t="str">
+        <f>IF(I24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I24,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J50" s="18" t="str">
+        <f>IF(J24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_6</v>
+      </c>
+      <c r="K50" s="18" t="str">
+        <f>IF(K24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_7</v>
+      </c>
+      <c r="L50" s="18" t="str">
+        <f>IF(L24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_8</v>
+      </c>
+      <c r="M50" s="18" t="str">
+        <f>IF(M24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_9</v>
+      </c>
+      <c r="N50" s="18" t="str">
+        <f>IF(N24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_0</v>
+      </c>
+      <c r="O50" s="20" t="str">
+        <f>IF(O24="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O24,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O24,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O24,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O24,keycodes!$B:$B,0),0)))</f>
+        <v>KC_MINS</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="6"/>
+      <c r="B51" s="18" t="str">
+        <f>IF(B25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LCTL</v>
+      </c>
+      <c r="C51" s="18" t="str">
+        <f>IF(C25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_LALT</v>
+      </c>
+      <c r="D51" s="18" t="str">
+        <f>IF(D25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D25,keycodes!$B:$B,0),0)))</f>
+        <v>MS_WHLL</v>
+      </c>
+      <c r="E51" s="18" t="str">
+        <f>IF(E25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E25,keycodes!$B:$B,0),0)))</f>
+        <v>MS_WHLR</v>
+      </c>
+      <c r="F51" s="18" t="str">
+        <f>IF(F25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT5</v>
+      </c>
+      <c r="G51" s="18" t="str">
+        <f>IF(G25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_BSPC</v>
+      </c>
+      <c r="H51" s="19" t="str">
+        <f>IF(H25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H25,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="I51" s="19" t="str">
+        <f>IF(I25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I25,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="J51" s="18" t="str">
+        <f>IF(J25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_DEL</v>
+      </c>
+      <c r="K51" s="18" t="str">
+        <f>IF(K25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT4</v>
+      </c>
+      <c r="L51" s="18" t="str">
+        <f>IF(L25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_COMM</v>
+      </c>
+      <c r="M51" s="18" t="str">
+        <f>IF(M25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_DOT</v>
+      </c>
+      <c r="N51" s="18" t="str">
+        <f>IF(N25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_SLSH</v>
+      </c>
+      <c r="O51" s="20" t="str">
+        <f>IF(O25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O25,keycodes!$B:$B,0),0)))</f>
+        <v>KC_INT1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="10"/>
+      <c r="B52" s="21" t="str">
+        <f>IF(B26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B26,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="C52" s="21" t="str">
+        <f>IF(C26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(C26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(C26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(C26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(C26,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="D52" s="21" t="str">
+        <f>IF(D26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D26,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="E52" s="21" t="str">
+        <f>IF(E26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E26,keycodes!$B:$B,0),0)))</f>
+        <v>NONE</v>
+      </c>
+      <c r="F52" s="22" t="str">
+        <f>IF(F26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F26,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="G52" s="22" t="str">
+        <f>IF(G26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(G26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(G26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(G26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(G26,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="H52" s="22" t="str">
+        <f>IF(H26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(H26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(H26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(H26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(H26,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="I52" s="22" t="str">
+        <f>IF(I26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(I26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(I26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(I26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(I26,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="J52" s="22" t="str">
+        <f>IF(J26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(J26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(J26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(J26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(J26,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="K52" s="22" t="str">
+        <f>IF(K26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(K26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(K26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(K26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(K26,keycodes!$B:$B,0),0)))</f>
+        <v>_______</v>
+      </c>
+      <c r="L52" s="21" t="str">
+        <f>IF(L26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(L26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(L26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(L26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(L26,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="M52" s="21" t="str">
+        <f>IF(M26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(M26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(M26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(M26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(M26,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="N52" s="21" t="str">
+        <f>IF(N26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(N26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(N26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(N26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(N26,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+      <c r="O52" s="23" t="str">
+        <f>IF(O26="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(O26,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(O26,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(O26,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(O26,keycodes!$B:$B,0),0)))</f>
+        <v>TERM</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+    </row>
+    <row r="55" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B55" s="15" t="str">
+        <f t="shared" ref="B55:B78" si="0">IF(B29="TERM","",IF(B29="NONE",REPT(" ",12),REPT(" ",10-LEN(B29))&amp;B29))&amp;IF(OR(B29="TERM",B29="NONE"),"",IF(C29="TERM","",IF(C29="",",",", ")))</f>
         <v xml:space="preserve">    KC_ESC, </v>
       </c>
-      <c r="C39" s="15" t="str">
-        <f t="shared" ref="C39:O39" si="0">IF(C21="TERM","",IF(C21="NONE",REPT(" ",12),REPT(" ",10-LEN(C21))&amp;C21))&amp;IF(OR(C21="TERM",C21="NONE"),"",IF(D21="TERM","",IF(D21="",",",", ")))</f>
+      <c r="C55" s="15" t="str">
+        <f t="shared" ref="C55:O55" si="1">IF(C29="TERM","",IF(C29="NONE",REPT(" ",12),REPT(" ",10-LEN(C29))&amp;C29))&amp;IF(OR(C29="TERM",C29="NONE"),"",IF(D29="TERM","",IF(D29="",",",", ")))</f>
         <v xml:space="preserve">      KC_Q, </v>
       </c>
-      <c r="D39" s="15" t="str">
+      <c r="D55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      KC_W, </v>
+      </c>
+      <c r="E55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      KC_E, </v>
+      </c>
+      <c r="F55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      KC_R, </v>
+      </c>
+      <c r="G55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      KC_T, </v>
+      </c>
+      <c r="H55" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I55" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      KC_Y, </v>
+      </c>
+      <c r="K55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      KC_U, </v>
+      </c>
+      <c r="L55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      KC_I, </v>
+      </c>
+      <c r="M55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      KC_O, </v>
+      </c>
+      <c r="N55" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">      KC_P, </v>
+      </c>
+      <c r="O55" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">   KC_LBRC,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="6"/>
+      <c r="B56" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_W, </v>
-      </c>
-      <c r="E39" s="15" t="str">
+        <v xml:space="preserve">    KC_TAB, </v>
+      </c>
+      <c r="C56" s="18" t="str">
+        <f t="shared" ref="C56:O56" si="2">IF(C30="TERM","",IF(C30="NONE",REPT(" ",12),REPT(" ",10-LEN(C30))&amp;C30))&amp;IF(OR(C30="TERM",C30="NONE"),"",IF(D30="TERM","",IF(D30="",",",", ")))</f>
+        <v xml:space="preserve">      KC_A, </v>
+      </c>
+      <c r="D56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">      KC_S, </v>
+      </c>
+      <c r="E56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">      KC_D, </v>
+      </c>
+      <c r="F56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">      KC_F, </v>
+      </c>
+      <c r="G56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">      KC_G, </v>
+      </c>
+      <c r="H56" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I56" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">      KC_H, </v>
+      </c>
+      <c r="K56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">      KC_J, </v>
+      </c>
+      <c r="L56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">      KC_K, </v>
+      </c>
+      <c r="M56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">      KC_L, </v>
+      </c>
+      <c r="N56" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   KC_SCLN, </v>
+      </c>
+      <c r="O56" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">   KC_QUOT,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="6"/>
+      <c r="B57" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_E, </v>
-      </c>
-      <c r="F39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_R, </v>
-      </c>
-      <c r="G39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_T, </v>
-      </c>
-      <c r="H39" s="16" t="str">
+        <v xml:space="preserve">   KC_LCTL, </v>
+      </c>
+      <c r="C57" s="18" t="str">
+        <f t="shared" ref="C57:O57" si="3">IF(C31="TERM","",IF(C31="NONE",REPT(" ",12),REPT(" ",10-LEN(C31))&amp;C31))&amp;IF(OR(C31="TERM",C31="NONE"),"",IF(D31="TERM","",IF(D31="",",",", ")))</f>
+        <v xml:space="preserve">      KC_Z, </v>
+      </c>
+      <c r="D57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      KC_X, </v>
+      </c>
+      <c r="E57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      KC_C, </v>
+      </c>
+      <c r="F57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      KC_V, </v>
+      </c>
+      <c r="G57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      KC_B, </v>
+      </c>
+      <c r="H57" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I57" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      KC_N, </v>
+      </c>
+      <c r="K57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      KC_M, </v>
+      </c>
+      <c r="L57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   KC_COMM, </v>
+      </c>
+      <c r="M57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">    KC_DOT, </v>
+      </c>
+      <c r="N57" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   KC_SLSH, </v>
+      </c>
+      <c r="O57" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">   KC_INT1,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="10"/>
+      <c r="B58" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="I39" s="16" t="str">
+      <c r="C58" s="21" t="str">
+        <f t="shared" ref="C58:O58" si="4">IF(C32="TERM","",IF(C32="NONE",REPT(" ",12),REPT(" ",10-LEN(C32))&amp;C32))&amp;IF(OR(C32="TERM",C32="NONE"),"",IF(D32="TERM","",IF(D32="",",",", ")))</f>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="D58" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E58" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F58" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      TG_R, </v>
+      </c>
+      <c r="G58" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      MO_R, </v>
+      </c>
+      <c r="H58" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  LSFT_SPC, </v>
+      </c>
+      <c r="I58" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">  RSTF_ENT, </v>
+      </c>
+      <c r="J58" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      MO_L, </v>
+      </c>
+      <c r="K58" s="22" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">      TG_L</v>
+      </c>
+      <c r="L58" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M58" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N58" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O58" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="C59" s="15" t="str">
+        <f t="shared" ref="C59:O59" si="5">IF(C33="TERM","",IF(C33="NONE",REPT(" ",12),REPT(" ",10-LEN(C33))&amp;C33))&amp;IF(OR(C33="TERM",C33="NONE"),"",IF(D33="TERM","",IF(D33="",",",", ")))</f>
+        <v xml:space="preserve">   S(KC_1), </v>
+      </c>
+      <c r="D59" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   S(KC_2), </v>
+      </c>
+      <c r="E59" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   S(KC_3), </v>
+      </c>
+      <c r="F59" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   S(KC_4), </v>
+      </c>
+      <c r="G59" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   S(KC_5), </v>
+      </c>
+      <c r="H59" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I59" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J59" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   S(KC_6), </v>
+      </c>
+      <c r="K59" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   S(KC_7), </v>
+      </c>
+      <c r="L59" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   S(KC_8), </v>
+      </c>
+      <c r="M59" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   S(KC_9), </v>
+      </c>
+      <c r="N59" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="O59" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve">   XXXXXXX,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="6"/>
+      <c r="B60" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="C60" s="18" t="str">
+        <f t="shared" ref="C60:O60" si="6">IF(C34="TERM","",IF(C34="NONE",REPT(" ",12),REPT(" ",10-LEN(C34))&amp;C34))&amp;IF(OR(C34="TERM",C34="NONE"),"",IF(D34="TERM","",IF(D34="",",",", ")))</f>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="D60" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   KC_HOME, </v>
+      </c>
+      <c r="E60" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   KC_PGUP, </v>
+      </c>
+      <c r="F60" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   KC_PGDN, </v>
+      </c>
+      <c r="G60" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    KC_END, </v>
+      </c>
+      <c r="H60" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I60" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J60" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   KC_LEFT, </v>
+      </c>
+      <c r="K60" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   KC_DOWN, </v>
+      </c>
+      <c r="L60" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">     KC_UP, </v>
+      </c>
+      <c r="M60" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   KC_RGHT, </v>
+      </c>
+      <c r="N60" s="18" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">    KC_EQL, </v>
+      </c>
+      <c r="O60" s="20" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">   KC_MINS,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="6"/>
+      <c r="B61" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   KC_LCTL, </v>
+      </c>
+      <c r="C61" s="18" t="str">
+        <f t="shared" ref="C61:O61" si="7">IF(C35="TERM","",IF(C35="NONE",REPT(" ",12),REPT(" ",10-LEN(C35))&amp;C35))&amp;IF(OR(C35="TERM",C35="NONE"),"",IF(D35="TERM","",IF(D35="",",",", ")))</f>
+        <v xml:space="preserve">   KC_LALT, </v>
+      </c>
+      <c r="D61" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="E61" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="F61" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   KC_INT5, </v>
+      </c>
+      <c r="G61" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   KC_BSPC, </v>
+      </c>
+      <c r="H61" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I61" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J61" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">    KC_DEL, </v>
+      </c>
+      <c r="K61" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   KC_INT4, </v>
+      </c>
+      <c r="L61" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   KC_RBRC, </v>
+      </c>
+      <c r="M61" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   KC_BSLS, </v>
+      </c>
+      <c r="N61" s="18" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve"> S(KC_EQL), </v>
+      </c>
+      <c r="O61" s="20" t="str">
+        <f t="shared" si="7"/>
+        <v>S(KC_INT3),</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="J39" s="15" t="str">
+      <c r="C62" s="21" t="str">
+        <f t="shared" ref="C62:O62" si="8">IF(C36="TERM","",IF(C36="NONE",REPT(" ",12),REPT(" ",10-LEN(C36))&amp;C36))&amp;IF(OR(C36="TERM",C36="NONE"),"",IF(D36="TERM","",IF(D36="",",",", ")))</f>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="D62" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E62" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F62" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="G62" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="H62" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="I62" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="J62" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="K62" s="22" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">   _______</v>
+      </c>
+      <c r="L62" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M62" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N62" s="21" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O62" s="23" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_Y, </v>
-      </c>
-      <c r="K39" s="15" t="str">
+        <v xml:space="preserve">     KC_F1, </v>
+      </c>
+      <c r="C63" s="15" t="str">
+        <f t="shared" ref="C63:O63" si="9">IF(C37="TERM","",IF(C37="NONE",REPT(" ",12),REPT(" ",10-LEN(C37))&amp;C37))&amp;IF(OR(C37="TERM",C37="NONE"),"",IF(D37="TERM","",IF(D37="",",",", ")))</f>
+        <v xml:space="preserve">     KC_F2, </v>
+      </c>
+      <c r="D63" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">     KC_F3, </v>
+      </c>
+      <c r="E63" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">     KC_F4, </v>
+      </c>
+      <c r="F63" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">     KC_F5, </v>
+      </c>
+      <c r="G63" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">     KC_F6, </v>
+      </c>
+      <c r="H63" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I63" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J63" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">     KC_F7, </v>
+      </c>
+      <c r="K63" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">     KC_F8, </v>
+      </c>
+      <c r="L63" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">     KC_F9, </v>
+      </c>
+      <c r="M63" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    KC_F10, </v>
+      </c>
+      <c r="N63" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    KC_F11, </v>
+      </c>
+      <c r="O63" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">    KC_F12,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="6"/>
+      <c r="B64" s="18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_U, </v>
-      </c>
-      <c r="L39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_I, </v>
-      </c>
-      <c r="M39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_O, </v>
-      </c>
-      <c r="N39" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_P, </v>
-      </c>
-      <c r="O39" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">   KC_LBRC,</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="6"/>
-      <c r="B40" s="18" t="str">
-        <f t="shared" ref="B40:O54" si="1">IF(B22="TERM","",IF(B22="NONE",REPT(" ",12),REPT(" ",10-LEN(B22))&amp;B22))&amp;IF(OR(B22="TERM",B22="NONE"),"",IF(C22="TERM","",IF(C22="",",",", ")))</f>
-        <v xml:space="preserve">    KC_TAB, </v>
-      </c>
-      <c r="C40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_A, </v>
-      </c>
-      <c r="D40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_S, </v>
-      </c>
-      <c r="E40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_D, </v>
-      </c>
-      <c r="F40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_F, </v>
-      </c>
-      <c r="G40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_G, </v>
-      </c>
-      <c r="H40" s="19" t="str">
-        <f t="shared" si="1"/>
+        <v xml:space="preserve">   KC_LNG5, </v>
+      </c>
+      <c r="C64" s="18" t="str">
+        <f t="shared" ref="C64:O64" si="10">IF(C38="TERM","",IF(C38="NONE",REPT(" ",12),REPT(" ",10-LEN(C38))&amp;C38))&amp;IF(OR(C38="TERM",C38="NONE"),"",IF(D38="TERM","",IF(D38="",",",", ")))</f>
+        <v xml:space="preserve">      KC_1, </v>
+      </c>
+      <c r="D64" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">      KC_2, </v>
+      </c>
+      <c r="E64" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">      KC_3, </v>
+      </c>
+      <c r="F64" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">      KC_4, </v>
+      </c>
+      <c r="G64" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">      KC_5, </v>
+      </c>
+      <c r="H64" s="19" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="I40" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="I64" s="19" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="J40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_H, </v>
-      </c>
-      <c r="K40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_J, </v>
-      </c>
-      <c r="L40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_K, </v>
-      </c>
-      <c r="M40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_L, </v>
-      </c>
-      <c r="N40" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_SCLN, </v>
-      </c>
-      <c r="O40" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_QUOT,</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="6"/>
-      <c r="B41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LCTL, </v>
-      </c>
-      <c r="C41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_Z, </v>
-      </c>
-      <c r="D41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_X, </v>
-      </c>
-      <c r="E41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_C, </v>
-      </c>
-      <c r="F41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_V, </v>
-      </c>
-      <c r="G41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_B, </v>
-      </c>
-      <c r="H41" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I41" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_N, </v>
-      </c>
-      <c r="K41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_M, </v>
-      </c>
-      <c r="L41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_COMM, </v>
-      </c>
-      <c r="M41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_DOT, </v>
-      </c>
-      <c r="N41" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_SLSH, </v>
-      </c>
-      <c r="O41" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_INT1,</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="10"/>
-      <c r="B42" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="C42" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="D42" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="E42" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="F42" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      TG_R, </v>
-      </c>
-      <c r="G42" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      MO_R, </v>
-      </c>
-      <c r="H42" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  LSFT_SPC, </v>
-      </c>
-      <c r="I42" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  RSTF_ENT, </v>
-      </c>
-      <c r="J42" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      MO_L, </v>
-      </c>
-      <c r="K42" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      TG_L</v>
-      </c>
-      <c r="L42" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M42" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N42" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O42" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="C43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   S(KC_1), </v>
-      </c>
-      <c r="D43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   S(KC_2), </v>
-      </c>
-      <c r="E43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   S(KC_3), </v>
-      </c>
-      <c r="F43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   S(KC_4), </v>
-      </c>
-      <c r="G43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   S(KC_5), </v>
-      </c>
-      <c r="H43" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I43" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   S(KC_6), </v>
-      </c>
-      <c r="K43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   S(KC_7), </v>
-      </c>
-      <c r="L43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   S(KC_8), </v>
-      </c>
-      <c r="M43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   S(KC_9), </v>
-      </c>
-      <c r="N43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="O43" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   XXXXXXX,</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="6"/>
-      <c r="B44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="C44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="D44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_HOME, </v>
-      </c>
-      <c r="E44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_PGUP, </v>
-      </c>
-      <c r="F44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_PGDN, </v>
-      </c>
-      <c r="G44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_END, </v>
-      </c>
-      <c r="H44" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I44" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LEFT, </v>
-      </c>
-      <c r="K44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_DOWN, </v>
-      </c>
-      <c r="L44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_UP, </v>
-      </c>
-      <c r="M44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_RGHT, </v>
-      </c>
-      <c r="N44" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_EQL, </v>
-      </c>
-      <c r="O44" s="20" t="str">
-        <f t="shared" si="1"/>
+      <c r="J64" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">      KC_6, </v>
+      </c>
+      <c r="K64" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">      KC_7, </v>
+      </c>
+      <c r="L64" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">      KC_8, </v>
+      </c>
+      <c r="M64" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">      KC_9, </v>
+      </c>
+      <c r="N64" s="18" t="str">
+        <f t="shared" si="10"/>
+        <v xml:space="preserve">      KC_0, </v>
+      </c>
+      <c r="O64" s="20" t="str">
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   KC_MINS,</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LCTL, </v>
-      </c>
-      <c r="C45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LALT, </v>
-      </c>
-      <c r="D45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="E45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="F45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_INT5, </v>
-      </c>
-      <c r="G45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_BSPC, </v>
-      </c>
-      <c r="H45" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I45" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_DEL, </v>
-      </c>
-      <c r="K45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_INT4, </v>
-      </c>
-      <c r="L45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_RBRC, </v>
-      </c>
-      <c r="M45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_BSLS, </v>
-      </c>
-      <c r="N45" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> S(KC_EQL), </v>
-      </c>
-      <c r="O45" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>S(KC_INT3),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="C46" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="D46" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="E46" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="F46" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="G46" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="H46" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="I46" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="J46" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="K46" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______</v>
-      </c>
-      <c r="L46" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M46" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N46" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O46" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_F1, </v>
-      </c>
-      <c r="C47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_F2, </v>
-      </c>
-      <c r="D47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_F3, </v>
-      </c>
-      <c r="E47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_F4, </v>
-      </c>
-      <c r="F47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_F5, </v>
-      </c>
-      <c r="G47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_F6, </v>
-      </c>
-      <c r="H47" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I47" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_F7, </v>
-      </c>
-      <c r="K47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_F8, </v>
-      </c>
-      <c r="L47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">     KC_F9, </v>
-      </c>
-      <c r="M47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_F10, </v>
-      </c>
-      <c r="N47" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_F11, </v>
-      </c>
-      <c r="O47" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_F12,</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="6"/>
-      <c r="B48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LNG5, </v>
-      </c>
-      <c r="C48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_1, </v>
-      </c>
-      <c r="D48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_2, </v>
-      </c>
-      <c r="E48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_3, </v>
-      </c>
-      <c r="F48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_4, </v>
-      </c>
-      <c r="G48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_5, </v>
-      </c>
-      <c r="H48" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I48" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_6, </v>
-      </c>
-      <c r="K48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_7, </v>
-      </c>
-      <c r="L48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_8, </v>
-      </c>
-      <c r="M48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_9, </v>
-      </c>
-      <c r="N48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_0, </v>
-      </c>
-      <c r="O48" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_MINS,</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="6"/>
-      <c r="B49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LCTL, </v>
-      </c>
-      <c r="C49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LALT, </v>
-      </c>
-      <c r="D49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   MS_WHLL, </v>
-      </c>
-      <c r="E49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   MS_WHLR, </v>
-      </c>
-      <c r="F49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_INT5, </v>
-      </c>
-      <c r="G49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_BSPC, </v>
-      </c>
-      <c r="H49" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I49" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_DEL, </v>
-      </c>
-      <c r="K49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_INT4, </v>
-      </c>
-      <c r="L49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_COMM, </v>
-      </c>
-      <c r="M49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_DOT, </v>
-      </c>
-      <c r="N49" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_SLSH, </v>
-      </c>
-      <c r="O49" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_INT1,</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="10"/>
-      <c r="B50" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="C50" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="D50" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="E50" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="F50" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="G50" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="H50" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="I50" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="J50" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="K50" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______</v>
-      </c>
-      <c r="L50" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M50" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N50" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O50" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_ESC, </v>
-      </c>
-      <c r="C51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_Q, </v>
-      </c>
-      <c r="D51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_W, </v>
-      </c>
-      <c r="E51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_E, </v>
-      </c>
-      <c r="F51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_R, </v>
-      </c>
-      <c r="G51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_T, </v>
-      </c>
-      <c r="H51" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I51" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_Y, </v>
-      </c>
-      <c r="K51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_U, </v>
-      </c>
-      <c r="L51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_I, </v>
-      </c>
-      <c r="M51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_O, </v>
-      </c>
-      <c r="N51" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_P, </v>
-      </c>
-      <c r="O51" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LBRC,</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="6"/>
-      <c r="B52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_TAB, </v>
-      </c>
-      <c r="C52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_A, </v>
-      </c>
-      <c r="D52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_S, </v>
-      </c>
-      <c r="E52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_D, </v>
-      </c>
-      <c r="F52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_F, </v>
-      </c>
-      <c r="G52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_G, </v>
-      </c>
-      <c r="H52" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I52" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_H, </v>
-      </c>
-      <c r="K52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_J, </v>
-      </c>
-      <c r="L52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_K, </v>
-      </c>
-      <c r="M52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_L, </v>
-      </c>
-      <c r="N52" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_SCLN, </v>
-      </c>
-      <c r="O52" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_QUOT,</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="6"/>
-      <c r="B53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LCTL, </v>
-      </c>
-      <c r="C53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_Z, </v>
-      </c>
-      <c r="D53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_X, </v>
-      </c>
-      <c r="E53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_C, </v>
-      </c>
-      <c r="F53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_V, </v>
-      </c>
-      <c r="G53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_B, </v>
-      </c>
-      <c r="H53" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I53" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_N, </v>
-      </c>
-      <c r="K53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_M, </v>
-      </c>
-      <c r="L53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_COMM, </v>
-      </c>
-      <c r="M53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_DOT, </v>
-      </c>
-      <c r="N53" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_SLSH, </v>
-      </c>
-      <c r="O53" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_INT1,</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="C54" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="D54" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="E54" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="F54" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_LALT, </v>
-      </c>
-      <c r="G54" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="H54" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_SPC, </v>
-      </c>
-      <c r="I54" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">    KC_ENT, </v>
-      </c>
-      <c r="J54" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="K54" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">   _______</v>
-      </c>
-      <c r="L54" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M54" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="N54" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="O54" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-    </row>
-    <row r="56" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-    </row>
-    <row r="57" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="25"/>
-    </row>
-    <row r="58" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B58" s="26" t="str">
-        <f>B39&amp;C39&amp;D39&amp;E39&amp;F39&amp;G39&amp;H39&amp;I39&amp;J39&amp;K39&amp;L39&amp;M39&amp;N39&amp;O39</f>
-        <v xml:space="preserve">    KC_ESC,       KC_Q,       KC_W,       KC_E,       KC_R,       KC_T,                               KC_Y,       KC_U,       KC_I,       KC_O,       KC_P,    KC_LBRC,</v>
-      </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="27"/>
-    </row>
-    <row r="59" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="6"/>
-      <c r="B59" s="26" t="str">
-        <f t="shared" ref="B59:B61" si="2">B40&amp;C40&amp;D40&amp;E40&amp;F40&amp;G40&amp;H40&amp;I40&amp;J40&amp;K40&amp;L40&amp;M40&amp;N40&amp;O40</f>
-        <v xml:space="preserve">    KC_TAB,       KC_A,       KC_S,       KC_D,       KC_F,       KC_G,                               KC_H,       KC_J,       KC_K,       KC_L,    KC_SCLN,    KC_QUOT,</v>
-      </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="27"/>
-    </row>
-    <row r="60" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="6"/>
-      <c r="B60" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">   KC_LCTL,       KC_Z,       KC_X,       KC_C,       KC_V,       KC_B,                               KC_N,       KC_M,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
-      </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="27"/>
-    </row>
-    <row r="61" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="6"/>
-      <c r="B61" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">                                                      TG_R,       MO_R,   LSFT_SPC,   RSTF_ENT,       MO_L,       TG_L</v>
-      </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="27"/>
-    </row>
-    <row r="62" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="29"/>
-    </row>
-    <row r="63" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="25"/>
-    </row>
-    <row r="64" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B64" s="26" t="str">
-        <f>B43&amp;C43&amp;D43&amp;E43&amp;F43&amp;G43&amp;H43&amp;I43&amp;J43&amp;K43&amp;L43&amp;M43&amp;N43&amp;O43</f>
-        <v xml:space="preserve">   XXXXXXX,    S(KC_1),    S(KC_2),    S(KC_3),    S(KC_4),    S(KC_5),                            S(KC_6),    S(KC_7),    S(KC_8),    S(KC_9),    XXXXXXX,    XXXXXXX,</v>
-      </c>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="27"/>
     </row>
     <row r="65" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6"/>
-      <c r="B65" s="26" t="str">
-        <f t="shared" ref="B65:B67" si="3">B44&amp;C44&amp;D44&amp;E44&amp;F44&amp;G44&amp;H44&amp;I44&amp;J44&amp;K44&amp;L44&amp;M44&amp;N44&amp;O44</f>
-        <v xml:space="preserve">   XXXXXXX,    XXXXXXX,    KC_HOME,    KC_PGUP,    KC_PGDN,     KC_END,                            KC_LEFT,    KC_DOWN,      KC_UP,    KC_RGHT,     KC_EQL,    KC_MINS,</v>
-      </c>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="27"/>
+      <c r="B65" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   KC_LCTL, </v>
+      </c>
+      <c r="C65" s="18" t="str">
+        <f t="shared" ref="C65:O65" si="11">IF(C39="TERM","",IF(C39="NONE",REPT(" ",12),REPT(" ",10-LEN(C39))&amp;C39))&amp;IF(OR(C39="TERM",C39="NONE"),"",IF(D39="TERM","",IF(D39="",",",", ")))</f>
+        <v xml:space="preserve">   KC_LALT, </v>
+      </c>
+      <c r="D65" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   MS_WHLL, </v>
+      </c>
+      <c r="E65" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   MS_WHLR, </v>
+      </c>
+      <c r="F65" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   KC_INT5, </v>
+      </c>
+      <c r="G65" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   KC_BSPC, </v>
+      </c>
+      <c r="H65" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I65" s="19" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J65" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">    KC_DEL, </v>
+      </c>
+      <c r="K65" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   KC_INT4, </v>
+      </c>
+      <c r="L65" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   KC_COMM, </v>
+      </c>
+      <c r="M65" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">    KC_DOT, </v>
+      </c>
+      <c r="N65" s="18" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   KC_SLSH, </v>
+      </c>
+      <c r="O65" s="20" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   KC_INT1,</v>
+      </c>
     </row>
     <row r="66" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="6"/>
-      <c r="B66" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    XXXXXXX,    XXXXXXX,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_RBRC,    KC_BSLS,  S(KC_EQL), S(KC_INT3),</v>
-      </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="27"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="C66" s="21" t="str">
+        <f t="shared" ref="C66:O66" si="12">IF(C40="TERM","",IF(C40="NONE",REPT(" ",12),REPT(" ",10-LEN(C40))&amp;C40))&amp;IF(OR(C40="TERM",C40="NONE"),"",IF(D40="TERM","",IF(D40="",",",", ")))</f>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="D66" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E66" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F66" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="G66" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="H66" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="I66" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="J66" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="K66" s="22" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">   _______</v>
+      </c>
+      <c r="L66" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M66" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N66" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O66" s="23" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
     </row>
     <row r="67" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="6"/>
-      <c r="B67" s="26" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
-      </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
+      <c r="A67" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B67" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    KC_ESC, </v>
+      </c>
+      <c r="C67" s="15" t="str">
+        <f t="shared" ref="C67:O67" si="13">IF(C41="TERM","",IF(C41="NONE",REPT(" ",12),REPT(" ",10-LEN(C41))&amp;C41))&amp;IF(OR(C41="TERM",C41="NONE"),"",IF(D41="TERM","",IF(D41="",",",", ")))</f>
+        <v xml:space="preserve">      KC_Q, </v>
+      </c>
+      <c r="D67" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      KC_W, </v>
+      </c>
+      <c r="E67" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      KC_E, </v>
+      </c>
+      <c r="F67" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      KC_R, </v>
+      </c>
+      <c r="G67" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      KC_T, </v>
+      </c>
+      <c r="H67" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I67" s="16" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J67" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      KC_Y, </v>
+      </c>
+      <c r="K67" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      KC_U, </v>
+      </c>
+      <c r="L67" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      KC_I, </v>
+      </c>
+      <c r="M67" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      KC_O, </v>
+      </c>
+      <c r="N67" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">      KC_P, </v>
+      </c>
+      <c r="O67" s="17" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">   KC_LBRC,</v>
+      </c>
     </row>
     <row r="68" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="10"/>
-      <c r="B68" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="29"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">    KC_TAB, </v>
+      </c>
+      <c r="C68" s="18" t="str">
+        <f t="shared" ref="C68:O68" si="14">IF(C42="TERM","",IF(C42="NONE",REPT(" ",12),REPT(" ",10-LEN(C42))&amp;C42))&amp;IF(OR(C42="TERM",C42="NONE"),"",IF(D42="TERM","",IF(D42="",",",", ")))</f>
+        <v xml:space="preserve">      KC_A, </v>
+      </c>
+      <c r="D68" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">      KC_S, </v>
+      </c>
+      <c r="E68" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">      KC_D, </v>
+      </c>
+      <c r="F68" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">      KC_F, </v>
+      </c>
+      <c r="G68" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">      KC_G, </v>
+      </c>
+      <c r="H68" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I68" s="19" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J68" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">      KC_H, </v>
+      </c>
+      <c r="K68" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">      KC_J, </v>
+      </c>
+      <c r="L68" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">      KC_K, </v>
+      </c>
+      <c r="M68" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">      KC_L, </v>
+      </c>
+      <c r="N68" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">   KC_SCLN, </v>
+      </c>
+      <c r="O68" s="20" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">   KC_QUOT,</v>
+      </c>
     </row>
     <row r="69" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="25"/>
-    </row>
-    <row r="70" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B70" s="26" t="str">
-        <f>B47&amp;C47&amp;D47&amp;E47&amp;F47&amp;G47&amp;H47&amp;I47&amp;J47&amp;K47&amp;L47&amp;M47&amp;N47&amp;O47</f>
-        <v xml:space="preserve">     KC_F1,      KC_F2,      KC_F3,      KC_F4,      KC_F5,      KC_F6,                              KC_F7,      KC_F8,      KC_F9,     KC_F10,     KC_F11,     KC_F12,</v>
-      </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="27"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   KC_LCTL, </v>
+      </c>
+      <c r="C69" s="18" t="str">
+        <f t="shared" ref="C69:O69" si="15">IF(C43="TERM","",IF(C43="NONE",REPT(" ",12),REPT(" ",10-LEN(C43))&amp;C43))&amp;IF(OR(C43="TERM",C43="NONE"),"",IF(D43="TERM","",IF(D43="",",",", ")))</f>
+        <v xml:space="preserve">      KC_Z, </v>
+      </c>
+      <c r="D69" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">      KC_X, </v>
+      </c>
+      <c r="E69" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">      KC_C, </v>
+      </c>
+      <c r="F69" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">      KC_V, </v>
+      </c>
+      <c r="G69" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">      KC_B, </v>
+      </c>
+      <c r="H69" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I69" s="19" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J69" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">      KC_N, </v>
+      </c>
+      <c r="K69" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">      KC_M, </v>
+      </c>
+      <c r="L69" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">   KC_COMM, </v>
+      </c>
+      <c r="M69" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    KC_DOT, </v>
+      </c>
+      <c r="N69" s="18" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">   KC_SLSH, </v>
+      </c>
+      <c r="O69" s="20" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">   KC_INT1,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="10"/>
+      <c r="B70" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="C70" s="21" t="str">
+        <f t="shared" ref="C70:O70" si="16">IF(C44="TERM","",IF(C44="NONE",REPT(" ",12),REPT(" ",10-LEN(C44))&amp;C44))&amp;IF(OR(C44="TERM",C44="NONE"),"",IF(D44="TERM","",IF(D44="",",",", ")))</f>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="D70" s="21" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E70" s="21" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F70" s="22" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">      TG_R, </v>
+      </c>
+      <c r="G70" s="22" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    KC_SPC, </v>
+      </c>
+      <c r="H70" s="22" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">     MO_RA, </v>
+      </c>
+      <c r="I70" s="22" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">     MO_LA, </v>
+      </c>
+      <c r="J70" s="22" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">    KC_ENT, </v>
+      </c>
+      <c r="K70" s="22" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">      TG_L</v>
+      </c>
+      <c r="L70" s="21" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M70" s="21" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N70" s="21" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O70" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
     </row>
     <row r="71" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="6"/>
-      <c r="B71" s="26" t="str">
-        <f t="shared" ref="B71:B73" si="4">B48&amp;C48&amp;D48&amp;E48&amp;F48&amp;G48&amp;H48&amp;I48&amp;J48&amp;K48&amp;L48&amp;M48&amp;N48&amp;O48</f>
-        <v xml:space="preserve">   KC_LNG5,       KC_1,       KC_2,       KC_3,       KC_4,       KC_5,                               KC_6,       KC_7,       KC_8,       KC_9,       KC_0,    KC_MINS,</v>
-      </c>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="27"/>
+      <c r="A71" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B71" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="C71" s="15" t="str">
+        <f t="shared" ref="C71:O71" si="17">IF(C45="TERM","",IF(C45="NONE",REPT(" ",12),REPT(" ",10-LEN(C45))&amp;C45))&amp;IF(OR(C45="TERM",C45="NONE"),"",IF(D45="TERM","",IF(D45="",",",", ")))</f>
+        <v xml:space="preserve">   S(KC_1), </v>
+      </c>
+      <c r="D71" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   S(KC_2), </v>
+      </c>
+      <c r="E71" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   S(KC_3), </v>
+      </c>
+      <c r="F71" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   S(KC_4), </v>
+      </c>
+      <c r="G71" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   S(KC_5), </v>
+      </c>
+      <c r="H71" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I71" s="16" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J71" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   S(KC_6), </v>
+      </c>
+      <c r="K71" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   S(KC_7), </v>
+      </c>
+      <c r="L71" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   S(KC_8), </v>
+      </c>
+      <c r="M71" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   S(KC_9), </v>
+      </c>
+      <c r="N71" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="O71" s="17" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve">   XXXXXXX,</v>
+      </c>
     </row>
     <row r="72" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6"/>
-      <c r="B72" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    MS_WHLL,    MS_WHLR,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="27"/>
+      <c r="B72" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="C72" s="18" t="str">
+        <f t="shared" ref="C72:O72" si="18">IF(C46="TERM","",IF(C46="NONE",REPT(" ",12),REPT(" ",10-LEN(C46))&amp;C46))&amp;IF(OR(C46="TERM",C46="NONE"),"",IF(D46="TERM","",IF(D46="",",",", ")))</f>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="D72" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   KC_HOME, </v>
+      </c>
+      <c r="E72" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   KC_PGUP, </v>
+      </c>
+      <c r="F72" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   KC_PGDN, </v>
+      </c>
+      <c r="G72" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    KC_END, </v>
+      </c>
+      <c r="H72" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I72" s="19" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J72" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   KC_LEFT, </v>
+      </c>
+      <c r="K72" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   KC_DOWN, </v>
+      </c>
+      <c r="L72" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">     KC_UP, </v>
+      </c>
+      <c r="M72" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   KC_RGHT, </v>
+      </c>
+      <c r="N72" s="18" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">    KC_EQL, </v>
+      </c>
+      <c r="O72" s="20" t="str">
+        <f t="shared" si="18"/>
+        <v xml:space="preserve">   KC_MINS,</v>
+      </c>
     </row>
     <row r="73" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
-      <c r="B73" s="26" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="27"/>
-    </row>
-    <row r="74" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   KC_LCTL, </v>
+      </c>
+      <c r="C73" s="18" t="str">
+        <f t="shared" ref="C73:O73" si="19">IF(C47="TERM","",IF(C47="NONE",REPT(" ",12),REPT(" ",10-LEN(C47))&amp;C47))&amp;IF(OR(C47="TERM",C47="NONE"),"",IF(D47="TERM","",IF(D47="",",",", ")))</f>
+        <v xml:space="preserve">   KC_LALT, </v>
+      </c>
+      <c r="D73" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="E73" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="F73" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   KC_INT5, </v>
+      </c>
+      <c r="G73" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   KC_BSPC, </v>
+      </c>
+      <c r="H73" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I73" s="19" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J73" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">    KC_DEL, </v>
+      </c>
+      <c r="K73" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   KC_INT4, </v>
+      </c>
+      <c r="L73" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   KC_RBRC, </v>
+      </c>
+      <c r="M73" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   KC_BSLS, </v>
+      </c>
+      <c r="N73" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve"> S(KC_EQL), </v>
+      </c>
+      <c r="O73" s="20" t="str">
+        <f t="shared" si="19"/>
+        <v>S(KC_INT3),</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="10"/>
-      <c r="B74" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
-      <c r="M74" s="28"/>
-      <c r="N74" s="28"/>
-      <c r="O74" s="29"/>
+      <c r="B74" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="C74" s="21" t="str">
+        <f t="shared" ref="C74:O74" si="20">IF(C48="TERM","",IF(C48="NONE",REPT(" ",12),REPT(" ",10-LEN(C48))&amp;C48))&amp;IF(OR(C48="TERM",C48="NONE"),"",IF(D48="TERM","",IF(D48="",",",", ")))</f>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="D74" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E74" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F74" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="G74" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="H74" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="I74" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="J74" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="K74" s="22" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">   _______</v>
+      </c>
+      <c r="L74" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="M74" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="N74" s="21" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O74" s="23" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
-      <c r="B75" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="25"/>
+      <c r="A75" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B75" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">     KC_F1, </v>
+      </c>
+      <c r="C75" s="15" t="str">
+        <f t="shared" ref="C75:O75" si="21">IF(C49="TERM","",IF(C49="NONE",REPT(" ",12),REPT(" ",10-LEN(C49))&amp;C49))&amp;IF(OR(C49="TERM",C49="NONE"),"",IF(D49="TERM","",IF(D49="",",",", ")))</f>
+        <v xml:space="preserve">     KC_F2, </v>
+      </c>
+      <c r="D75" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">     KC_F3, </v>
+      </c>
+      <c r="E75" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">     KC_F4, </v>
+      </c>
+      <c r="F75" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">     KC_F5, </v>
+      </c>
+      <c r="G75" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">     KC_F6, </v>
+      </c>
+      <c r="H75" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I75" s="16" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J75" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">     KC_F7, </v>
+      </c>
+      <c r="K75" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">     KC_F8, </v>
+      </c>
+      <c r="L75" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">     KC_F9, </v>
+      </c>
+      <c r="M75" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    KC_F10, </v>
+      </c>
+      <c r="N75" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    KC_F11, </v>
+      </c>
+      <c r="O75" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v xml:space="preserve">    KC_F12,</v>
+      </c>
     </row>
     <row r="76" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B76" s="26" t="str">
-        <f>B51&amp;C51&amp;D51&amp;E51&amp;F51&amp;G51&amp;H51&amp;I51&amp;J51&amp;K51&amp;L51&amp;M51&amp;N51&amp;O51</f>
-        <v xml:space="preserve">    KC_ESC,       KC_Q,       KC_W,       KC_E,       KC_R,       KC_T,                               KC_Y,       KC_U,       KC_I,       KC_O,       KC_P,    KC_LBRC,</v>
-      </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="26"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="26"/>
-      <c r="O76" s="27"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   KC_LNG5, </v>
+      </c>
+      <c r="C76" s="18" t="str">
+        <f t="shared" ref="C76:O76" si="22">IF(C50="TERM","",IF(C50="NONE",REPT(" ",12),REPT(" ",10-LEN(C50))&amp;C50))&amp;IF(OR(C50="TERM",C50="NONE"),"",IF(D50="TERM","",IF(D50="",",",", ")))</f>
+        <v xml:space="preserve">      KC_1, </v>
+      </c>
+      <c r="D76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">      KC_2, </v>
+      </c>
+      <c r="E76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">      KC_3, </v>
+      </c>
+      <c r="F76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">      KC_4, </v>
+      </c>
+      <c r="G76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">      KC_5, </v>
+      </c>
+      <c r="H76" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I76" s="19" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">      KC_6, </v>
+      </c>
+      <c r="K76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">      KC_7, </v>
+      </c>
+      <c r="L76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">      KC_8, </v>
+      </c>
+      <c r="M76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">      KC_9, </v>
+      </c>
+      <c r="N76" s="18" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">      KC_0, </v>
+      </c>
+      <c r="O76" s="20" t="str">
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">   KC_MINS,</v>
+      </c>
     </row>
     <row r="77" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
-      <c r="B77" s="26" t="str">
-        <f t="shared" ref="B77:B79" si="5">B52&amp;C52&amp;D52&amp;E52&amp;F52&amp;G52&amp;H52&amp;I52&amp;J52&amp;K52&amp;L52&amp;M52&amp;N52&amp;O52</f>
+      <c r="B77" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">   KC_LCTL, </v>
+      </c>
+      <c r="C77" s="18" t="str">
+        <f t="shared" ref="C77:O77" si="23">IF(C51="TERM","",IF(C51="NONE",REPT(" ",12),REPT(" ",10-LEN(C51))&amp;C51))&amp;IF(OR(C51="TERM",C51="NONE"),"",IF(D51="TERM","",IF(D51="",",",", ")))</f>
+        <v xml:space="preserve">   KC_LALT, </v>
+      </c>
+      <c r="D77" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">   MS_WHLL, </v>
+      </c>
+      <c r="E77" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">   MS_WHLR, </v>
+      </c>
+      <c r="F77" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">   KC_INT5, </v>
+      </c>
+      <c r="G77" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">   KC_BSPC, </v>
+      </c>
+      <c r="H77" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="I77" s="19" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="J77" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">    KC_DEL, </v>
+      </c>
+      <c r="K77" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">   KC_INT4, </v>
+      </c>
+      <c r="L77" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">   KC_COMM, </v>
+      </c>
+      <c r="M77" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">    KC_DOT, </v>
+      </c>
+      <c r="N77" s="18" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">   KC_SLSH, </v>
+      </c>
+      <c r="O77" s="20" t="str">
+        <f t="shared" si="23"/>
+        <v xml:space="preserve">   KC_INT1,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="10"/>
+      <c r="B78" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="C78" s="21" t="str">
+        <f t="shared" ref="C78:O78" si="24">IF(C52="TERM","",IF(C52="NONE",REPT(" ",12),REPT(" ",10-LEN(C52))&amp;C52))&amp;IF(OR(C52="TERM",C52="NONE"),"",IF(D52="TERM","",IF(D52="",",",", ")))</f>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="D78" s="21" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E78" s="21" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F78" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="G78" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="H78" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="I78" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="J78" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="K78" s="22" t="str">
+        <f t="shared" si="24"/>
+        <v xml:space="preserve">   _______</v>
+      </c>
+      <c r="L78" s="21" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M78" s="21" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N78" s="21" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O78" s="23" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+    </row>
+    <row r="80" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+    </row>
+    <row r="81" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2"/>
+      <c r="B81" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="24"/>
+      <c r="O81" s="25"/>
+    </row>
+    <row r="82" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B82" s="26" t="str">
+        <f>B55&amp;C55&amp;D55&amp;E55&amp;F55&amp;G55&amp;H55&amp;I55&amp;J55&amp;K55&amp;L55&amp;M55&amp;N55&amp;O55</f>
+        <v xml:space="preserve">    KC_ESC,       KC_Q,       KC_W,       KC_E,       KC_R,       KC_T,                               KC_Y,       KC_U,       KC_I,       KC_O,       KC_P,    KC_LBRC,</v>
+      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="27"/>
+    </row>
+    <row r="83" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="6"/>
+      <c r="B83" s="26" t="str">
+        <f t="shared" ref="B83:B85" si="25">B56&amp;C56&amp;D56&amp;E56&amp;F56&amp;G56&amp;H56&amp;I56&amp;J56&amp;K56&amp;L56&amp;M56&amp;N56&amp;O56</f>
         <v xml:space="preserve">    KC_TAB,       KC_A,       KC_S,       KC_D,       KC_F,       KC_G,                               KC_H,       KC_J,       KC_K,       KC_L,    KC_SCLN,    KC_QUOT,</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="26"/>
-      <c r="O77" s="27"/>
-    </row>
-    <row r="78" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="6"/>
-      <c r="B78" s="26" t="str">
-        <f t="shared" si="5"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="27"/>
+    </row>
+    <row r="84" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="6"/>
+      <c r="B84" s="26" t="str">
+        <f t="shared" si="25"/>
         <v xml:space="preserve">   KC_LCTL,       KC_Z,       KC_X,       KC_C,       KC_V,       KC_B,                               KC_N,       KC_M,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="26"/>
-      <c r="O78" s="27"/>
-    </row>
-    <row r="79" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="6"/>
-      <c r="B79" s="26" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">                                                   KC_LALT,    _______,     KC_SPC,     KC_ENT,    _______,    _______</v>
-      </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="26"/>
-      <c r="O79" s="27"/>
-    </row>
-    <row r="80" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="10"/>
-      <c r="B80" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="29"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="27"/>
+    </row>
+    <row r="85" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="6"/>
+      <c r="B85" s="26" t="str">
+        <f t="shared" si="25"/>
+        <v xml:space="preserve">                                                      TG_R,       MO_R,   LSFT_SPC,   RSTF_ENT,       MO_L,       TG_L</v>
+      </c>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="27"/>
+    </row>
+    <row r="86" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="10"/>
+      <c r="B86" s="28" t="str">
+        <f>IF(B87&lt;&gt;"","),",")")</f>
+        <v>),</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="29"/>
+    </row>
+    <row r="87" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="2"/>
+      <c r="B87" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="25"/>
+    </row>
+    <row r="88" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B88" s="26" t="str">
+        <f>B59&amp;C59&amp;D59&amp;E59&amp;F59&amp;G59&amp;H59&amp;I59&amp;J59&amp;K59&amp;L59&amp;M59&amp;N59&amp;O59</f>
+        <v xml:space="preserve">   XXXXXXX,    S(KC_1),    S(KC_2),    S(KC_3),    S(KC_4),    S(KC_5),                            S(KC_6),    S(KC_7),    S(KC_8),    S(KC_9),    XXXXXXX,    XXXXXXX,</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="26"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="27"/>
+    </row>
+    <row r="89" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="6"/>
+      <c r="B89" s="26" t="str">
+        <f t="shared" ref="B89:B91" si="26">B60&amp;C60&amp;D60&amp;E60&amp;F60&amp;G60&amp;H60&amp;I60&amp;J60&amp;K60&amp;L60&amp;M60&amp;N60&amp;O60</f>
+        <v xml:space="preserve">   XXXXXXX,    XXXXXXX,    KC_HOME,    KC_PGUP,    KC_PGDN,     KC_END,                            KC_LEFT,    KC_DOWN,      KC_UP,    KC_RGHT,     KC_EQL,    KC_MINS,</v>
+      </c>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="27"/>
+    </row>
+    <row r="90" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="6"/>
+      <c r="B90" s="26" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    XXXXXXX,    XXXXXXX,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_RBRC,    KC_BSLS,  S(KC_EQL), S(KC_INT3),</v>
+      </c>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="26"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="27"/>
+    </row>
+    <row r="91" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="6"/>
+      <c r="B91" s="26" t="str">
+        <f t="shared" si="26"/>
+        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="26"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="27"/>
+    </row>
+    <row r="92" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="10"/>
+      <c r="B92" s="28" t="str">
+        <f>IF(B93&lt;&gt;"","),",")")</f>
+        <v>),</v>
+      </c>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
+      <c r="J92" s="28"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="28"/>
+      <c r="O92" s="29"/>
+    </row>
+    <row r="93" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="2"/>
+      <c r="B93" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="25"/>
+    </row>
+    <row r="94" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" s="26" t="str">
+        <f>B63&amp;C63&amp;D63&amp;E63&amp;F63&amp;G63&amp;H63&amp;I63&amp;J63&amp;K63&amp;L63&amp;M63&amp;N63&amp;O63</f>
+        <v xml:space="preserve">     KC_F1,      KC_F2,      KC_F3,      KC_F4,      KC_F5,      KC_F6,                              KC_F7,      KC_F8,      KC_F9,     KC_F10,     KC_F11,     KC_F12,</v>
+      </c>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="27"/>
+    </row>
+    <row r="95" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="6"/>
+      <c r="B95" s="26" t="str">
+        <f t="shared" ref="B95:B97" si="27">B64&amp;C64&amp;D64&amp;E64&amp;F64&amp;G64&amp;H64&amp;I64&amp;J64&amp;K64&amp;L64&amp;M64&amp;N64&amp;O64</f>
+        <v xml:space="preserve">   KC_LNG5,       KC_1,       KC_2,       KC_3,       KC_4,       KC_5,                               KC_6,       KC_7,       KC_8,       KC_9,       KC_0,    KC_MINS,</v>
+      </c>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="27"/>
+    </row>
+    <row r="96" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="6"/>
+      <c r="B96" s="26" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    MS_WHLL,    MS_WHLR,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="27"/>
+    </row>
+    <row r="97" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="6"/>
+      <c r="B97" s="26" t="str">
+        <f t="shared" si="27"/>
+        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="26"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="27"/>
+    </row>
+    <row r="98" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="10"/>
+      <c r="B98" s="28" t="str">
+        <f>IF(B99&lt;&gt;"","),",")")</f>
+        <v>),</v>
+      </c>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="28"/>
+      <c r="O98" s="29"/>
+    </row>
+    <row r="99" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="2"/>
+      <c r="B99" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="25"/>
+    </row>
+    <row r="100" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" s="26" t="str">
+        <f>B67&amp;C67&amp;D67&amp;E67&amp;F67&amp;G67&amp;H67&amp;I67&amp;J67&amp;K67&amp;L67&amp;M67&amp;N67&amp;O67</f>
+        <v xml:space="preserve">    KC_ESC,       KC_Q,       KC_W,       KC_E,       KC_R,       KC_T,                               KC_Y,       KC_U,       KC_I,       KC_O,       KC_P,    KC_LBRC,</v>
+      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="27"/>
+    </row>
+    <row r="101" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="6"/>
+      <c r="B101" s="26" t="str">
+        <f t="shared" ref="B101:B103" si="28">B68&amp;C68&amp;D68&amp;E68&amp;F68&amp;G68&amp;H68&amp;I68&amp;J68&amp;K68&amp;L68&amp;M68&amp;N68&amp;O68</f>
+        <v xml:space="preserve">    KC_TAB,       KC_A,       KC_S,       KC_D,       KC_F,       KC_G,                               KC_H,       KC_J,       KC_K,       KC_L,    KC_SCLN,    KC_QUOT,</v>
+      </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="26"/>
+      <c r="J101" s="26"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="26"/>
+      <c r="O101" s="27"/>
+    </row>
+    <row r="102" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="6"/>
+      <c r="B102" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">   KC_LCTL,       KC_Z,       KC_X,       KC_C,       KC_V,       KC_B,                               KC_N,       KC_M,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
+      </c>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="27"/>
+    </row>
+    <row r="103" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="6"/>
+      <c r="B103" s="26" t="str">
+        <f t="shared" si="28"/>
+        <v xml:space="preserve">                                                      TG_R,     KC_SPC,      MO_RA,      MO_LA,     KC_ENT,       TG_L</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="27"/>
+    </row>
+    <row r="104" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="10"/>
+      <c r="B104" s="28" t="str">
+        <f>IF(B105&lt;&gt;"","),",")")</f>
+        <v>),</v>
+      </c>
+      <c r="C104" s="28"/>
+      <c r="D104" s="28"/>
+      <c r="E104" s="28"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="28"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
+      <c r="J104" s="28"/>
+      <c r="K104" s="28"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="29"/>
+    </row>
+    <row r="105" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="2"/>
+      <c r="B105" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="24"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="24"/>
+      <c r="O105" s="25"/>
+    </row>
+    <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B106" s="26" t="str">
+        <f>B71&amp;C71&amp;D71&amp;E71&amp;F71&amp;G71&amp;H71&amp;I71&amp;J71&amp;K71&amp;L71&amp;M71&amp;N71&amp;O71</f>
+        <v xml:space="preserve">   XXXXXXX,    S(KC_1),    S(KC_2),    S(KC_3),    S(KC_4),    S(KC_5),                            S(KC_6),    S(KC_7),    S(KC_8),    S(KC_9),    XXXXXXX,    XXXXXXX,</v>
+      </c>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="26"/>
+      <c r="J106" s="26"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="26"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="27"/>
+    </row>
+    <row r="107" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="6"/>
+      <c r="B107" s="26" t="str">
+        <f t="shared" ref="B107:B109" si="29">B72&amp;C72&amp;D72&amp;E72&amp;F72&amp;G72&amp;H72&amp;I72&amp;J72&amp;K72&amp;L72&amp;M72&amp;N72&amp;O72</f>
+        <v xml:space="preserve">   XXXXXXX,    XXXXXXX,    KC_HOME,    KC_PGUP,    KC_PGDN,     KC_END,                            KC_LEFT,    KC_DOWN,      KC_UP,    KC_RGHT,     KC_EQL,    KC_MINS,</v>
+      </c>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="26"/>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
+      <c r="I107" s="26"/>
+      <c r="J107" s="26"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="27"/>
+    </row>
+    <row r="108" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="6"/>
+      <c r="B108" s="26" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    XXXXXXX,    XXXXXXX,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_RBRC,    KC_BSLS,  S(KC_EQL), S(KC_INT3),</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
+      <c r="G108" s="26"/>
+      <c r="H108" s="26"/>
+      <c r="I108" s="26"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="27"/>
+    </row>
+    <row r="109" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="6"/>
+      <c r="B109" s="26" t="str">
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="26"/>
+      <c r="G109" s="26"/>
+      <c r="H109" s="26"/>
+      <c r="I109" s="26"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="27"/>
+    </row>
+    <row r="110" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="10"/>
+      <c r="B110" s="28" t="str">
+        <f>IF(B111&lt;&gt;"","),",")")</f>
+        <v>),</v>
+      </c>
+      <c r="C110" s="28"/>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
+      <c r="K110" s="28"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="28"/>
+      <c r="O110" s="29"/>
+    </row>
+    <row r="111" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="2"/>
+      <c r="B111" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="24"/>
+      <c r="O111" s="25"/>
+    </row>
+    <row r="112" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B112" s="26" t="str">
+        <f>B75&amp;C75&amp;D75&amp;E75&amp;F75&amp;G75&amp;H75&amp;I75&amp;J75&amp;K75&amp;L75&amp;M75&amp;N75&amp;O75</f>
+        <v xml:space="preserve">     KC_F1,      KC_F2,      KC_F3,      KC_F4,      KC_F5,      KC_F6,                              KC_F7,      KC_F8,      KC_F9,     KC_F10,     KC_F11,     KC_F12,</v>
+      </c>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="26"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="27"/>
+    </row>
+    <row r="113" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="6"/>
+      <c r="B113" s="26" t="str">
+        <f t="shared" ref="B113:B115" si="30">B76&amp;C76&amp;D76&amp;E76&amp;F76&amp;G76&amp;H76&amp;I76&amp;J76&amp;K76&amp;L76&amp;M76&amp;N76&amp;O76</f>
+        <v xml:space="preserve">   KC_LNG5,       KC_1,       KC_2,       KC_3,       KC_4,       KC_5,                               KC_6,       KC_7,       KC_8,       KC_9,       KC_0,    KC_MINS,</v>
+      </c>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="26"/>
+      <c r="I113" s="26"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="26"/>
+      <c r="N113" s="26"/>
+      <c r="O113" s="27"/>
+    </row>
+    <row r="114" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="6"/>
+      <c r="B114" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    MS_WHLL,    MS_WHLR,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
+      </c>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="26"/>
+      <c r="J114" s="26"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="26"/>
+      <c r="N114" s="26"/>
+      <c r="O114" s="27"/>
+    </row>
+    <row r="115" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="6"/>
+      <c r="B115" s="26" t="str">
+        <f t="shared" si="30"/>
+        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
+      </c>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="26"/>
+      <c r="I115" s="26"/>
+      <c r="J115" s="26"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="27"/>
+    </row>
+    <row r="116" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="10"/>
+      <c r="B116" s="28" t="str">
+        <f>IF(B117&lt;&gt;"","),",")")</f>
+        <v>)</v>
+      </c>
+      <c r="C116" s="28"/>
+      <c r="D116" s="28"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
+      <c r="O116" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/Crkbd 配列作成ブック.xlsx
+++ b/Crkbd 配列作成ブック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0254fe376154954e/ドキュメント/資料集/自作キーボード/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8409A946-AB1C-4756-BECA-88F3CA26E9BC}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE94D011-0267-4A05-843B-B45507D171E2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12750" windowWidth="16440" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keycodes" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -34,7 +45,7 @@
     <author>吉井雄一</author>
   </authors>
   <commentList>
-    <comment ref="D149" authorId="0" shapeId="0" xr:uid="{AD61CCD6-A2E1-4A44-80FB-FA3037FA57B7}">
+    <comment ref="D151" authorId="0" shapeId="0" xr:uid="{AD61CCD6-A2E1-4A44-80FB-FA3037FA57B7}">
       <text>
         <r>
           <rPr>
@@ -56,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="358">
   <si>
     <t>日本語キー</t>
     <rPh sb="0" eb="3">
@@ -659,18 +670,6 @@
   </si>
   <si>
     <t>KC_INT5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変換</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KC_HENK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KC_INT4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1077,6 +1076,28 @@
     <t>#define TG_R TG(_RAISE)</t>
   </si>
   <si>
+    <t>MoLowerAdjust</t>
+  </si>
+  <si>
+    <t>MO_LA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#define MO_L MO(_LOWER_ADJUST)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoRaiseAdjust</t>
+  </si>
+  <si>
+    <t>MO_RA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#define MO_R MO(_RAISE_ADJUST)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>長押し</t>
     <rPh sb="0" eb="2">
       <t>ナガオ</t>
@@ -1147,6 +1168,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
     <t>@</t>
   </si>
   <si>
@@ -1159,6 +1183,9 @@
     <t>Shift &amp; Enter</t>
   </si>
   <si>
+    <t>LOWER</t>
+  </si>
+  <si>
     <t>S '</t>
   </si>
   <si>
@@ -1174,91 +1201,91 @@
     <t>S Tilde</t>
   </si>
   <si>
+    <t>RAISE</t>
+  </si>
+  <si>
     <t>半角/全角</t>
   </si>
   <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>LOWER</t>
-  </si>
-  <si>
-    <t>RAISE</t>
-  </si>
-  <si>
     <t>ADJUST</t>
-  </si>
-  <si>
-    <t>[_QWERTY] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[_LOWER] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[_RAISE] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[_ADJUST] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LOWER_ADJUST</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoRaiseAdjust</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MoLowerAdjust</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>LOWER_ADJUST</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ADJUST</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>RAISE_ADJUST</t>
-  </si>
-  <si>
     <t>RAISE_ADJUST</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>MoRaiseAdjust</t>
-  </si>
-  <si>
-    <t>MoRaiseAdjust</t>
+    <t>ADJUST</t>
+  </si>
+  <si>
+    <t>LOWER_ADJUST</t>
+  </si>
+  <si>
+    <t>RAISE_ADJUST</t>
+  </si>
+  <si>
+    <t>[_QWERTY] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[_LOWER] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[_RAISE] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[_ADJUST] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[_LOWER_ADJUST] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[_RAISE_ADJUST] = LAYOUT_split_3x6_3(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KC_HENK</t>
+  </si>
+  <si>
+    <t>KC_INT4</t>
+  </si>
+  <si>
+    <t>Volume Down</t>
+  </si>
+  <si>
+    <t>Volume Down</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>MoLowerAdjust</t>
-  </si>
-  <si>
-    <t>MoLowerAdjust</t>
+    <t>Volume Up</t>
+  </si>
+  <si>
+    <t>Volume Up</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>MO_LA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MO_RA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#define MO_L MO(_LOWER_ADJUST)</t>
+    <t>KC_VOLU</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>#define MO_R MO(_RAISE_ADJUST)</t>
+    <t>KC_VOLD</t>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[_LOWER_ADJUST] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[_RAISE_ADJUST] = LAYOUT_split_3x6_3(</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2195,16 +2222,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="15.25" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="52" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.125" style="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="52"/>
@@ -3369,870 +3396,896 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="40" t="s">
+      <c r="A89" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D89" s="38"/>
+      <c r="E89" s="39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="D90" s="38"/>
+      <c r="E90" s="39"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="D91" s="42"/>
+      <c r="E91" s="43"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="B89" s="41"/>
-      <c r="C89" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="43" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90" s="45"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="30" t="s">
+      <c r="B92" s="45"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B93" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="31" t="s">
+      <c r="C93" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="31" t="s">
+      <c r="D93" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="32"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B92" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D92" s="35"/>
-      <c r="E92" s="36"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D93" s="35"/>
-      <c r="E93" s="36"/>
+      <c r="E93" s="32"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="33" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B94" s="34" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="36"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="33" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B95" s="34" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="36"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="33" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D96" s="35"/>
       <c r="E96" s="36"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="33" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="36"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="33" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B98" s="34" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D98" s="35"/>
       <c r="E98" s="36"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="33" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D99" s="35"/>
       <c r="E99" s="36"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="33" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D100" s="35"/>
       <c r="E100" s="36"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="33" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D101" s="35"/>
       <c r="E101" s="36"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="33" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D102" s="35"/>
       <c r="E102" s="36"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="33" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B103" s="34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D103" s="35"/>
       <c r="E103" s="36"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B104" s="34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D104" s="35"/>
       <c r="E104" s="36"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="33" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D105" s="35"/>
       <c r="E105" s="36"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="33" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D106" s="35"/>
       <c r="E106" s="36"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="33" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B107" s="34" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="36"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B108" s="34"/>
+        <v>218</v>
+      </c>
+      <c r="B108" s="34" t="s">
+        <v>218</v>
+      </c>
       <c r="C108" s="34" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D108" s="35"/>
       <c r="E108" s="36"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B109" s="34"/>
+        <v>220</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>221</v>
+      </c>
       <c r="C109" s="34" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D109" s="35"/>
       <c r="E109" s="36"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="33" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B110" s="34"/>
       <c r="C110" s="34" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D110" s="35"/>
       <c r="E110" s="36"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="33" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B111" s="34"/>
       <c r="C111" s="34" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D111" s="35"/>
       <c r="E111" s="36"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B112" s="34"/>
       <c r="C112" s="34" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D112" s="35"/>
       <c r="E112" s="36"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B113" s="34"/>
       <c r="C113" s="34" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D113" s="35"/>
       <c r="E113" s="36"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B114" s="34"/>
       <c r="C114" s="34" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="36"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="33" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B115" s="34"/>
       <c r="C115" s="34" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="36"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B116" s="34"/>
       <c r="C116" s="34" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="36"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="33" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B117" s="34"/>
       <c r="C117" s="34" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="36"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B118" s="34"/>
       <c r="C118" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="D118" s="35" t="s">
-        <v>248</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="D118" s="35"/>
       <c r="E118" s="36"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="33" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B119" s="34"/>
       <c r="C119" s="34" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D119" s="35"/>
-      <c r="E119" s="36" t="s">
-        <v>251</v>
-      </c>
+      <c r="E119" s="36"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="33" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B120" s="34"/>
       <c r="C120" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="D120" s="35"/>
+        <v>244</v>
+      </c>
+      <c r="D120" s="35" t="s">
+        <v>245</v>
+      </c>
       <c r="E120" s="36"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="33" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B121" s="34"/>
       <c r="C121" s="34" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D121" s="35"/>
-      <c r="E121" s="36"/>
+      <c r="E121" s="36" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="33" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B122" s="34"/>
       <c r="C122" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="D122" s="35" t="s">
-        <v>258</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="D122" s="35"/>
       <c r="E122" s="36"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="33" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B123" s="34"/>
       <c r="C123" s="34" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="33" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B124" s="34"/>
       <c r="C124" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="D124" s="35"/>
+        <v>254</v>
+      </c>
+      <c r="D124" s="35" t="s">
+        <v>255</v>
+      </c>
       <c r="E124" s="36"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="33" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B125" s="34"/>
       <c r="C125" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="D125" s="35" t="s">
-        <v>265</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="D125" s="35"/>
       <c r="E125" s="36"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="33" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B126" s="34"/>
       <c r="C126" s="34" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D126" s="35"/>
-      <c r="E126" s="36" t="s">
-        <v>268</v>
-      </c>
+      <c r="E126" s="36"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="33" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B127" s="34"/>
       <c r="C127" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D127" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="E127" s="36"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D128" s="35"/>
+      <c r="E128" s="36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B129" s="34"/>
+      <c r="C129" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="D129" s="35"/>
+      <c r="E129" s="36"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="47" t="s">
+        <v>268</v>
+      </c>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D130" s="38"/>
+      <c r="E130" s="39"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="D127" s="35"/>
-      <c r="E127" s="36"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="47" t="s">
+      <c r="B131" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="B128" s="37"/>
-      <c r="C128" s="37" t="s">
+      <c r="E131" s="39"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="D128" s="38"/>
-      <c r="E128" s="39"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" s="47" t="s">
+      <c r="B132" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="B129" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="C129" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="D129" s="38" t="s">
+      <c r="D132" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="E129" s="39"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" s="40" t="s">
+      <c r="E132" s="43"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="B130" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="C130" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="D130" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="E130" s="43"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="B131" s="45"/>
-      <c r="C131" s="45"/>
-      <c r="D131" s="45"/>
-      <c r="E131" s="46"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="30" t="s">
+      <c r="B133" s="45"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="45"/>
+      <c r="E133" s="46"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B132" s="31" t="s">
+      <c r="B134" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C132" s="31" t="s">
+      <c r="C134" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D132" s="31" t="s">
+      <c r="D134" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="32"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="B133" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>280</v>
-      </c>
-      <c r="D133" s="35"/>
-      <c r="E133" s="36"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="B134" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>282</v>
-      </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="36"/>
+      <c r="E134" s="32"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="33" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D135" s="35"/>
       <c r="E135" s="36"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="33" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B136" s="34" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D136" s="35"/>
       <c r="E136" s="36"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="40"/>
-      <c r="B137" s="41"/>
-      <c r="C137" s="41"/>
-      <c r="D137" s="48"/>
-      <c r="E137" s="49"/>
+      <c r="A137" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D137" s="35"/>
+      <c r="E137" s="36"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="B138" s="45"/>
-      <c r="C138" s="45"/>
-      <c r="D138" s="45"/>
-      <c r="E138" s="46"/>
+      <c r="A138" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D138" s="35"/>
+      <c r="E138" s="36"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="30" t="s">
+      <c r="A139" s="40"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="48"/>
+      <c r="E139" s="49"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="B140" s="45"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="45"/>
+      <c r="E140" s="46"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="31" t="s">
+      <c r="B141" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="31" t="s">
+      <c r="C141" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D141" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="32"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C140" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="D140" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="E140" s="36"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B141" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="C141" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="D141" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="E141" s="36"/>
+      <c r="E141" s="32"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="33" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E142" s="36"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="B143" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="C143" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="D143" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="E143" s="39"/>
+      <c r="A143" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B143" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C143" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D143" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E143" s="36"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="33" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>345</v>
+        <v>294</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>349</v>
+        <v>296</v>
       </c>
       <c r="E144" s="36"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="B145" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C145" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="D145" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="E145" s="36"/>
+      <c r="A145" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B145" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D145" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E145" s="39"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="40"/>
-      <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="48"/>
-      <c r="E146" s="49"/>
+      <c r="A146" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D146" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="E146" s="36"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="44" t="s">
+      <c r="A147" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="B147" s="45"/>
-      <c r="C147" s="45"/>
-      <c r="D147" s="45"/>
-      <c r="E147" s="46"/>
+      <c r="B147" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="C147" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="D147" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E147" s="36"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="30" t="s">
+      <c r="A148" s="40"/>
+      <c r="B148" s="41"/>
+      <c r="C148" s="41"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="49"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="46"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B148" s="31" t="s">
+      <c r="B150" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C148" s="31" t="s">
+      <c r="C150" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="31" t="s">
+      <c r="D150" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="32"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="D149" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="E149" s="36"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="33" t="s">
+      <c r="E150" s="32"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="B150" s="34"/>
-      <c r="C150" s="34" t="s">
+      <c r="B151" s="34"/>
+      <c r="C151" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="D150" s="35" t="s">
+      <c r="D151" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="E150" s="36"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="33"/>
-      <c r="B151" s="34"/>
-      <c r="C151" s="34"/>
-      <c r="D151" s="35"/>
       <c r="E151" s="36"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="47"/>
-      <c r="B152" s="37"/>
-      <c r="C152" s="37"/>
-      <c r="D152" s="38"/>
-      <c r="E152" s="39"/>
+      <c r="A152" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="B152" s="34"/>
+      <c r="C152" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D152" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="E152" s="36"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="40"/>
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="42"/>
-      <c r="E153" s="43"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="34"/>
+      <c r="C153" s="34"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="36"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="44" t="s">
-        <v>311</v>
-      </c>
-      <c r="B154" s="45"/>
-      <c r="C154" s="45"/>
-      <c r="D154" s="45"/>
-      <c r="E154" s="46"/>
+      <c r="A154" s="47"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="38"/>
+      <c r="E154" s="39"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="30" t="s">
+      <c r="A155" s="40"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="41"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="43"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="B156" s="45"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="45"/>
+      <c r="E156" s="46"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="31" t="s">
+      <c r="B157" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C155" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="D155" s="31" t="s">
+      <c r="C157" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="D157" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E155" s="32"/>
-    </row>
-    <row r="156" spans="1:5" ht="66" x14ac:dyDescent="0.35">
-      <c r="A156" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="B156" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="C156" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="D156" s="50" t="s">
-        <v>315</v>
-      </c>
-      <c r="E156" s="51"/>
-    </row>
-    <row r="157" spans="1:5" ht="66" x14ac:dyDescent="0.35">
-      <c r="A157" s="33" t="s">
+      <c r="E157" s="32"/>
+    </row>
+    <row r="158" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A158" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B158" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="C157" s="34" t="s">
+      <c r="C158" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="D157" s="50" t="s">
+      <c r="D158" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="E157" s="51"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="33"/>
-      <c r="B158" s="34"/>
-      <c r="C158" s="34"/>
-      <c r="D158" s="35"/>
-      <c r="E158" s="36"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" s="47"/>
-      <c r="B159" s="37"/>
-      <c r="C159" s="37"/>
-      <c r="D159" s="38"/>
-      <c r="E159" s="39"/>
+      <c r="E158" s="51"/>
+    </row>
+    <row r="159" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A159" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="D159" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="E159" s="51"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="40"/>
-      <c r="B160" s="41"/>
-      <c r="C160" s="41"/>
-      <c r="D160" s="42"/>
-      <c r="E160" s="43"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="34"/>
+      <c r="C160" s="34"/>
+      <c r="D160" s="35"/>
+      <c r="E160" s="36"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="47"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="38"/>
+      <c r="E161" s="39"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="40"/>
+      <c r="B162" s="41"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="42"/>
+      <c r="E162" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -4249,19 +4302,17 @@
   </sheetPr>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="15" width="12.625" customWidth="1"/>
+    <col min="2" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -4296,7 +4347,7 @@
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>98</v>
@@ -4317,10 +4368,10 @@
         <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>58</v>
@@ -4338,7 +4389,7 @@
         <v>40</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4362,10 +4413,10 @@
         <v>22</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>24</v>
@@ -4383,7 +4434,7 @@
         <v>152</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4407,10 +4458,10 @@
         <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>36</v>
@@ -4434,85 +4485,85 @@
     <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O6" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="5"/>
@@ -4534,10 +4585,10 @@
         <v>114</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>116</v>
@@ -4552,7 +4603,7 @@
         <v>122</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="O8" s="9" t="s">
         <v>146</v>
@@ -4569,22 +4620,22 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>106</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>149</v>
@@ -4593,25 +4644,25 @@
         <v>171</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>7</v>
@@ -4632,21 +4683,21 @@
         <v>7</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>72</v>
@@ -4667,10 +4718,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>84</v>
@@ -4694,7 +4745,7 @@
     <row r="12" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -4712,10 +4763,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J12" s="7">
         <v>6</v>
@@ -4745,28 +4796,28 @@
         <v>128</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>106</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>158</v>
@@ -4784,16 +4835,16 @@
     <row r="14" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>7</v>
@@ -4814,21 +4865,21 @@
         <v>7</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>98</v>
@@ -4849,10 +4900,10 @@
         <v>48</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>58</v>
@@ -4870,7 +4921,7 @@
         <v>40</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4894,10 +4945,10 @@
         <v>22</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>24</v>
@@ -4915,7 +4966,7 @@
         <v>152</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -4939,10 +4990,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>36</v>
@@ -4966,46 +5017,46 @@
     <row r="18" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="10"/>
       <c r="B18" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>104</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>96</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O18" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -5014,37 +5065,37 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N19" s="3"/>
       <c r="O19" s="5"/>
@@ -5066,10 +5117,10 @@
         <v>114</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -5084,7 +5135,7 @@
         <v>122</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>146</v>
@@ -5101,22 +5152,22 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>149</v>
@@ -5125,25 +5176,25 @@
         <v>171</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="10"/>
       <c r="B22" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>7</v>
@@ -5164,21 +5215,21 @@
         <v>7</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>72</v>
@@ -5199,10 +5250,10 @@
         <v>82</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>84</v>
@@ -5226,7 +5277,7 @@
     <row r="24" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -5244,10 +5295,10 @@
         <v>5</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J24" s="7">
         <v>6</v>
@@ -5277,28 +5328,28 @@
         <v>128</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>106</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>158</v>
@@ -5316,16 +5367,16 @@
     <row r="26" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="10"/>
       <c r="B26" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>7</v>
@@ -5346,16 +5397,16 @@
         <v>7</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -5394,7 +5445,7 @@
     </row>
     <row r="29" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B29" s="15" t="str">
         <f>IF(B3="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B3,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B3,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B3,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B3,keycodes!$B:$B,0),0)))</f>
@@ -5632,7 +5683,7 @@
     </row>
     <row r="33" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B33" s="15" t="str">
         <f>IF(B7="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B7,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B7,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B7,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B7,keycodes!$B:$B,0),0)))</f>
@@ -5870,7 +5921,7 @@
     </row>
     <row r="37" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B37" s="15" t="str">
         <f>IF(B11="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B11,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B11,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B11,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B11,keycodes!$B:$B,0),0)))</f>
@@ -6108,7 +6159,7 @@
     </row>
     <row r="41" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B41" s="15" t="str">
         <f>IF(B15="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B15,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B15,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B15,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B15,keycodes!$B:$B,0),0)))</f>
@@ -6346,7 +6397,7 @@
     </row>
     <row r="45" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B45" s="15" t="str">
         <f>IF(B19="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B19,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B19,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B19,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B19,keycodes!$B:$B,0),0)))</f>
@@ -6584,7 +6635,7 @@
     </row>
     <row r="49" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B49" s="15" t="str">
         <f>IF(B23="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(B23,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(B23,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(B23,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(B23,keycodes!$B:$B,0),0)))</f>
@@ -6714,11 +6765,11 @@
       </c>
       <c r="D51" s="18" t="str">
         <f>IF(D25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D25,keycodes!$B:$B,0),0)))</f>
-        <v>MS_WHLL</v>
+        <v>KC_VOLD</v>
       </c>
       <c r="E51" s="18" t="str">
         <f>IF(E25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E25,keycodes!$B:$B,0),0)))</f>
-        <v>MS_WHLR</v>
+        <v>KC_VOLU</v>
       </c>
       <c r="F51" s="18" t="str">
         <f>IF(F25="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F25,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F25,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F25,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F25,keycodes!$B:$B,0),0)))</f>
@@ -6856,1429 +6907,1429 @@
     </row>
     <row r="55" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B55" s="15" t="str">
-        <f t="shared" ref="B55:B78" si="0">IF(B29="TERM","",IF(B29="NONE",REPT(" ",12),REPT(" ",10-LEN(B29))&amp;B29))&amp;IF(OR(B29="TERM",B29="NONE"),"",IF(C29="TERM","",IF(C29="",",",", ")))</f>
+        <f>IF(B29="TERM","",IF(B29="NONE",REPT(" ",12),REPT(" ",10-LEN(B29))&amp;B29))&amp;IF(OR(B29="TERM",B29="NONE"),"",IF(C29="TERM","",IF(C29="",",",", ")))</f>
         <v xml:space="preserve">    KC_ESC, </v>
       </c>
       <c r="C55" s="15" t="str">
-        <f t="shared" ref="C55:O55" si="1">IF(C29="TERM","",IF(C29="NONE",REPT(" ",12),REPT(" ",10-LEN(C29))&amp;C29))&amp;IF(OR(C29="TERM",C29="NONE"),"",IF(D29="TERM","",IF(D29="",",",", ")))</f>
+        <f t="shared" ref="C55:O55" si="0">IF(C29="TERM","",IF(C29="NONE",REPT(" ",12),REPT(" ",10-LEN(C29))&amp;C29))&amp;IF(OR(C29="TERM",C29="NONE"),"",IF(D29="TERM","",IF(D29="",",",", ")))</f>
         <v xml:space="preserve">      KC_Q, </v>
       </c>
       <c r="D55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      KC_W, </v>
       </c>
       <c r="E55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      KC_E, </v>
       </c>
       <c r="F55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      KC_R, </v>
       </c>
       <c r="G55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      KC_T, </v>
       </c>
       <c r="H55" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I55" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      KC_Y, </v>
       </c>
       <c r="K55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      KC_U, </v>
       </c>
       <c r="L55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      KC_I, </v>
       </c>
       <c r="M55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      KC_O, </v>
       </c>
       <c r="N55" s="15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">      KC_P, </v>
       </c>
       <c r="O55" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">   KC_LBRC,</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6"/>
       <c r="B56" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B56:O56" si="1">IF(B30="TERM","",IF(B30="NONE",REPT(" ",12),REPT(" ",10-LEN(B30))&amp;B30))&amp;IF(OR(B30="TERM",B30="NONE"),"",IF(C30="TERM","",IF(C30="",",",", ")))</f>
         <v xml:space="preserve">    KC_TAB, </v>
       </c>
       <c r="C56" s="18" t="str">
-        <f t="shared" ref="C56:O56" si="2">IF(C30="TERM","",IF(C30="NONE",REPT(" ",12),REPT(" ",10-LEN(C30))&amp;C30))&amp;IF(OR(C30="TERM",C30="NONE"),"",IF(D30="TERM","",IF(D30="",",",", ")))</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      KC_A, </v>
       </c>
       <c r="D56" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      KC_S, </v>
       </c>
       <c r="E56" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      KC_D, </v>
       </c>
       <c r="F56" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      KC_F, </v>
       </c>
       <c r="G56" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      KC_G, </v>
       </c>
       <c r="H56" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I56" s="19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J56" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      KC_H, </v>
       </c>
       <c r="K56" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      KC_J, </v>
       </c>
       <c r="L56" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      KC_K, </v>
       </c>
       <c r="M56" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">      KC_L, </v>
       </c>
       <c r="N56" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">   KC_SCLN, </v>
       </c>
       <c r="O56" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">   KC_QUOT,</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6"/>
       <c r="B57" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B57:O57" si="2">IF(B31="TERM","",IF(B31="NONE",REPT(" ",12),REPT(" ",10-LEN(B31))&amp;B31))&amp;IF(OR(B31="TERM",B31="NONE"),"",IF(C31="TERM","",IF(C31="",",",", ")))</f>
         <v xml:space="preserve">   KC_LCTL, </v>
       </c>
       <c r="C57" s="18" t="str">
-        <f t="shared" ref="C57:O57" si="3">IF(C31="TERM","",IF(C31="NONE",REPT(" ",12),REPT(" ",10-LEN(C31))&amp;C31))&amp;IF(OR(C31="TERM",C31="NONE"),"",IF(D31="TERM","",IF(D31="",",",", ")))</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">      KC_Z, </v>
       </c>
       <c r="D57" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">      KC_X, </v>
       </c>
       <c r="E57" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">      KC_C, </v>
       </c>
       <c r="F57" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">      KC_V, </v>
       </c>
       <c r="G57" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">      KC_B, </v>
       </c>
       <c r="H57" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I57" s="19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J57" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">      KC_N, </v>
       </c>
       <c r="K57" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">      KC_M, </v>
       </c>
       <c r="L57" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   KC_COMM, </v>
       </c>
       <c r="M57" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">    KC_DOT, </v>
       </c>
       <c r="N57" s="18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   KC_SLSH, </v>
       </c>
       <c r="O57" s="20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">   KC_INT1,</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B58:O58" si="3">IF(B32="TERM","",IF(B32="NONE",REPT(" ",12),REPT(" ",10-LEN(B32))&amp;B32))&amp;IF(OR(B32="TERM",B32="NONE"),"",IF(C32="TERM","",IF(C32="",",",", ")))</f>
         <v xml:space="preserve">            </v>
       </c>
       <c r="C58" s="21" t="str">
-        <f t="shared" ref="C58:O58" si="4">IF(C32="TERM","",IF(C32="NONE",REPT(" ",12),REPT(" ",10-LEN(C32))&amp;C32))&amp;IF(OR(C32="TERM",C32="NONE"),"",IF(D32="TERM","",IF(D32="",",",", ")))</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="D58" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E58" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F58" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      TG_R, </v>
+      </c>
+      <c r="G58" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      MO_R, </v>
+      </c>
+      <c r="H58" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  LSFT_SPC, </v>
+      </c>
+      <c r="I58" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">  RSTF_ENT, </v>
+      </c>
+      <c r="J58" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      MO_L, </v>
+      </c>
+      <c r="K58" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">      TG_L</v>
+      </c>
+      <c r="L58" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="M58" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N58" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="O58" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="15" t="str">
+        <f t="shared" ref="B59:O59" si="4">IF(B33="TERM","",IF(B33="NONE",REPT(" ",12),REPT(" ",10-LEN(B33))&amp;B33))&amp;IF(OR(B33="TERM",B33="NONE"),"",IF(C33="TERM","",IF(C33="",",",", ")))</f>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="C59" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   S(KC_1), </v>
+      </c>
+      <c r="D59" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   S(KC_2), </v>
+      </c>
+      <c r="E59" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   S(KC_3), </v>
+      </c>
+      <c r="F59" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   S(KC_4), </v>
+      </c>
+      <c r="G59" s="15" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">   S(KC_5), </v>
+      </c>
+      <c r="H59" s="16" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="E58" s="21" t="str">
+      <c r="I59" s="16" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="F58" s="22" t="str">
+      <c r="J59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      TG_R, </v>
-      </c>
-      <c r="G58" s="22" t="str">
+        <v xml:space="preserve">   S(KC_6), </v>
+      </c>
+      <c r="K59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      MO_R, </v>
-      </c>
-      <c r="H58" s="22" t="str">
+        <v xml:space="preserve">   S(KC_7), </v>
+      </c>
+      <c r="L59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  LSFT_SPC, </v>
-      </c>
-      <c r="I58" s="22" t="str">
+        <v xml:space="preserve">   S(KC_8), </v>
+      </c>
+      <c r="M59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">  RSTF_ENT, </v>
-      </c>
-      <c r="J58" s="22" t="str">
+        <v xml:space="preserve">   S(KC_9), </v>
+      </c>
+      <c r="N59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      MO_L, </v>
-      </c>
-      <c r="K58" s="22" t="str">
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="O59" s="17" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">      TG_L</v>
-      </c>
-      <c r="L58" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M58" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N58" s="21" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O58" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B59" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="C59" s="15" t="str">
-        <f t="shared" ref="C59:O59" si="5">IF(C33="TERM","",IF(C33="NONE",REPT(" ",12),REPT(" ",10-LEN(C33))&amp;C33))&amp;IF(OR(C33="TERM",C33="NONE"),"",IF(D33="TERM","",IF(D33="",",",", ")))</f>
-        <v xml:space="preserve">   S(KC_1), </v>
-      </c>
-      <c r="D59" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   S(KC_2), </v>
-      </c>
-      <c r="E59" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   S(KC_3), </v>
-      </c>
-      <c r="F59" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   S(KC_4), </v>
-      </c>
-      <c r="G59" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   S(KC_5), </v>
-      </c>
-      <c r="H59" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I59" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J59" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   S(KC_6), </v>
-      </c>
-      <c r="K59" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   S(KC_7), </v>
-      </c>
-      <c r="L59" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   S(KC_8), </v>
-      </c>
-      <c r="M59" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   S(KC_9), </v>
-      </c>
-      <c r="N59" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="O59" s="17" t="str">
-        <f t="shared" si="5"/>
         <v xml:space="preserve">   XXXXXXX,</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="6"/>
       <c r="B60" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B60:O60" si="5">IF(B34="TERM","",IF(B34="NONE",REPT(" ",12),REPT(" ",10-LEN(B34))&amp;B34))&amp;IF(OR(B34="TERM",B34="NONE"),"",IF(C34="TERM","",IF(C34="",",",", ")))</f>
         <v xml:space="preserve">   XXXXXXX, </v>
       </c>
       <c r="C60" s="18" t="str">
-        <f t="shared" ref="C60:O60" si="6">IF(C34="TERM","",IF(C34="NONE",REPT(" ",12),REPT(" ",10-LEN(C34))&amp;C34))&amp;IF(OR(C34="TERM",C34="NONE"),"",IF(D34="TERM","",IF(D34="",",",", ")))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   XXXXXXX, </v>
       </c>
       <c r="D60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   KC_HOME, </v>
       </c>
       <c r="E60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   KC_PGUP, </v>
       </c>
       <c r="F60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   KC_PGDN, </v>
       </c>
       <c r="G60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    KC_END, </v>
       </c>
       <c r="H60" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I60" s="19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   KC_LEFT, </v>
       </c>
       <c r="K60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   KC_DOWN, </v>
       </c>
       <c r="L60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">     KC_UP, </v>
       </c>
       <c r="M60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   KC_RGHT, </v>
       </c>
       <c r="N60" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">    KC_EQL, </v>
       </c>
       <c r="O60" s="20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">   KC_MINS,</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6"/>
       <c r="B61" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B61:O61" si="6">IF(B35="TERM","",IF(B35="NONE",REPT(" ",12),REPT(" ",10-LEN(B35))&amp;B35))&amp;IF(OR(B35="TERM",B35="NONE"),"",IF(C35="TERM","",IF(C35="",",",", ")))</f>
         <v xml:space="preserve">   KC_LCTL, </v>
       </c>
       <c r="C61" s="18" t="str">
-        <f t="shared" ref="C61:O61" si="7">IF(C35="TERM","",IF(C35="NONE",REPT(" ",12),REPT(" ",10-LEN(C35))&amp;C35))&amp;IF(OR(C35="TERM",C35="NONE"),"",IF(D35="TERM","",IF(D35="",",",", ")))</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   KC_LALT, </v>
       </c>
       <c r="D61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   XXXXXXX, </v>
       </c>
       <c r="E61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   XXXXXXX, </v>
       </c>
       <c r="F61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   KC_INT5, </v>
       </c>
       <c r="G61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   KC_BSPC, </v>
       </c>
       <c r="H61" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I61" s="19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">    KC_DEL, </v>
       </c>
       <c r="K61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   KC_INT4, </v>
       </c>
       <c r="L61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   KC_RBRC, </v>
       </c>
       <c r="M61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">   KC_BSLS, </v>
       </c>
       <c r="N61" s="18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve"> S(KC_EQL), </v>
       </c>
       <c r="O61" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>S(KC_INT3),</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B62:O62" si="7">IF(B36="TERM","",IF(B36="NONE",REPT(" ",12),REPT(" ",10-LEN(B36))&amp;B36))&amp;IF(OR(B36="TERM",B36="NONE"),"",IF(C36="TERM","",IF(C36="",",",", ")))</f>
         <v xml:space="preserve">            </v>
       </c>
       <c r="C62" s="21" t="str">
-        <f t="shared" ref="C62:O62" si="8">IF(C36="TERM","",IF(C36="NONE",REPT(" ",12),REPT(" ",10-LEN(C36))&amp;C36))&amp;IF(OR(C36="TERM",C36="NONE"),"",IF(D36="TERM","",IF(D36="",",",", ")))</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="D62" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E62" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F62" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="G62" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="H62" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="I62" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="J62" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="K62" s="22" t="str">
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">   _______</v>
+      </c>
+      <c r="L62" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M62" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N62" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O62" s="23" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="15" t="str">
+        <f t="shared" ref="B63:O63" si="8">IF(B37="TERM","",IF(B37="NONE",REPT(" ",12),REPT(" ",10-LEN(B37))&amp;B37))&amp;IF(OR(B37="TERM",B37="NONE"),"",IF(C37="TERM","",IF(C37="",",",", ")))</f>
+        <v xml:space="preserve">     KC_F1, </v>
+      </c>
+      <c r="C63" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">     KC_F2, </v>
+      </c>
+      <c r="D63" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">     KC_F3, </v>
+      </c>
+      <c r="E63" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">     KC_F4, </v>
+      </c>
+      <c r="F63" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">     KC_F5, </v>
+      </c>
+      <c r="G63" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">     KC_F6, </v>
+      </c>
+      <c r="H63" s="16" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="E62" s="21" t="str">
+      <c r="I63" s="16" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="F62" s="22" t="str">
+      <c r="J63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="G62" s="22" t="str">
+        <v xml:space="preserve">     KC_F7, </v>
+      </c>
+      <c r="K63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="H62" s="22" t="str">
+        <v xml:space="preserve">     KC_F8, </v>
+      </c>
+      <c r="L63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="I62" s="22" t="str">
+        <v xml:space="preserve">     KC_F9, </v>
+      </c>
+      <c r="M63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="J62" s="22" t="str">
+        <v xml:space="preserve">    KC_F10, </v>
+      </c>
+      <c r="N63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="K62" s="22" t="str">
+        <v xml:space="preserve">    KC_F11, </v>
+      </c>
+      <c r="O63" s="17" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">   _______</v>
-      </c>
-      <c r="L62" s="21" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M62" s="21" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N62" s="21" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="O62" s="23" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B63" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">     KC_F1, </v>
-      </c>
-      <c r="C63" s="15" t="str">
-        <f t="shared" ref="C63:O63" si="9">IF(C37="TERM","",IF(C37="NONE",REPT(" ",12),REPT(" ",10-LEN(C37))&amp;C37))&amp;IF(OR(C37="TERM",C37="NONE"),"",IF(D37="TERM","",IF(D37="",",",", ")))</f>
-        <v xml:space="preserve">     KC_F2, </v>
-      </c>
-      <c r="D63" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">     KC_F3, </v>
-      </c>
-      <c r="E63" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">     KC_F4, </v>
-      </c>
-      <c r="F63" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">     KC_F5, </v>
-      </c>
-      <c r="G63" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">     KC_F6, </v>
-      </c>
-      <c r="H63" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I63" s="16" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J63" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">     KC_F7, </v>
-      </c>
-      <c r="K63" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">     KC_F8, </v>
-      </c>
-      <c r="L63" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">     KC_F9, </v>
-      </c>
-      <c r="M63" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">    KC_F10, </v>
-      </c>
-      <c r="N63" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">    KC_F11, </v>
-      </c>
-      <c r="O63" s="17" t="str">
-        <f t="shared" si="9"/>
         <v xml:space="preserve">    KC_F12,</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6"/>
       <c r="B64" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B64:O64" si="9">IF(B38="TERM","",IF(B38="NONE",REPT(" ",12),REPT(" ",10-LEN(B38))&amp;B38))&amp;IF(OR(B38="TERM",B38="NONE"),"",IF(C38="TERM","",IF(C38="",",",", ")))</f>
         <v xml:space="preserve">   KC_LNG5, </v>
       </c>
       <c r="C64" s="18" t="str">
-        <f t="shared" ref="C64:O64" si="10">IF(C38="TERM","",IF(C38="NONE",REPT(" ",12),REPT(" ",10-LEN(C38))&amp;C38))&amp;IF(OR(C38="TERM",C38="NONE"),"",IF(D38="TERM","",IF(D38="",",",", ")))</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_1, </v>
       </c>
       <c r="D64" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_2, </v>
       </c>
       <c r="E64" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_3, </v>
       </c>
       <c r="F64" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_4, </v>
       </c>
       <c r="G64" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_5, </v>
       </c>
       <c r="H64" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I64" s="19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J64" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_6, </v>
       </c>
       <c r="K64" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_7, </v>
       </c>
       <c r="L64" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_8, </v>
       </c>
       <c r="M64" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_9, </v>
       </c>
       <c r="N64" s="18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">      KC_0, </v>
       </c>
       <c r="O64" s="20" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">   KC_MINS,</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6"/>
       <c r="B65" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B65:O65" si="10">IF(B39="TERM","",IF(B39="NONE",REPT(" ",12),REPT(" ",10-LEN(B39))&amp;B39))&amp;IF(OR(B39="TERM",B39="NONE"),"",IF(C39="TERM","",IF(C39="",",",", ")))</f>
         <v xml:space="preserve">   KC_LCTL, </v>
       </c>
       <c r="C65" s="18" t="str">
-        <f t="shared" ref="C65:O65" si="11">IF(C39="TERM","",IF(C39="NONE",REPT(" ",12),REPT(" ",10-LEN(C39))&amp;C39))&amp;IF(OR(C39="TERM",C39="NONE"),"",IF(D39="TERM","",IF(D39="",",",", ")))</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   KC_LALT, </v>
       </c>
       <c r="D65" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   MS_WHLL, </v>
       </c>
       <c r="E65" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   MS_WHLR, </v>
       </c>
       <c r="F65" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   KC_INT5, </v>
       </c>
       <c r="G65" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   KC_BSPC, </v>
       </c>
       <c r="H65" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I65" s="19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J65" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    KC_DEL, </v>
       </c>
       <c r="K65" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   KC_INT4, </v>
       </c>
       <c r="L65" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   KC_COMM, </v>
       </c>
       <c r="M65" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">    KC_DOT, </v>
       </c>
       <c r="N65" s="18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   KC_SLSH, </v>
       </c>
       <c r="O65" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">   KC_INT1,</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B66:O66" si="11">IF(B40="TERM","",IF(B40="NONE",REPT(" ",12),REPT(" ",10-LEN(B40))&amp;B40))&amp;IF(OR(B40="TERM",B40="NONE"),"",IF(C40="TERM","",IF(C40="",",",", ")))</f>
         <v xml:space="preserve">            </v>
       </c>
       <c r="C66" s="21" t="str">
-        <f t="shared" ref="C66:O66" si="12">IF(C40="TERM","",IF(C40="NONE",REPT(" ",12),REPT(" ",10-LEN(C40))&amp;C40))&amp;IF(OR(C40="TERM",C40="NONE"),"",IF(D40="TERM","",IF(D40="",",",", ")))</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="D66" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E66" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F66" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="G66" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="H66" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="I66" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="J66" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="K66" s="22" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">   _______</v>
+      </c>
+      <c r="L66" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M66" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N66" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O66" s="23" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B67" s="15" t="str">
+        <f t="shared" ref="B67:O67" si="12">IF(B41="TERM","",IF(B41="NONE",REPT(" ",12),REPT(" ",10-LEN(B41))&amp;B41))&amp;IF(OR(B41="TERM",B41="NONE"),"",IF(C41="TERM","",IF(C41="",",",", ")))</f>
+        <v xml:space="preserve">    KC_ESC, </v>
+      </c>
+      <c r="C67" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">      KC_Q, </v>
+      </c>
+      <c r="D67" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">      KC_W, </v>
+      </c>
+      <c r="E67" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">      KC_E, </v>
+      </c>
+      <c r="F67" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">      KC_R, </v>
+      </c>
+      <c r="G67" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">      KC_T, </v>
+      </c>
+      <c r="H67" s="16" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="E66" s="21" t="str">
+      <c r="I67" s="16" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="F66" s="22" t="str">
+      <c r="J67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="G66" s="22" t="str">
+        <v xml:space="preserve">      KC_Y, </v>
+      </c>
+      <c r="K67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="H66" s="22" t="str">
+        <v xml:space="preserve">      KC_U, </v>
+      </c>
+      <c r="L67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="I66" s="22" t="str">
+        <v xml:space="preserve">      KC_I, </v>
+      </c>
+      <c r="M67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="J66" s="22" t="str">
+        <v xml:space="preserve">      KC_O, </v>
+      </c>
+      <c r="N67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="K66" s="22" t="str">
+        <v xml:space="preserve">      KC_P, </v>
+      </c>
+      <c r="O67" s="17" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">   _______</v>
-      </c>
-      <c r="L66" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M66" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="N66" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O66" s="23" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B67" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">    KC_ESC, </v>
-      </c>
-      <c r="C67" s="15" t="str">
-        <f t="shared" ref="C67:O67" si="13">IF(C41="TERM","",IF(C41="NONE",REPT(" ",12),REPT(" ",10-LEN(C41))&amp;C41))&amp;IF(OR(C41="TERM",C41="NONE"),"",IF(D41="TERM","",IF(D41="",",",", ")))</f>
-        <v xml:space="preserve">      KC_Q, </v>
-      </c>
-      <c r="D67" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_W, </v>
-      </c>
-      <c r="E67" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_E, </v>
-      </c>
-      <c r="F67" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_R, </v>
-      </c>
-      <c r="G67" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_T, </v>
-      </c>
-      <c r="H67" s="16" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I67" s="16" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J67" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_Y, </v>
-      </c>
-      <c r="K67" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_U, </v>
-      </c>
-      <c r="L67" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_I, </v>
-      </c>
-      <c r="M67" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_O, </v>
-      </c>
-      <c r="N67" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_P, </v>
-      </c>
-      <c r="O67" s="17" t="str">
-        <f t="shared" si="13"/>
         <v xml:space="preserve">   KC_LBRC,</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6"/>
       <c r="B68" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B68:O68" si="13">IF(B42="TERM","",IF(B42="NONE",REPT(" ",12),REPT(" ",10-LEN(B42))&amp;B42))&amp;IF(OR(B42="TERM",B42="NONE"),"",IF(C42="TERM","",IF(C42="",",",", ")))</f>
         <v xml:space="preserve">    KC_TAB, </v>
       </c>
       <c r="C68" s="18" t="str">
-        <f t="shared" ref="C68:O68" si="14">IF(C42="TERM","",IF(C42="NONE",REPT(" ",12),REPT(" ",10-LEN(C42))&amp;C42))&amp;IF(OR(C42="TERM",C42="NONE"),"",IF(D42="TERM","",IF(D42="",",",", ")))</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">      KC_A, </v>
       </c>
       <c r="D68" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">      KC_S, </v>
       </c>
       <c r="E68" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">      KC_D, </v>
       </c>
       <c r="F68" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">      KC_F, </v>
       </c>
       <c r="G68" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">      KC_G, </v>
       </c>
       <c r="H68" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I68" s="19" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J68" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">      KC_H, </v>
       </c>
       <c r="K68" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">      KC_J, </v>
       </c>
       <c r="L68" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">      KC_K, </v>
       </c>
       <c r="M68" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">      KC_L, </v>
       </c>
       <c r="N68" s="18" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">   KC_SCLN, </v>
       </c>
       <c r="O68" s="20" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">   KC_QUOT,</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
       <c r="B69" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B69:O69" si="14">IF(B43="TERM","",IF(B43="NONE",REPT(" ",12),REPT(" ",10-LEN(B43))&amp;B43))&amp;IF(OR(B43="TERM",B43="NONE"),"",IF(C43="TERM","",IF(C43="",",",", ")))</f>
         <v xml:space="preserve">   KC_LCTL, </v>
       </c>
       <c r="C69" s="18" t="str">
-        <f t="shared" ref="C69:O69" si="15">IF(C43="TERM","",IF(C43="NONE",REPT(" ",12),REPT(" ",10-LEN(C43))&amp;C43))&amp;IF(OR(C43="TERM",C43="NONE"),"",IF(D43="TERM","",IF(D43="",",",", ")))</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">      KC_Z, </v>
       </c>
       <c r="D69" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">      KC_X, </v>
       </c>
       <c r="E69" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">      KC_C, </v>
       </c>
       <c r="F69" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">      KC_V, </v>
       </c>
       <c r="G69" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">      KC_B, </v>
       </c>
       <c r="H69" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I69" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J69" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">      KC_N, </v>
       </c>
       <c r="K69" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">      KC_M, </v>
       </c>
       <c r="L69" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">   KC_COMM, </v>
       </c>
       <c r="M69" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">    KC_DOT, </v>
       </c>
       <c r="N69" s="18" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">   KC_SLSH, </v>
       </c>
       <c r="O69" s="20" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">   KC_INT1,</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="10"/>
       <c r="B70" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B70:O70" si="15">IF(B44="TERM","",IF(B44="NONE",REPT(" ",12),REPT(" ",10-LEN(B44))&amp;B44))&amp;IF(OR(B44="TERM",B44="NONE"),"",IF(C44="TERM","",IF(C44="",",",", ")))</f>
         <v xml:space="preserve">            </v>
       </c>
       <c r="C70" s="21" t="str">
-        <f t="shared" ref="C70:O70" si="16">IF(C44="TERM","",IF(C44="NONE",REPT(" ",12),REPT(" ",10-LEN(C44))&amp;C44))&amp;IF(OR(C44="TERM",C44="NONE"),"",IF(D44="TERM","",IF(D44="",",",", ")))</f>
+        <f t="shared" si="15"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="D70" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E70" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F70" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">      TG_R, </v>
+      </c>
+      <c r="G70" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    KC_SPC, </v>
+      </c>
+      <c r="H70" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">     MO_RA, </v>
+      </c>
+      <c r="I70" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">     MO_LA, </v>
+      </c>
+      <c r="J70" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">    KC_ENT, </v>
+      </c>
+      <c r="K70" s="22" t="str">
+        <f t="shared" si="15"/>
+        <v xml:space="preserve">      TG_L</v>
+      </c>
+      <c r="L70" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M70" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N70" s="21" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O70" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="15" t="str">
+        <f t="shared" ref="B71:O71" si="16">IF(B45="TERM","",IF(B45="NONE",REPT(" ",12),REPT(" ",10-LEN(B45))&amp;B45))&amp;IF(OR(B45="TERM",B45="NONE"),"",IF(C45="TERM","",IF(C45="",",",", ")))</f>
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="C71" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">   S(KC_1), </v>
+      </c>
+      <c r="D71" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">   S(KC_2), </v>
+      </c>
+      <c r="E71" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">   S(KC_3), </v>
+      </c>
+      <c r="F71" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">   S(KC_4), </v>
+      </c>
+      <c r="G71" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v xml:space="preserve">   S(KC_5), </v>
+      </c>
+      <c r="H71" s="16" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="E70" s="21" t="str">
+      <c r="I71" s="16" t="str">
         <f t="shared" si="16"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="F70" s="22" t="str">
+      <c r="J71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">      TG_R, </v>
-      </c>
-      <c r="G70" s="22" t="str">
+        <v xml:space="preserve">   S(KC_6), </v>
+      </c>
+      <c r="K71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">    KC_SPC, </v>
-      </c>
-      <c r="H70" s="22" t="str">
+        <v xml:space="preserve">   S(KC_7), </v>
+      </c>
+      <c r="L71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">     MO_RA, </v>
-      </c>
-      <c r="I70" s="22" t="str">
+        <v xml:space="preserve">   S(KC_8), </v>
+      </c>
+      <c r="M71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">     MO_LA, </v>
-      </c>
-      <c r="J70" s="22" t="str">
+        <v xml:space="preserve">   S(KC_9), </v>
+      </c>
+      <c r="N71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">    KC_ENT, </v>
-      </c>
-      <c r="K70" s="22" t="str">
+        <v xml:space="preserve">   XXXXXXX, </v>
+      </c>
+      <c r="O71" s="17" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">      TG_L</v>
-      </c>
-      <c r="L70" s="21" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M70" s="21" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N70" s="21" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="O70" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B71" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="C71" s="15" t="str">
-        <f t="shared" ref="C71:O71" si="17">IF(C45="TERM","",IF(C45="NONE",REPT(" ",12),REPT(" ",10-LEN(C45))&amp;C45))&amp;IF(OR(C45="TERM",C45="NONE"),"",IF(D45="TERM","",IF(D45="",",",", ")))</f>
-        <v xml:space="preserve">   S(KC_1), </v>
-      </c>
-      <c r="D71" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">   S(KC_2), </v>
-      </c>
-      <c r="E71" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">   S(KC_3), </v>
-      </c>
-      <c r="F71" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">   S(KC_4), </v>
-      </c>
-      <c r="G71" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">   S(KC_5), </v>
-      </c>
-      <c r="H71" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I71" s="16" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J71" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">   S(KC_6), </v>
-      </c>
-      <c r="K71" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">   S(KC_7), </v>
-      </c>
-      <c r="L71" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">   S(KC_8), </v>
-      </c>
-      <c r="M71" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">   S(KC_9), </v>
-      </c>
-      <c r="N71" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
-      </c>
-      <c r="O71" s="17" t="str">
-        <f t="shared" si="17"/>
         <v xml:space="preserve">   XXXXXXX,</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6"/>
       <c r="B72" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B72:O72" si="17">IF(B46="TERM","",IF(B46="NONE",REPT(" ",12),REPT(" ",10-LEN(B46))&amp;B46))&amp;IF(OR(B46="TERM",B46="NONE"),"",IF(C46="TERM","",IF(C46="",",",", ")))</f>
         <v xml:space="preserve">   XXXXXXX, </v>
       </c>
       <c r="C72" s="18" t="str">
-        <f t="shared" ref="C72:O72" si="18">IF(C46="TERM","",IF(C46="NONE",REPT(" ",12),REPT(" ",10-LEN(C46))&amp;C46))&amp;IF(OR(C46="TERM",C46="NONE"),"",IF(D46="TERM","",IF(D46="",",",", ")))</f>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">   XXXXXXX, </v>
       </c>
       <c r="D72" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">   KC_HOME, </v>
       </c>
       <c r="E72" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">   KC_PGUP, </v>
       </c>
       <c r="F72" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">   KC_PGDN, </v>
       </c>
       <c r="G72" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    KC_END, </v>
       </c>
       <c r="H72" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I72" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J72" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">   KC_LEFT, </v>
       </c>
       <c r="K72" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">   KC_DOWN, </v>
       </c>
       <c r="L72" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">     KC_UP, </v>
       </c>
       <c r="M72" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">   KC_RGHT, </v>
       </c>
       <c r="N72" s="18" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">    KC_EQL, </v>
       </c>
       <c r="O72" s="20" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">   KC_MINS,</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
       <c r="B73" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B73:O73" si="18">IF(B47="TERM","",IF(B47="NONE",REPT(" ",12),REPT(" ",10-LEN(B47))&amp;B47))&amp;IF(OR(B47="TERM",B47="NONE"),"",IF(C47="TERM","",IF(C47="",",",", ")))</f>
         <v xml:space="preserve">   KC_LCTL, </v>
       </c>
       <c r="C73" s="18" t="str">
-        <f t="shared" ref="C73:O73" si="19">IF(C47="TERM","",IF(C47="NONE",REPT(" ",12),REPT(" ",10-LEN(C47))&amp;C47))&amp;IF(OR(C47="TERM",C47="NONE"),"",IF(D47="TERM","",IF(D47="",",",", ")))</f>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">   KC_LALT, </v>
       </c>
       <c r="D73" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">   XXXXXXX, </v>
       </c>
       <c r="E73" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">   XXXXXXX, </v>
       </c>
       <c r="F73" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">   KC_INT5, </v>
       </c>
       <c r="G73" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">   KC_BSPC, </v>
       </c>
       <c r="H73" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I73" s="19" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J73" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">    KC_DEL, </v>
       </c>
       <c r="K73" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">   KC_INT4, </v>
       </c>
       <c r="L73" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">   KC_RBRC, </v>
       </c>
       <c r="M73" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve">   KC_BSLS, </v>
       </c>
       <c r="N73" s="18" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v xml:space="preserve"> S(KC_EQL), </v>
       </c>
       <c r="O73" s="20" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>S(KC_INT3),</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="10"/>
       <c r="B74" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B74:O74" si="19">IF(B48="TERM","",IF(B48="NONE",REPT(" ",12),REPT(" ",10-LEN(B48))&amp;B48))&amp;IF(OR(B48="TERM",B48="NONE"),"",IF(C48="TERM","",IF(C48="",",",", ")))</f>
         <v xml:space="preserve">            </v>
       </c>
       <c r="C74" s="21" t="str">
-        <f t="shared" ref="C74:O74" si="20">IF(C48="TERM","",IF(C48="NONE",REPT(" ",12),REPT(" ",10-LEN(C48))&amp;C48))&amp;IF(OR(C48="TERM",C48="NONE"),"",IF(D48="TERM","",IF(D48="",",",", ")))</f>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="D74" s="21" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="E74" s="21" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">            </v>
+      </c>
+      <c r="F74" s="22" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="G74" s="22" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="H74" s="22" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="I74" s="22" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="J74" s="22" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   _______, </v>
+      </c>
+      <c r="K74" s="22" t="str">
+        <f t="shared" si="19"/>
+        <v xml:space="preserve">   _______</v>
+      </c>
+      <c r="L74" s="21" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M74" s="21" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N74" s="21" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="O74" s="23" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B75" s="15" t="str">
+        <f t="shared" ref="B75:O75" si="20">IF(B49="TERM","",IF(B49="NONE",REPT(" ",12),REPT(" ",10-LEN(B49))&amp;B49))&amp;IF(OR(B49="TERM",B49="NONE"),"",IF(C49="TERM","",IF(C49="",",",", ")))</f>
+        <v xml:space="preserve">     KC_F1, </v>
+      </c>
+      <c r="C75" s="15" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">     KC_F2, </v>
+      </c>
+      <c r="D75" s="15" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">     KC_F3, </v>
+      </c>
+      <c r="E75" s="15" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">     KC_F4, </v>
+      </c>
+      <c r="F75" s="15" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">     KC_F5, </v>
+      </c>
+      <c r="G75" s="15" t="str">
+        <f t="shared" si="20"/>
+        <v xml:space="preserve">     KC_F6, </v>
+      </c>
+      <c r="H75" s="16" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="E74" s="21" t="str">
+      <c r="I75" s="16" t="str">
         <f t="shared" si="20"/>
         <v xml:space="preserve">            </v>
       </c>
-      <c r="F74" s="22" t="str">
+      <c r="J75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="G74" s="22" t="str">
+        <v xml:space="preserve">     KC_F7, </v>
+      </c>
+      <c r="K75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="H74" s="22" t="str">
+        <v xml:space="preserve">     KC_F8, </v>
+      </c>
+      <c r="L75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="I74" s="22" t="str">
+        <v xml:space="preserve">     KC_F9, </v>
+      </c>
+      <c r="M75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="J74" s="22" t="str">
+        <v xml:space="preserve">    KC_F10, </v>
+      </c>
+      <c r="N75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">   _______, </v>
-      </c>
-      <c r="K74" s="22" t="str">
+        <v xml:space="preserve">    KC_F11, </v>
+      </c>
+      <c r="O75" s="17" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">   _______</v>
-      </c>
-      <c r="L74" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M74" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N74" s="21" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O74" s="23" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B75" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">     KC_F1, </v>
-      </c>
-      <c r="C75" s="15" t="str">
-        <f t="shared" ref="C75:O75" si="21">IF(C49="TERM","",IF(C49="NONE",REPT(" ",12),REPT(" ",10-LEN(C49))&amp;C49))&amp;IF(OR(C49="TERM",C49="NONE"),"",IF(D49="TERM","",IF(D49="",",",", ")))</f>
-        <v xml:space="preserve">     KC_F2, </v>
-      </c>
-      <c r="D75" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">     KC_F3, </v>
-      </c>
-      <c r="E75" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">     KC_F4, </v>
-      </c>
-      <c r="F75" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">     KC_F5, </v>
-      </c>
-      <c r="G75" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">     KC_F6, </v>
-      </c>
-      <c r="H75" s="16" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="I75" s="16" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">            </v>
-      </c>
-      <c r="J75" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">     KC_F7, </v>
-      </c>
-      <c r="K75" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">     KC_F8, </v>
-      </c>
-      <c r="L75" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">     KC_F9, </v>
-      </c>
-      <c r="M75" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">    KC_F10, </v>
-      </c>
-      <c r="N75" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v xml:space="preserve">    KC_F11, </v>
-      </c>
-      <c r="O75" s="17" t="str">
-        <f t="shared" si="21"/>
         <v xml:space="preserve">    KC_F12,</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
       <c r="B76" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B76:O76" si="21">IF(B50="TERM","",IF(B50="NONE",REPT(" ",12),REPT(" ",10-LEN(B50))&amp;B50))&amp;IF(OR(B50="TERM",B50="NONE"),"",IF(C50="TERM","",IF(C50="",",",", ")))</f>
         <v xml:space="preserve">   KC_LNG5, </v>
       </c>
       <c r="C76" s="18" t="str">
-        <f t="shared" ref="C76:O76" si="22">IF(C50="TERM","",IF(C50="NONE",REPT(" ",12),REPT(" ",10-LEN(C50))&amp;C50))&amp;IF(OR(C50="TERM",C50="NONE"),"",IF(D50="TERM","",IF(D50="",",",", ")))</f>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_1, </v>
       </c>
       <c r="D76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_2, </v>
       </c>
       <c r="E76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_3, </v>
       </c>
       <c r="F76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_4, </v>
       </c>
       <c r="G76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_5, </v>
       </c>
       <c r="H76" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I76" s="19" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_6, </v>
       </c>
       <c r="K76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_7, </v>
       </c>
       <c r="L76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_8, </v>
       </c>
       <c r="M76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_9, </v>
       </c>
       <c r="N76" s="18" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">      KC_0, </v>
       </c>
       <c r="O76" s="20" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v xml:space="preserve">   KC_MINS,</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
       <c r="B77" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B77:O77" si="22">IF(B51="TERM","",IF(B51="NONE",REPT(" ",12),REPT(" ",10-LEN(B51))&amp;B51))&amp;IF(OR(B51="TERM",B51="NONE"),"",IF(C51="TERM","",IF(C51="",",",", ")))</f>
         <v xml:space="preserve">   KC_LCTL, </v>
       </c>
       <c r="C77" s="18" t="str">
-        <f t="shared" ref="C77:O77" si="23">IF(C51="TERM","",IF(C51="NONE",REPT(" ",12),REPT(" ",10-LEN(C51))&amp;C51))&amp;IF(OR(C51="TERM",C51="NONE"),"",IF(D51="TERM","",IF(D51="",",",", ")))</f>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">   KC_LALT, </v>
       </c>
       <c r="D77" s="18" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">   MS_WHLL, </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">   KC_VOLD, </v>
       </c>
       <c r="E77" s="18" t="str">
-        <f t="shared" si="23"/>
-        <v xml:space="preserve">   MS_WHLR, </v>
+        <f t="shared" si="22"/>
+        <v xml:space="preserve">   KC_VOLU, </v>
       </c>
       <c r="F77" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">   KC_INT5, </v>
       </c>
       <c r="G77" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">   KC_BSPC, </v>
       </c>
       <c r="H77" s="19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="I77" s="19" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="J77" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">    KC_DEL, </v>
       </c>
       <c r="K77" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">   KC_INT4, </v>
       </c>
       <c r="L77" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">   KC_COMM, </v>
       </c>
       <c r="M77" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">    KC_DOT, </v>
       </c>
       <c r="N77" s="18" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">   KC_SLSH, </v>
       </c>
       <c r="O77" s="20" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve">   KC_INT1,</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="10"/>
       <c r="B78" s="21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B78:O78" si="23">IF(B52="TERM","",IF(B52="NONE",REPT(" ",12),REPT(" ",10-LEN(B52))&amp;B52))&amp;IF(OR(B52="TERM",B52="NONE"),"",IF(C52="TERM","",IF(C52="",",",", ")))</f>
         <v xml:space="preserve">            </v>
       </c>
       <c r="C78" s="21" t="str">
-        <f t="shared" ref="C78:O78" si="24">IF(C52="TERM","",IF(C52="NONE",REPT(" ",12),REPT(" ",10-LEN(C52))&amp;C52))&amp;IF(OR(C52="TERM",C52="NONE"),"",IF(D52="TERM","",IF(D52="",",",", ")))</f>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="D78" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="E78" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">            </v>
       </c>
       <c r="F78" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">   _______, </v>
       </c>
       <c r="G78" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">   _______, </v>
       </c>
       <c r="H78" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">   _______, </v>
       </c>
       <c r="I78" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">   _______, </v>
       </c>
       <c r="J78" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">   _______, </v>
       </c>
       <c r="K78" s="22" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v xml:space="preserve">   _______</v>
       </c>
       <c r="L78" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M78" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N78" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O78" s="23" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -8319,7 +8370,7 @@
     <row r="81" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
       <c r="B81" s="24" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
@@ -8337,7 +8388,7 @@
     </row>
     <row r="82" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B82" s="26" t="str">
         <f>B55&amp;C55&amp;D55&amp;E55&amp;F55&amp;G55&amp;H55&amp;I55&amp;J55&amp;K55&amp;L55&amp;M55&amp;N55&amp;O55</f>
@@ -8360,7 +8411,7 @@
     <row r="83" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="6"/>
       <c r="B83" s="26" t="str">
-        <f t="shared" ref="B83:B85" si="25">B56&amp;C56&amp;D56&amp;E56&amp;F56&amp;G56&amp;H56&amp;I56&amp;J56&amp;K56&amp;L56&amp;M56&amp;N56&amp;O56</f>
+        <f t="shared" ref="B83:B85" si="24">B56&amp;C56&amp;D56&amp;E56&amp;F56&amp;G56&amp;H56&amp;I56&amp;J56&amp;K56&amp;L56&amp;M56&amp;N56&amp;O56</f>
         <v xml:space="preserve">    KC_TAB,       KC_A,       KC_S,       KC_D,       KC_F,       KC_G,                               KC_H,       KC_J,       KC_K,       KC_L,    KC_SCLN,    KC_QUOT,</v>
       </c>
       <c r="C83" s="26"/>
@@ -8380,7 +8431,7 @@
     <row r="84" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="6"/>
       <c r="B84" s="26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">   KC_LCTL,       KC_Z,       KC_X,       KC_C,       KC_V,       KC_B,                               KC_N,       KC_M,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
       </c>
       <c r="C84" s="26"/>
@@ -8400,7 +8451,7 @@
     <row r="85" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6"/>
       <c r="B85" s="26" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve">                                                      TG_R,       MO_R,   LSFT_SPC,   RSTF_ENT,       MO_L,       TG_L</v>
       </c>
       <c r="C85" s="26"/>
@@ -8440,7 +8491,7 @@
     <row r="87" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
       <c r="B87" s="24" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
@@ -8458,7 +8509,7 @@
     </row>
     <row r="88" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B88" s="26" t="str">
         <f>B59&amp;C59&amp;D59&amp;E59&amp;F59&amp;G59&amp;H59&amp;I59&amp;J59&amp;K59&amp;L59&amp;M59&amp;N59&amp;O59</f>
@@ -8481,7 +8532,7 @@
     <row r="89" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6"/>
       <c r="B89" s="26" t="str">
-        <f t="shared" ref="B89:B91" si="26">B60&amp;C60&amp;D60&amp;E60&amp;F60&amp;G60&amp;H60&amp;I60&amp;J60&amp;K60&amp;L60&amp;M60&amp;N60&amp;O60</f>
+        <f t="shared" ref="B89:B91" si="25">B60&amp;C60&amp;D60&amp;E60&amp;F60&amp;G60&amp;H60&amp;I60&amp;J60&amp;K60&amp;L60&amp;M60&amp;N60&amp;O60</f>
         <v xml:space="preserve">   XXXXXXX,    XXXXXXX,    KC_HOME,    KC_PGUP,    KC_PGDN,     KC_END,                            KC_LEFT,    KC_DOWN,      KC_UP,    KC_RGHT,     KC_EQL,    KC_MINS,</v>
       </c>
       <c r="C89" s="26"/>
@@ -8501,7 +8552,7 @@
     <row r="90" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6"/>
       <c r="B90" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">   KC_LCTL,    KC_LALT,    XXXXXXX,    XXXXXXX,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_RBRC,    KC_BSLS,  S(KC_EQL), S(KC_INT3),</v>
       </c>
       <c r="C90" s="26"/>
@@ -8521,7 +8572,7 @@
     <row r="91" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6"/>
       <c r="B91" s="26" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
       </c>
       <c r="C91" s="26"/>
@@ -8561,7 +8612,7 @@
     <row r="93" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="24" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
@@ -8579,7 +8630,7 @@
     </row>
     <row r="94" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B94" s="26" t="str">
         <f>B63&amp;C63&amp;D63&amp;E63&amp;F63&amp;G63&amp;H63&amp;I63&amp;J63&amp;K63&amp;L63&amp;M63&amp;N63&amp;O63</f>
@@ -8602,7 +8653,7 @@
     <row r="95" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="6"/>
       <c r="B95" s="26" t="str">
-        <f t="shared" ref="B95:B97" si="27">B64&amp;C64&amp;D64&amp;E64&amp;F64&amp;G64&amp;H64&amp;I64&amp;J64&amp;K64&amp;L64&amp;M64&amp;N64&amp;O64</f>
+        <f t="shared" ref="B95:B97" si="26">B64&amp;C64&amp;D64&amp;E64&amp;F64&amp;G64&amp;H64&amp;I64&amp;J64&amp;K64&amp;L64&amp;M64&amp;N64&amp;O64</f>
         <v xml:space="preserve">   KC_LNG5,       KC_1,       KC_2,       KC_3,       KC_4,       KC_5,                               KC_6,       KC_7,       KC_8,       KC_9,       KC_0,    KC_MINS,</v>
       </c>
       <c r="C95" s="26"/>
@@ -8622,7 +8673,7 @@
     <row r="96" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="6"/>
       <c r="B96" s="26" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">   KC_LCTL,    KC_LALT,    MS_WHLL,    MS_WHLR,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
       </c>
       <c r="C96" s="26"/>
@@ -8642,7 +8693,7 @@
     <row r="97" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6"/>
       <c r="B97" s="26" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
       </c>
       <c r="C97" s="26"/>
@@ -8682,7 +8733,7 @@
     <row r="99" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2"/>
       <c r="B99" s="24" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
@@ -8700,7 +8751,7 @@
     </row>
     <row r="100" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="6" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B100" s="26" t="str">
         <f>B67&amp;C67&amp;D67&amp;E67&amp;F67&amp;G67&amp;H67&amp;I67&amp;J67&amp;K67&amp;L67&amp;M67&amp;N67&amp;O67</f>
@@ -8723,7 +8774,7 @@
     <row r="101" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="6"/>
       <c r="B101" s="26" t="str">
-        <f t="shared" ref="B101:B103" si="28">B68&amp;C68&amp;D68&amp;E68&amp;F68&amp;G68&amp;H68&amp;I68&amp;J68&amp;K68&amp;L68&amp;M68&amp;N68&amp;O68</f>
+        <f t="shared" ref="B101:B103" si="27">B68&amp;C68&amp;D68&amp;E68&amp;F68&amp;G68&amp;H68&amp;I68&amp;J68&amp;K68&amp;L68&amp;M68&amp;N68&amp;O68</f>
         <v xml:space="preserve">    KC_TAB,       KC_A,       KC_S,       KC_D,       KC_F,       KC_G,                               KC_H,       KC_J,       KC_K,       KC_L,    KC_SCLN,    KC_QUOT,</v>
       </c>
       <c r="C101" s="26"/>
@@ -8743,7 +8794,7 @@
     <row r="102" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="6"/>
       <c r="B102" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">   KC_LCTL,       KC_Z,       KC_X,       KC_C,       KC_V,       KC_B,                               KC_N,       KC_M,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
       </c>
       <c r="C102" s="26"/>
@@ -8763,7 +8814,7 @@
     <row r="103" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="6"/>
       <c r="B103" s="26" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v xml:space="preserve">                                                      TG_R,     KC_SPC,      MO_RA,      MO_LA,     KC_ENT,       TG_L</v>
       </c>
       <c r="C103" s="26"/>
@@ -8803,7 +8854,7 @@
     <row r="105" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2"/>
       <c r="B105" s="24" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C105" s="24"/>
       <c r="D105" s="24"/>
@@ -8821,7 +8872,7 @@
     </row>
     <row r="106" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="6" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B106" s="26" t="str">
         <f>B71&amp;C71&amp;D71&amp;E71&amp;F71&amp;G71&amp;H71&amp;I71&amp;J71&amp;K71&amp;L71&amp;M71&amp;N71&amp;O71</f>
@@ -8844,7 +8895,7 @@
     <row r="107" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="6"/>
       <c r="B107" s="26" t="str">
-        <f t="shared" ref="B107:B109" si="29">B72&amp;C72&amp;D72&amp;E72&amp;F72&amp;G72&amp;H72&amp;I72&amp;J72&amp;K72&amp;L72&amp;M72&amp;N72&amp;O72</f>
+        <f t="shared" ref="B107:B109" si="28">B72&amp;C72&amp;D72&amp;E72&amp;F72&amp;G72&amp;H72&amp;I72&amp;J72&amp;K72&amp;L72&amp;M72&amp;N72&amp;O72</f>
         <v xml:space="preserve">   XXXXXXX,    XXXXXXX,    KC_HOME,    KC_PGUP,    KC_PGDN,     KC_END,                            KC_LEFT,    KC_DOWN,      KC_UP,    KC_RGHT,     KC_EQL,    KC_MINS,</v>
       </c>
       <c r="C107" s="26"/>
@@ -8864,7 +8915,7 @@
     <row r="108" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="6"/>
       <c r="B108" s="26" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">   KC_LCTL,    KC_LALT,    XXXXXXX,    XXXXXXX,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_RBRC,    KC_BSLS,  S(KC_EQL), S(KC_INT3),</v>
       </c>
       <c r="C108" s="26"/>
@@ -8884,7 +8935,7 @@
     <row r="109" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="6"/>
       <c r="B109" s="26" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
       </c>
       <c r="C109" s="26"/>
@@ -8924,7 +8975,7 @@
     <row r="111" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2"/>
       <c r="B111" s="24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C111" s="24"/>
       <c r="D111" s="24"/>
@@ -8942,7 +8993,7 @@
     </row>
     <row r="112" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B112" s="26" t="str">
         <f>B75&amp;C75&amp;D75&amp;E75&amp;F75&amp;G75&amp;H75&amp;I75&amp;J75&amp;K75&amp;L75&amp;M75&amp;N75&amp;O75</f>
@@ -8965,7 +9016,7 @@
     <row r="113" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="6"/>
       <c r="B113" s="26" t="str">
-        <f t="shared" ref="B113:B115" si="30">B76&amp;C76&amp;D76&amp;E76&amp;F76&amp;G76&amp;H76&amp;I76&amp;J76&amp;K76&amp;L76&amp;M76&amp;N76&amp;O76</f>
+        <f t="shared" ref="B113:B115" si="29">B76&amp;C76&amp;D76&amp;E76&amp;F76&amp;G76&amp;H76&amp;I76&amp;J76&amp;K76&amp;L76&amp;M76&amp;N76&amp;O76</f>
         <v xml:space="preserve">   KC_LNG5,       KC_1,       KC_2,       KC_3,       KC_4,       KC_5,                               KC_6,       KC_7,       KC_8,       KC_9,       KC_0,    KC_MINS,</v>
       </c>
       <c r="C113" s="26"/>
@@ -8985,8 +9036,8 @@
     <row r="114" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6"/>
       <c r="B114" s="26" t="str">
-        <f t="shared" si="30"/>
-        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    MS_WHLL,    MS_WHLR,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
+        <f t="shared" si="29"/>
+        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    KC_VOLD,    KC_VOLU,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
       </c>
       <c r="C114" s="26"/>
       <c r="D114" s="26"/>
@@ -9005,7 +9056,7 @@
     <row r="115" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="6"/>
       <c r="B115" s="26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
       </c>
       <c r="C115" s="26"/>

--- a/Crkbd 配列作成ブック.xlsx
+++ b/Crkbd 配列作成ブック.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0254fe376154954e/ドキュメント/資料集/自作キーボード/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE94D011-0267-4A05-843B-B45507D171E2}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_31802F1733C7A0836B02CE998FF0545B5A7B8396" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7FD2816-643D-4C91-8715-F88C5D69C59E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keycodes" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -45,7 +34,7 @@
     <author>吉井雄一</author>
   </authors>
   <commentList>
-    <comment ref="D151" authorId="0" shapeId="0" xr:uid="{AD61CCD6-A2E1-4A44-80FB-FA3037FA57B7}">
+    <comment ref="D153" authorId="0" shapeId="0" xr:uid="{AD61CCD6-A2E1-4A44-80FB-FA3037FA57B7}">
       <text>
         <r>
           <rPr>
@@ -67,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="364">
   <si>
     <t>日本語キー</t>
     <rPh sb="0" eb="3">
@@ -1285,6 +1274,42 @@
   </si>
   <si>
     <t>KC_VOLD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W &lt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W &gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SGUI(KC_RIGHT)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アクティブウィンドウを右のディスプレイへ移動</t>
+    <rPh sb="11" eb="12">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SGUI(KC_LEFT)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アクティブウィンドウを左のディスプレイへ移動</t>
+    <rPh sb="11" eb="12">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2222,17 +2247,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="15.25" style="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.125" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.625" style="52" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="52"/>
   </cols>
@@ -3909,383 +3932,409 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="B131" s="37"/>
+      <c r="C131" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D131" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="E131" s="39"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="D132" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="E132" s="39"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="B131" s="37" t="s">
+      <c r="B133" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="C131" s="37" t="s">
+      <c r="C133" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="D131" s="38" t="s">
+      <c r="D133" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="E131" s="39"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="40" t="s">
+      <c r="E133" s="39"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="B132" s="41" t="s">
+      <c r="B134" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="C132" s="41" t="s">
+      <c r="C134" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="D132" s="42" t="s">
+      <c r="D134" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="E132" s="43"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="44" t="s">
+      <c r="E134" s="43"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="B133" s="45"/>
-      <c r="C133" s="45"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="46"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="30" t="s">
+      <c r="B135" s="45"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="46"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="31" t="s">
+      <c r="B136" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C134" s="31" t="s">
+      <c r="C136" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D134" s="31" t="s">
+      <c r="D136" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E134" s="32"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B135" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>277</v>
-      </c>
-      <c r="D135" s="35"/>
-      <c r="E135" s="36"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="B136" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="D136" s="35"/>
-      <c r="E136" s="36"/>
+      <c r="E136" s="32"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="33" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B137" s="34" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D137" s="35"/>
       <c r="E137" s="36"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="33" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B138" s="34" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D138" s="35"/>
       <c r="E138" s="36"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" s="40"/>
-      <c r="B139" s="41"/>
-      <c r="C139" s="41"/>
-      <c r="D139" s="48"/>
-      <c r="E139" s="49"/>
+      <c r="A139" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="B139" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C139" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="D139" s="35"/>
+      <c r="E139" s="36"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="44" t="s">
+      <c r="A140" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B140" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D140" s="35"/>
+      <c r="E140" s="36"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="40"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="49"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="B140" s="45"/>
-      <c r="C140" s="45"/>
-      <c r="D140" s="45"/>
-      <c r="E140" s="46"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" s="30" t="s">
+      <c r="B142" s="45"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="45"/>
+      <c r="E142" s="46"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B141" s="31" t="s">
+      <c r="B143" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C141" s="31" t="s">
+      <c r="C143" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="31" t="s">
+      <c r="D143" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E141" s="32"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="B142" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="C142" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="D142" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="E142" s="36"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="B143" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="C143" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="D143" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="E143" s="36"/>
+      <c r="E143" s="32"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="33" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E144" s="36"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="B145" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="C145" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="D145" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="E145" s="39"/>
+      <c r="A145" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D145" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="E145" s="36"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B146" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D146" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="E146" s="36"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B147" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="D147" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="E147" s="39"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="B146" s="34" t="s">
+      <c r="B148" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="C146" s="34" t="s">
+      <c r="C148" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="D146" s="35" t="s">
+      <c r="D148" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="E146" s="36"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" s="33" t="s">
+      <c r="E148" s="36"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B149" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="C147" s="34" t="s">
+      <c r="C149" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="D147" s="35" t="s">
+      <c r="D149" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="E147" s="36"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="40"/>
-      <c r="B148" s="41"/>
-      <c r="C148" s="41"/>
-      <c r="D148" s="48"/>
-      <c r="E148" s="49"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="44" t="s">
+      <c r="E149" s="36"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="40"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="41"/>
+      <c r="D150" s="48"/>
+      <c r="E150" s="49"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="44" t="s">
         <v>307</v>
       </c>
-      <c r="B149" s="45"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="46"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="30" t="s">
+      <c r="B151" s="45"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="46"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B150" s="31" t="s">
+      <c r="B152" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="31" t="s">
+      <c r="C152" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="31" t="s">
+      <c r="D152" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E150" s="32"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="33" t="s">
+      <c r="E152" s="32"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="B151" s="34"/>
-      <c r="C151" s="34" t="s">
+      <c r="B153" s="34"/>
+      <c r="C153" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="D151" s="35" t="s">
+      <c r="D153" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="E151" s="36"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="33" t="s">
+      <c r="E153" s="36"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34" t="s">
+      <c r="B154" s="34"/>
+      <c r="C154" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="D152" s="35" t="s">
+      <c r="D154" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="E152" s="36"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="33"/>
-      <c r="B153" s="34"/>
-      <c r="C153" s="34"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="36"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="47"/>
-      <c r="B154" s="37"/>
-      <c r="C154" s="37"/>
-      <c r="D154" s="38"/>
-      <c r="E154" s="39"/>
+      <c r="E154" s="36"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="40"/>
-      <c r="B155" s="41"/>
-      <c r="C155" s="41"/>
-      <c r="D155" s="42"/>
-      <c r="E155" s="43"/>
+      <c r="A155" s="33"/>
+      <c r="B155" s="34"/>
+      <c r="C155" s="34"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="36"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="44" t="s">
+      <c r="A156" s="47"/>
+      <c r="B156" s="37"/>
+      <c r="C156" s="37"/>
+      <c r="D156" s="38"/>
+      <c r="E156" s="39"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="40"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="41"/>
+      <c r="D157" s="42"/>
+      <c r="E157" s="43"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="B156" s="45"/>
-      <c r="C156" s="45"/>
-      <c r="D156" s="45"/>
-      <c r="E156" s="46"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" s="30" t="s">
+      <c r="B158" s="45"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="45"/>
+      <c r="E158" s="46"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B157" s="31" t="s">
+      <c r="B159" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C157" s="31" t="s">
+      <c r="C159" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="D157" s="31" t="s">
+      <c r="D159" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="32"/>
-    </row>
-    <row r="158" spans="1:5" ht="66" x14ac:dyDescent="0.35">
-      <c r="A158" s="33" t="s">
+      <c r="E159" s="32"/>
+    </row>
+    <row r="160" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A160" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="B158" s="34" t="s">
+      <c r="B160" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="C158" s="34" t="s">
+      <c r="C160" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="D158" s="50" t="s">
+      <c r="D160" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="E158" s="51"/>
-    </row>
-    <row r="159" spans="1:5" ht="66" x14ac:dyDescent="0.35">
-      <c r="A159" s="33" t="s">
+      <c r="E160" s="51"/>
+    </row>
+    <row r="161" spans="1:5" ht="66" x14ac:dyDescent="0.35">
+      <c r="A161" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="B159" s="34" t="s">
+      <c r="B161" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="C159" s="34" t="s">
+      <c r="C161" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="D159" s="50" t="s">
+      <c r="D161" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="E159" s="51"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" s="33"/>
-      <c r="B160" s="34"/>
-      <c r="C160" s="34"/>
-      <c r="D160" s="35"/>
-      <c r="E160" s="36"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="47"/>
-      <c r="B161" s="37"/>
-      <c r="C161" s="37"/>
-      <c r="D161" s="38"/>
-      <c r="E161" s="39"/>
+      <c r="E161" s="51"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" s="40"/>
-      <c r="B162" s="41"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="42"/>
-      <c r="E162" s="43"/>
+      <c r="A162" s="33"/>
+      <c r="B162" s="34"/>
+      <c r="C162" s="34"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="36"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="47"/>
+      <c r="B163" s="37"/>
+      <c r="C163" s="37"/>
+      <c r="D163" s="38"/>
+      <c r="E163" s="39"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="40"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="41"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -4302,11 +4351,11 @@
   </sheetPr>
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="15" width="11.625" customWidth="1"/>
+    <col min="2" max="15" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -5149,8 +5198,12 @@
       <c r="C21" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="F21" s="7" t="s">
         <v>331</v>
       </c>
@@ -6527,11 +6580,11 @@
       </c>
       <c r="D47" s="18" t="str">
         <f>IF(D21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(D21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(D21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(D21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(D21,keycodes!$B:$B,0),0)))</f>
-        <v>XXXXXXX</v>
+        <v>SGUI(KC_LEFT)</v>
       </c>
       <c r="E47" s="18" t="str">
         <f>IF(E21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(E21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(E21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(E21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(E21,keycodes!$B:$B,0),0)))</f>
-        <v>XXXXXXX</v>
+        <v>SGUI(KC_RIGHT)</v>
       </c>
       <c r="F47" s="18" t="str">
         <f>IF(F21="",keycodes!$C$2,IF($B$1="Japanese",IF(INDEX(keycodes!$E:$E,MATCH(F21,keycodes!$A:$A,0),0)&lt;&gt;"",INDEX(keycodes!$E:$E,MATCH(F21,keycodes!$A:$A,0),0),INDEX(keycodes!$C:$C,MATCH(F21,keycodes!$A:$A,0),0)),INDEX(keycodes!$C:$C,MATCH(F21,keycodes!$B:$B,0),0)))</f>
@@ -6910,221 +6963,221 @@
         <v>323</v>
       </c>
       <c r="B55" s="15" t="str">
-        <f>IF(B29="TERM","",IF(B29="NONE",REPT(" ",12),REPT(" ",10-LEN(B29))&amp;B29))&amp;IF(OR(B29="TERM",B29="NONE"),"",IF(C29="TERM","",IF(C29="",",",", ")))</f>
-        <v xml:space="preserve">    KC_ESC, </v>
+        <f>IF(B29="TERM","",IF(B29="NONE",REPT(" ",17),REPT(" ",15-LEN(B29))&amp;B29))&amp;IF(OR(B29="TERM",B29="NONE"),"",IF(C29="TERM","",IF(C29="",",",", ")))</f>
+        <v xml:space="preserve">         KC_ESC, </v>
       </c>
       <c r="C55" s="15" t="str">
-        <f t="shared" ref="C55:O55" si="0">IF(C29="TERM","",IF(C29="NONE",REPT(" ",12),REPT(" ",10-LEN(C29))&amp;C29))&amp;IF(OR(C29="TERM",C29="NONE"),"",IF(D29="TERM","",IF(D29="",",",", ")))</f>
-        <v xml:space="preserve">      KC_Q, </v>
+        <f t="shared" ref="C55:O55" si="0">IF(C29="TERM","",IF(C29="NONE",REPT(" ",17),REPT(" ",15-LEN(C29))&amp;C29))&amp;IF(OR(C29="TERM",C29="NONE"),"",IF(D29="TERM","",IF(D29="",",",", ")))</f>
+        <v xml:space="preserve">           KC_Q, </v>
       </c>
       <c r="D55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_W, </v>
+        <v xml:space="preserve">           KC_W, </v>
       </c>
       <c r="E55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_E, </v>
+        <v xml:space="preserve">           KC_E, </v>
       </c>
       <c r="F55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_R, </v>
+        <v xml:space="preserve">           KC_R, </v>
       </c>
       <c r="G55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_T, </v>
+        <v xml:space="preserve">           KC_T, </v>
       </c>
       <c r="H55" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I55" s="16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_Y, </v>
+        <v xml:space="preserve">           KC_Y, </v>
       </c>
       <c r="K55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_U, </v>
+        <v xml:space="preserve">           KC_U, </v>
       </c>
       <c r="L55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_I, </v>
+        <v xml:space="preserve">           KC_I, </v>
       </c>
       <c r="M55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_O, </v>
+        <v xml:space="preserve">           KC_O, </v>
       </c>
       <c r="N55" s="15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">      KC_P, </v>
+        <v xml:space="preserve">           KC_P, </v>
       </c>
       <c r="O55" s="17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">   KC_LBRC,</v>
+        <v xml:space="preserve">        KC_LBRC,</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6"/>
       <c r="B56" s="18" t="str">
-        <f t="shared" ref="B56:O56" si="1">IF(B30="TERM","",IF(B30="NONE",REPT(" ",12),REPT(" ",10-LEN(B30))&amp;B30))&amp;IF(OR(B30="TERM",B30="NONE"),"",IF(C30="TERM","",IF(C30="",",",", ")))</f>
-        <v xml:space="preserve">    KC_TAB, </v>
+        <f t="shared" ref="B56:O56" si="1">IF(B30="TERM","",IF(B30="NONE",REPT(" ",17),REPT(" ",15-LEN(B30))&amp;B30))&amp;IF(OR(B30="TERM",B30="NONE"),"",IF(C30="TERM","",IF(C30="",",",", ")))</f>
+        <v xml:space="preserve">         KC_TAB, </v>
       </c>
       <c r="C56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_A, </v>
+        <v xml:space="preserve">           KC_A, </v>
       </c>
       <c r="D56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_S, </v>
+        <v xml:space="preserve">           KC_S, </v>
       </c>
       <c r="E56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_D, </v>
+        <v xml:space="preserve">           KC_D, </v>
       </c>
       <c r="F56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_F, </v>
+        <v xml:space="preserve">           KC_F, </v>
       </c>
       <c r="G56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_G, </v>
+        <v xml:space="preserve">           KC_G, </v>
       </c>
       <c r="H56" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I56" s="19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_H, </v>
+        <v xml:space="preserve">           KC_H, </v>
       </c>
       <c r="K56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_J, </v>
+        <v xml:space="preserve">           KC_J, </v>
       </c>
       <c r="L56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_K, </v>
+        <v xml:space="preserve">           KC_K, </v>
       </c>
       <c r="M56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">      KC_L, </v>
+        <v xml:space="preserve">           KC_L, </v>
       </c>
       <c r="N56" s="18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_SCLN, </v>
+        <v xml:space="preserve">        KC_SCLN, </v>
       </c>
       <c r="O56" s="20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">   KC_QUOT,</v>
+        <v xml:space="preserve">        KC_QUOT,</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="6"/>
       <c r="B57" s="18" t="str">
-        <f t="shared" ref="B57:O57" si="2">IF(B31="TERM","",IF(B31="NONE",REPT(" ",12),REPT(" ",10-LEN(B31))&amp;B31))&amp;IF(OR(B31="TERM",B31="NONE"),"",IF(C31="TERM","",IF(C31="",",",", ")))</f>
-        <v xml:space="preserve">   KC_LCTL, </v>
+        <f t="shared" ref="B57:O57" si="2">IF(B31="TERM","",IF(B31="NONE",REPT(" ",17),REPT(" ",15-LEN(B31))&amp;B31))&amp;IF(OR(B31="TERM",B31="NONE"),"",IF(C31="TERM","",IF(C31="",",",", ")))</f>
+        <v xml:space="preserve">        KC_LCTL, </v>
       </c>
       <c r="C57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">      KC_Z, </v>
+        <v xml:space="preserve">           KC_Z, </v>
       </c>
       <c r="D57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">      KC_X, </v>
+        <v xml:space="preserve">           KC_X, </v>
       </c>
       <c r="E57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">      KC_C, </v>
+        <v xml:space="preserve">           KC_C, </v>
       </c>
       <c r="F57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">      KC_V, </v>
+        <v xml:space="preserve">           KC_V, </v>
       </c>
       <c r="G57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">      KC_B, </v>
+        <v xml:space="preserve">           KC_B, </v>
       </c>
       <c r="H57" s="19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I57" s="19" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">      KC_N, </v>
+        <v xml:space="preserve">           KC_N, </v>
       </c>
       <c r="K57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">      KC_M, </v>
+        <v xml:space="preserve">           KC_M, </v>
       </c>
       <c r="L57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   KC_COMM, </v>
+        <v xml:space="preserve">        KC_COMM, </v>
       </c>
       <c r="M57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">    KC_DOT, </v>
+        <v xml:space="preserve">         KC_DOT, </v>
       </c>
       <c r="N57" s="18" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   KC_SLSH, </v>
+        <v xml:space="preserve">        KC_SLSH, </v>
       </c>
       <c r="O57" s="20" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">   KC_INT1,</v>
+        <v xml:space="preserve">        KC_INT1,</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="21" t="str">
-        <f t="shared" ref="B58:O58" si="3">IF(B32="TERM","",IF(B32="NONE",REPT(" ",12),REPT(" ",10-LEN(B32))&amp;B32))&amp;IF(OR(B32="TERM",B32="NONE"),"",IF(C32="TERM","",IF(C32="",",",", ")))</f>
-        <v xml:space="preserve">            </v>
+        <f t="shared" ref="B58:O58" si="3">IF(B32="TERM","",IF(B32="NONE",REPT(" ",17),REPT(" ",15-LEN(B32))&amp;B32))&amp;IF(OR(B32="TERM",B32="NONE"),"",IF(C32="TERM","",IF(C32="",",",", ")))</f>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="C58" s="21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="D58" s="21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="E58" s="21" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="F58" s="22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">      TG_R, </v>
+        <v xml:space="preserve">           TG_R, </v>
       </c>
       <c r="G58" s="22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">      MO_R, </v>
+        <v xml:space="preserve">           MO_R, </v>
       </c>
       <c r="H58" s="22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  LSFT_SPC, </v>
+        <v xml:space="preserve">       LSFT_SPC, </v>
       </c>
       <c r="I58" s="22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">  RSTF_ENT, </v>
+        <v xml:space="preserve">       RSTF_ENT, </v>
       </c>
       <c r="J58" s="22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">      MO_L, </v>
+        <v xml:space="preserve">           MO_L, </v>
       </c>
       <c r="K58" s="22" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">      TG_L</v>
+        <v xml:space="preserve">           TG_L</v>
       </c>
       <c r="L58" s="21" t="str">
         <f t="shared" si="3"/>
@@ -7148,221 +7201,221 @@
         <v>328</v>
       </c>
       <c r="B59" s="15" t="str">
-        <f t="shared" ref="B59:O59" si="4">IF(B33="TERM","",IF(B33="NONE",REPT(" ",12),REPT(" ",10-LEN(B33))&amp;B33))&amp;IF(OR(B33="TERM",B33="NONE"),"",IF(C33="TERM","",IF(C33="",",",", ")))</f>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <f t="shared" ref="B59:O59" si="4">IF(B33="TERM","",IF(B33="NONE",REPT(" ",17),REPT(" ",15-LEN(B33))&amp;B33))&amp;IF(OR(B33="TERM",B33="NONE"),"",IF(C33="TERM","",IF(C33="",",",", ")))</f>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="C59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   S(KC_1), </v>
+        <v xml:space="preserve">        S(KC_1), </v>
       </c>
       <c r="D59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   S(KC_2), </v>
+        <v xml:space="preserve">        S(KC_2), </v>
       </c>
       <c r="E59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   S(KC_3), </v>
+        <v xml:space="preserve">        S(KC_3), </v>
       </c>
       <c r="F59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   S(KC_4), </v>
+        <v xml:space="preserve">        S(KC_4), </v>
       </c>
       <c r="G59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   S(KC_5), </v>
+        <v xml:space="preserve">        S(KC_5), </v>
       </c>
       <c r="H59" s="16" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I59" s="16" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   S(KC_6), </v>
+        <v xml:space="preserve">        S(KC_6), </v>
       </c>
       <c r="K59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   S(KC_7), </v>
+        <v xml:space="preserve">        S(KC_7), </v>
       </c>
       <c r="L59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   S(KC_8), </v>
+        <v xml:space="preserve">        S(KC_8), </v>
       </c>
       <c r="M59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   S(KC_9), </v>
+        <v xml:space="preserve">        S(KC_9), </v>
       </c>
       <c r="N59" s="15" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="O59" s="17" t="str">
         <f t="shared" si="4"/>
-        <v xml:space="preserve">   XXXXXXX,</v>
+        <v xml:space="preserve">        XXXXXXX,</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="6"/>
       <c r="B60" s="18" t="str">
-        <f t="shared" ref="B60:O60" si="5">IF(B34="TERM","",IF(B34="NONE",REPT(" ",12),REPT(" ",10-LEN(B34))&amp;B34))&amp;IF(OR(B34="TERM",B34="NONE"),"",IF(C34="TERM","",IF(C34="",",",", ")))</f>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <f t="shared" ref="B60:O60" si="5">IF(B34="TERM","",IF(B34="NONE",REPT(" ",17),REPT(" ",15-LEN(B34))&amp;B34))&amp;IF(OR(B34="TERM",B34="NONE"),"",IF(C34="TERM","",IF(C34="",",",", ")))</f>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="C60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="D60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   KC_HOME, </v>
+        <v xml:space="preserve">        KC_HOME, </v>
       </c>
       <c r="E60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   KC_PGUP, </v>
+        <v xml:space="preserve">        KC_PGUP, </v>
       </c>
       <c r="F60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   KC_PGDN, </v>
+        <v xml:space="preserve">        KC_PGDN, </v>
       </c>
       <c r="G60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    KC_END, </v>
+        <v xml:space="preserve">         KC_END, </v>
       </c>
       <c r="H60" s="19" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I60" s="19" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   KC_LEFT, </v>
+        <v xml:space="preserve">        KC_LEFT, </v>
       </c>
       <c r="K60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   KC_DOWN, </v>
+        <v xml:space="preserve">        KC_DOWN, </v>
       </c>
       <c r="L60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">     KC_UP, </v>
+        <v xml:space="preserve">          KC_UP, </v>
       </c>
       <c r="M60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   KC_RGHT, </v>
+        <v xml:space="preserve">        KC_RGHT, </v>
       </c>
       <c r="N60" s="18" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">    KC_EQL, </v>
+        <v xml:space="preserve">         KC_EQL, </v>
       </c>
       <c r="O60" s="20" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve">   KC_MINS,</v>
+        <v xml:space="preserve">        KC_MINS,</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6"/>
       <c r="B61" s="18" t="str">
-        <f t="shared" ref="B61:O61" si="6">IF(B35="TERM","",IF(B35="NONE",REPT(" ",12),REPT(" ",10-LEN(B35))&amp;B35))&amp;IF(OR(B35="TERM",B35="NONE"),"",IF(C35="TERM","",IF(C35="",",",", ")))</f>
-        <v xml:space="preserve">   KC_LCTL, </v>
+        <f t="shared" ref="B61:O61" si="6">IF(B35="TERM","",IF(B35="NONE",REPT(" ",17),REPT(" ",15-LEN(B35))&amp;B35))&amp;IF(OR(B35="TERM",B35="NONE"),"",IF(C35="TERM","",IF(C35="",",",", ")))</f>
+        <v xml:space="preserve">        KC_LCTL, </v>
       </c>
       <c r="C61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">   KC_LALT, </v>
+        <v xml:space="preserve">        KC_LALT, </v>
       </c>
       <c r="D61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="E61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="F61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">   KC_INT5, </v>
+        <v xml:space="preserve">        KC_INT5, </v>
       </c>
       <c r="G61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">   KC_BSPC, </v>
+        <v xml:space="preserve">        KC_BSPC, </v>
       </c>
       <c r="H61" s="19" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I61" s="19" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">    KC_DEL, </v>
+        <v xml:space="preserve">         KC_DEL, </v>
       </c>
       <c r="K61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">   KC_INT4, </v>
+        <v xml:space="preserve">        KC_INT4, </v>
       </c>
       <c r="L61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">   KC_RBRC, </v>
+        <v xml:space="preserve">        KC_RBRC, </v>
       </c>
       <c r="M61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve">   KC_BSLS, </v>
+        <v xml:space="preserve">        KC_BSLS, </v>
       </c>
       <c r="N61" s="18" t="str">
         <f t="shared" si="6"/>
-        <v xml:space="preserve"> S(KC_EQL), </v>
+        <v xml:space="preserve">      S(KC_EQL), </v>
       </c>
       <c r="O61" s="20" t="str">
         <f t="shared" si="6"/>
-        <v>S(KC_INT3),</v>
+        <v xml:space="preserve">     S(KC_INT3),</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="21" t="str">
-        <f t="shared" ref="B62:O62" si="7">IF(B36="TERM","",IF(B36="NONE",REPT(" ",12),REPT(" ",10-LEN(B36))&amp;B36))&amp;IF(OR(B36="TERM",B36="NONE"),"",IF(C36="TERM","",IF(C36="",",",", ")))</f>
-        <v xml:space="preserve">            </v>
+        <f t="shared" ref="B62:O62" si="7">IF(B36="TERM","",IF(B36="NONE",REPT(" ",17),REPT(" ",15-LEN(B36))&amp;B36))&amp;IF(OR(B36="TERM",B36="NONE"),"",IF(C36="TERM","",IF(C36="",",",", ")))</f>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="C62" s="21" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="D62" s="21" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="E62" s="21" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="F62" s="22" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="G62" s="22" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="H62" s="22" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="I62" s="22" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="J62" s="22" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="K62" s="22" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve">   _______</v>
+        <v xml:space="preserve">        _______</v>
       </c>
       <c r="L62" s="21" t="str">
         <f t="shared" si="7"/>
@@ -7386,221 +7439,221 @@
         <v>334</v>
       </c>
       <c r="B63" s="15" t="str">
-        <f t="shared" ref="B63:O63" si="8">IF(B37="TERM","",IF(B37="NONE",REPT(" ",12),REPT(" ",10-LEN(B37))&amp;B37))&amp;IF(OR(B37="TERM",B37="NONE"),"",IF(C37="TERM","",IF(C37="",",",", ")))</f>
-        <v xml:space="preserve">     KC_F1, </v>
+        <f t="shared" ref="B63:O63" si="8">IF(B37="TERM","",IF(B37="NONE",REPT(" ",17),REPT(" ",15-LEN(B37))&amp;B37))&amp;IF(OR(B37="TERM",B37="NONE"),"",IF(C37="TERM","",IF(C37="",",",", ")))</f>
+        <v xml:space="preserve">          KC_F1, </v>
       </c>
       <c r="C63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">     KC_F2, </v>
+        <v xml:space="preserve">          KC_F2, </v>
       </c>
       <c r="D63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">     KC_F3, </v>
+        <v xml:space="preserve">          KC_F3, </v>
       </c>
       <c r="E63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">     KC_F4, </v>
+        <v xml:space="preserve">          KC_F4, </v>
       </c>
       <c r="F63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">     KC_F5, </v>
+        <v xml:space="preserve">          KC_F5, </v>
       </c>
       <c r="G63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">     KC_F6, </v>
+        <v xml:space="preserve">          KC_F6, </v>
       </c>
       <c r="H63" s="16" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I63" s="16" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">     KC_F7, </v>
+        <v xml:space="preserve">          KC_F7, </v>
       </c>
       <c r="K63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">     KC_F8, </v>
+        <v xml:space="preserve">          KC_F8, </v>
       </c>
       <c r="L63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">     KC_F9, </v>
+        <v xml:space="preserve">          KC_F9, </v>
       </c>
       <c r="M63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">    KC_F10, </v>
+        <v xml:space="preserve">         KC_F10, </v>
       </c>
       <c r="N63" s="15" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">    KC_F11, </v>
+        <v xml:space="preserve">         KC_F11, </v>
       </c>
       <c r="O63" s="17" t="str">
         <f t="shared" si="8"/>
-        <v xml:space="preserve">    KC_F12,</v>
+        <v xml:space="preserve">         KC_F12,</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="6"/>
       <c r="B64" s="18" t="str">
-        <f t="shared" ref="B64:O64" si="9">IF(B38="TERM","",IF(B38="NONE",REPT(" ",12),REPT(" ",10-LEN(B38))&amp;B38))&amp;IF(OR(B38="TERM",B38="NONE"),"",IF(C38="TERM","",IF(C38="",",",", ")))</f>
-        <v xml:space="preserve">   KC_LNG5, </v>
+        <f t="shared" ref="B64:O64" si="9">IF(B38="TERM","",IF(B38="NONE",REPT(" ",17),REPT(" ",15-LEN(B38))&amp;B38))&amp;IF(OR(B38="TERM",B38="NONE"),"",IF(C38="TERM","",IF(C38="",",",", ")))</f>
+        <v xml:space="preserve">        KC_LNG5, </v>
       </c>
       <c r="C64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_1, </v>
+        <v xml:space="preserve">           KC_1, </v>
       </c>
       <c r="D64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_2, </v>
+        <v xml:space="preserve">           KC_2, </v>
       </c>
       <c r="E64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_3, </v>
+        <v xml:space="preserve">           KC_3, </v>
       </c>
       <c r="F64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_4, </v>
+        <v xml:space="preserve">           KC_4, </v>
       </c>
       <c r="G64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_5, </v>
+        <v xml:space="preserve">           KC_5, </v>
       </c>
       <c r="H64" s="19" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I64" s="19" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_6, </v>
+        <v xml:space="preserve">           KC_6, </v>
       </c>
       <c r="K64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_7, </v>
+        <v xml:space="preserve">           KC_7, </v>
       </c>
       <c r="L64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_8, </v>
+        <v xml:space="preserve">           KC_8, </v>
       </c>
       <c r="M64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_9, </v>
+        <v xml:space="preserve">           KC_9, </v>
       </c>
       <c r="N64" s="18" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">      KC_0, </v>
+        <v xml:space="preserve">           KC_0, </v>
       </c>
       <c r="O64" s="20" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">   KC_MINS,</v>
+        <v xml:space="preserve">        KC_MINS,</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="6"/>
       <c r="B65" s="18" t="str">
-        <f t="shared" ref="B65:O65" si="10">IF(B39="TERM","",IF(B39="NONE",REPT(" ",12),REPT(" ",10-LEN(B39))&amp;B39))&amp;IF(OR(B39="TERM",B39="NONE"),"",IF(C39="TERM","",IF(C39="",",",", ")))</f>
-        <v xml:space="preserve">   KC_LCTL, </v>
+        <f t="shared" ref="B65:O65" si="10">IF(B39="TERM","",IF(B39="NONE",REPT(" ",17),REPT(" ",15-LEN(B39))&amp;B39))&amp;IF(OR(B39="TERM",B39="NONE"),"",IF(C39="TERM","",IF(C39="",",",", ")))</f>
+        <v xml:space="preserve">        KC_LCTL, </v>
       </c>
       <c r="C65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   KC_LALT, </v>
+        <v xml:space="preserve">        KC_LALT, </v>
       </c>
       <c r="D65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   MS_WHLL, </v>
+        <v xml:space="preserve">        MS_WHLL, </v>
       </c>
       <c r="E65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   MS_WHLR, </v>
+        <v xml:space="preserve">        MS_WHLR, </v>
       </c>
       <c r="F65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   KC_INT5, </v>
+        <v xml:space="preserve">        KC_INT5, </v>
       </c>
       <c r="G65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   KC_BSPC, </v>
+        <v xml:space="preserve">        KC_BSPC, </v>
       </c>
       <c r="H65" s="19" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I65" s="19" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    KC_DEL, </v>
+        <v xml:space="preserve">         KC_DEL, </v>
       </c>
       <c r="K65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   KC_INT4, </v>
+        <v xml:space="preserve">        KC_INT4, </v>
       </c>
       <c r="L65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   KC_COMM, </v>
+        <v xml:space="preserve">        KC_COMM, </v>
       </c>
       <c r="M65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">    KC_DOT, </v>
+        <v xml:space="preserve">         KC_DOT, </v>
       </c>
       <c r="N65" s="18" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   KC_SLSH, </v>
+        <v xml:space="preserve">        KC_SLSH, </v>
       </c>
       <c r="O65" s="20" t="str">
         <f t="shared" si="10"/>
-        <v xml:space="preserve">   KC_INT1,</v>
+        <v xml:space="preserve">        KC_INT1,</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="21" t="str">
-        <f t="shared" ref="B66:O66" si="11">IF(B40="TERM","",IF(B40="NONE",REPT(" ",12),REPT(" ",10-LEN(B40))&amp;B40))&amp;IF(OR(B40="TERM",B40="NONE"),"",IF(C40="TERM","",IF(C40="",",",", ")))</f>
-        <v xml:space="preserve">            </v>
+        <f t="shared" ref="B66:O66" si="11">IF(B40="TERM","",IF(B40="NONE",REPT(" ",17),REPT(" ",15-LEN(B40))&amp;B40))&amp;IF(OR(B40="TERM",B40="NONE"),"",IF(C40="TERM","",IF(C40="",",",", ")))</f>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="C66" s="21" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="D66" s="21" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="E66" s="21" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="F66" s="22" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="G66" s="22" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="H66" s="22" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="I66" s="22" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="J66" s="22" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="K66" s="22" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">   _______</v>
+        <v xml:space="preserve">        _______</v>
       </c>
       <c r="L66" s="21" t="str">
         <f t="shared" si="11"/>
@@ -7624,221 +7677,221 @@
         <v>341</v>
       </c>
       <c r="B67" s="15" t="str">
-        <f t="shared" ref="B67:O67" si="12">IF(B41="TERM","",IF(B41="NONE",REPT(" ",12),REPT(" ",10-LEN(B41))&amp;B41))&amp;IF(OR(B41="TERM",B41="NONE"),"",IF(C41="TERM","",IF(C41="",",",", ")))</f>
-        <v xml:space="preserve">    KC_ESC, </v>
+        <f t="shared" ref="B67:O67" si="12">IF(B41="TERM","",IF(B41="NONE",REPT(" ",17),REPT(" ",15-LEN(B41))&amp;B41))&amp;IF(OR(B41="TERM",B41="NONE"),"",IF(C41="TERM","",IF(C41="",",",", ")))</f>
+        <v xml:space="preserve">         KC_ESC, </v>
       </c>
       <c r="C67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_Q, </v>
+        <v xml:space="preserve">           KC_Q, </v>
       </c>
       <c r="D67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_W, </v>
+        <v xml:space="preserve">           KC_W, </v>
       </c>
       <c r="E67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_E, </v>
+        <v xml:space="preserve">           KC_E, </v>
       </c>
       <c r="F67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_R, </v>
+        <v xml:space="preserve">           KC_R, </v>
       </c>
       <c r="G67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_T, </v>
+        <v xml:space="preserve">           KC_T, </v>
       </c>
       <c r="H67" s="16" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I67" s="16" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_Y, </v>
+        <v xml:space="preserve">           KC_Y, </v>
       </c>
       <c r="K67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_U, </v>
+        <v xml:space="preserve">           KC_U, </v>
       </c>
       <c r="L67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_I, </v>
+        <v xml:space="preserve">           KC_I, </v>
       </c>
       <c r="M67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_O, </v>
+        <v xml:space="preserve">           KC_O, </v>
       </c>
       <c r="N67" s="15" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">      KC_P, </v>
+        <v xml:space="preserve">           KC_P, </v>
       </c>
       <c r="O67" s="17" t="str">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">   KC_LBRC,</v>
+        <v xml:space="preserve">        KC_LBRC,</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="6"/>
       <c r="B68" s="18" t="str">
-        <f t="shared" ref="B68:O68" si="13">IF(B42="TERM","",IF(B42="NONE",REPT(" ",12),REPT(" ",10-LEN(B42))&amp;B42))&amp;IF(OR(B42="TERM",B42="NONE"),"",IF(C42="TERM","",IF(C42="",",",", ")))</f>
-        <v xml:space="preserve">    KC_TAB, </v>
+        <f t="shared" ref="B68:O68" si="13">IF(B42="TERM","",IF(B42="NONE",REPT(" ",17),REPT(" ",15-LEN(B42))&amp;B42))&amp;IF(OR(B42="TERM",B42="NONE"),"",IF(C42="TERM","",IF(C42="",",",", ")))</f>
+        <v xml:space="preserve">         KC_TAB, </v>
       </c>
       <c r="C68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_A, </v>
+        <v xml:space="preserve">           KC_A, </v>
       </c>
       <c r="D68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_S, </v>
+        <v xml:space="preserve">           KC_S, </v>
       </c>
       <c r="E68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_D, </v>
+        <v xml:space="preserve">           KC_D, </v>
       </c>
       <c r="F68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_F, </v>
+        <v xml:space="preserve">           KC_F, </v>
       </c>
       <c r="G68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_G, </v>
+        <v xml:space="preserve">           KC_G, </v>
       </c>
       <c r="H68" s="19" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I68" s="19" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_H, </v>
+        <v xml:space="preserve">           KC_H, </v>
       </c>
       <c r="K68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_J, </v>
+        <v xml:space="preserve">           KC_J, </v>
       </c>
       <c r="L68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_K, </v>
+        <v xml:space="preserve">           KC_K, </v>
       </c>
       <c r="M68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">      KC_L, </v>
+        <v xml:space="preserve">           KC_L, </v>
       </c>
       <c r="N68" s="18" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">   KC_SCLN, </v>
+        <v xml:space="preserve">        KC_SCLN, </v>
       </c>
       <c r="O68" s="20" t="str">
         <f t="shared" si="13"/>
-        <v xml:space="preserve">   KC_QUOT,</v>
+        <v xml:space="preserve">        KC_QUOT,</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="6"/>
       <c r="B69" s="18" t="str">
-        <f t="shared" ref="B69:O69" si="14">IF(B43="TERM","",IF(B43="NONE",REPT(" ",12),REPT(" ",10-LEN(B43))&amp;B43))&amp;IF(OR(B43="TERM",B43="NONE"),"",IF(C43="TERM","",IF(C43="",",",", ")))</f>
-        <v xml:space="preserve">   KC_LCTL, </v>
+        <f t="shared" ref="B69:O69" si="14">IF(B43="TERM","",IF(B43="NONE",REPT(" ",17),REPT(" ",15-LEN(B43))&amp;B43))&amp;IF(OR(B43="TERM",B43="NONE"),"",IF(C43="TERM","",IF(C43="",",",", ")))</f>
+        <v xml:space="preserve">        KC_LCTL, </v>
       </c>
       <c r="C69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">      KC_Z, </v>
+        <v xml:space="preserve">           KC_Z, </v>
       </c>
       <c r="D69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">      KC_X, </v>
+        <v xml:space="preserve">           KC_X, </v>
       </c>
       <c r="E69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">      KC_C, </v>
+        <v xml:space="preserve">           KC_C, </v>
       </c>
       <c r="F69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">      KC_V, </v>
+        <v xml:space="preserve">           KC_V, </v>
       </c>
       <c r="G69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">      KC_B, </v>
+        <v xml:space="preserve">           KC_B, </v>
       </c>
       <c r="H69" s="19" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I69" s="19" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">      KC_N, </v>
+        <v xml:space="preserve">           KC_N, </v>
       </c>
       <c r="K69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">      KC_M, </v>
+        <v xml:space="preserve">           KC_M, </v>
       </c>
       <c r="L69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">   KC_COMM, </v>
+        <v xml:space="preserve">        KC_COMM, </v>
       </c>
       <c r="M69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">    KC_DOT, </v>
+        <v xml:space="preserve">         KC_DOT, </v>
       </c>
       <c r="N69" s="18" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">   KC_SLSH, </v>
+        <v xml:space="preserve">        KC_SLSH, </v>
       </c>
       <c r="O69" s="20" t="str">
         <f t="shared" si="14"/>
-        <v xml:space="preserve">   KC_INT1,</v>
+        <v xml:space="preserve">        KC_INT1,</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="10"/>
       <c r="B70" s="21" t="str">
-        <f t="shared" ref="B70:O70" si="15">IF(B44="TERM","",IF(B44="NONE",REPT(" ",12),REPT(" ",10-LEN(B44))&amp;B44))&amp;IF(OR(B44="TERM",B44="NONE"),"",IF(C44="TERM","",IF(C44="",",",", ")))</f>
-        <v xml:space="preserve">            </v>
+        <f t="shared" ref="B70:O70" si="15">IF(B44="TERM","",IF(B44="NONE",REPT(" ",17),REPT(" ",15-LEN(B44))&amp;B44))&amp;IF(OR(B44="TERM",B44="NONE"),"",IF(C44="TERM","",IF(C44="",",",", ")))</f>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="C70" s="21" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="D70" s="21" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="E70" s="21" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="F70" s="22" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">      TG_R, </v>
+        <v xml:space="preserve">           TG_R, </v>
       </c>
       <c r="G70" s="22" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">    KC_SPC, </v>
+        <v xml:space="preserve">         KC_SPC, </v>
       </c>
       <c r="H70" s="22" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">     MO_RA, </v>
+        <v xml:space="preserve">          MO_RA, </v>
       </c>
       <c r="I70" s="22" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">     MO_LA, </v>
+        <v xml:space="preserve">          MO_LA, </v>
       </c>
       <c r="J70" s="22" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">    KC_ENT, </v>
+        <v xml:space="preserve">         KC_ENT, </v>
       </c>
       <c r="K70" s="22" t="str">
         <f t="shared" si="15"/>
-        <v xml:space="preserve">      TG_L</v>
+        <v xml:space="preserve">           TG_L</v>
       </c>
       <c r="L70" s="21" t="str">
         <f t="shared" si="15"/>
@@ -7862,221 +7915,221 @@
         <v>342</v>
       </c>
       <c r="B71" s="15" t="str">
-        <f t="shared" ref="B71:O71" si="16">IF(B45="TERM","",IF(B45="NONE",REPT(" ",12),REPT(" ",10-LEN(B45))&amp;B45))&amp;IF(OR(B45="TERM",B45="NONE"),"",IF(C45="TERM","",IF(C45="",",",", ")))</f>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <f t="shared" ref="B71:O71" si="16">IF(B45="TERM","",IF(B45="NONE",REPT(" ",17),REPT(" ",15-LEN(B45))&amp;B45))&amp;IF(OR(B45="TERM",B45="NONE"),"",IF(C45="TERM","",IF(C45="",",",", ")))</f>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="C71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   S(KC_1), </v>
+        <v xml:space="preserve">        S(KC_1), </v>
       </c>
       <c r="D71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   S(KC_2), </v>
+        <v xml:space="preserve">        S(KC_2), </v>
       </c>
       <c r="E71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   S(KC_3), </v>
+        <v xml:space="preserve">        S(KC_3), </v>
       </c>
       <c r="F71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   S(KC_4), </v>
+        <v xml:space="preserve">        S(KC_4), </v>
       </c>
       <c r="G71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   S(KC_5), </v>
+        <v xml:space="preserve">        S(KC_5), </v>
       </c>
       <c r="H71" s="16" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I71" s="16" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   S(KC_6), </v>
+        <v xml:space="preserve">        S(KC_6), </v>
       </c>
       <c r="K71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   S(KC_7), </v>
+        <v xml:space="preserve">        S(KC_7), </v>
       </c>
       <c r="L71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   S(KC_8), </v>
+        <v xml:space="preserve">        S(KC_8), </v>
       </c>
       <c r="M71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   S(KC_9), </v>
+        <v xml:space="preserve">        S(KC_9), </v>
       </c>
       <c r="N71" s="15" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="O71" s="17" t="str">
         <f t="shared" si="16"/>
-        <v xml:space="preserve">   XXXXXXX,</v>
+        <v xml:space="preserve">        XXXXXXX,</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="6"/>
       <c r="B72" s="18" t="str">
-        <f t="shared" ref="B72:O72" si="17">IF(B46="TERM","",IF(B46="NONE",REPT(" ",12),REPT(" ",10-LEN(B46))&amp;B46))&amp;IF(OR(B46="TERM",B46="NONE"),"",IF(C46="TERM","",IF(C46="",",",", ")))</f>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <f t="shared" ref="B72:O72" si="17">IF(B46="TERM","",IF(B46="NONE",REPT(" ",17),REPT(" ",15-LEN(B46))&amp;B46))&amp;IF(OR(B46="TERM",B46="NONE"),"",IF(C46="TERM","",IF(C46="",",",", ")))</f>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="C72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <v xml:space="preserve">        XXXXXXX, </v>
       </c>
       <c r="D72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">   KC_HOME, </v>
+        <v xml:space="preserve">        KC_HOME, </v>
       </c>
       <c r="E72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">   KC_PGUP, </v>
+        <v xml:space="preserve">        KC_PGUP, </v>
       </c>
       <c r="F72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">   KC_PGDN, </v>
+        <v xml:space="preserve">        KC_PGDN, </v>
       </c>
       <c r="G72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">    KC_END, </v>
+        <v xml:space="preserve">         KC_END, </v>
       </c>
       <c r="H72" s="19" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I72" s="19" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">   KC_LEFT, </v>
+        <v xml:space="preserve">        KC_LEFT, </v>
       </c>
       <c r="K72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">   KC_DOWN, </v>
+        <v xml:space="preserve">        KC_DOWN, </v>
       </c>
       <c r="L72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">     KC_UP, </v>
+        <v xml:space="preserve">          KC_UP, </v>
       </c>
       <c r="M72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">   KC_RGHT, </v>
+        <v xml:space="preserve">        KC_RGHT, </v>
       </c>
       <c r="N72" s="18" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">    KC_EQL, </v>
+        <v xml:space="preserve">         KC_EQL, </v>
       </c>
       <c r="O72" s="20" t="str">
         <f t="shared" si="17"/>
-        <v xml:space="preserve">   KC_MINS,</v>
+        <v xml:space="preserve">        KC_MINS,</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="6"/>
       <c r="B73" s="18" t="str">
-        <f t="shared" ref="B73:O73" si="18">IF(B47="TERM","",IF(B47="NONE",REPT(" ",12),REPT(" ",10-LEN(B47))&amp;B47))&amp;IF(OR(B47="TERM",B47="NONE"),"",IF(C47="TERM","",IF(C47="",",",", ")))</f>
-        <v xml:space="preserve">   KC_LCTL, </v>
+        <f t="shared" ref="B73:O73" si="18">IF(B47="TERM","",IF(B47="NONE",REPT(" ",17),REPT(" ",15-LEN(B47))&amp;B47))&amp;IF(OR(B47="TERM",B47="NONE"),"",IF(C47="TERM","",IF(C47="",",",", ")))</f>
+        <v xml:space="preserve">        KC_LCTL, </v>
       </c>
       <c r="C73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">   KC_LALT, </v>
+        <v xml:space="preserve">        KC_LALT, </v>
       </c>
       <c r="D73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <v xml:space="preserve">  SGUI(KC_LEFT), </v>
       </c>
       <c r="E73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">   XXXXXXX, </v>
+        <v xml:space="preserve"> SGUI(KC_RIGHT), </v>
       </c>
       <c r="F73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">   KC_INT5, </v>
+        <v xml:space="preserve">        KC_INT5, </v>
       </c>
       <c r="G73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">   KC_BSPC, </v>
+        <v xml:space="preserve">        KC_BSPC, </v>
       </c>
       <c r="H73" s="19" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I73" s="19" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">    KC_DEL, </v>
+        <v xml:space="preserve">         KC_DEL, </v>
       </c>
       <c r="K73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">   KC_INT4, </v>
+        <v xml:space="preserve">        KC_INT4, </v>
       </c>
       <c r="L73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">   KC_RBRC, </v>
+        <v xml:space="preserve">        KC_RBRC, </v>
       </c>
       <c r="M73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve">   KC_BSLS, </v>
+        <v xml:space="preserve">        KC_BSLS, </v>
       </c>
       <c r="N73" s="18" t="str">
         <f t="shared" si="18"/>
-        <v xml:space="preserve"> S(KC_EQL), </v>
+        <v xml:space="preserve">      S(KC_EQL), </v>
       </c>
       <c r="O73" s="20" t="str">
         <f t="shared" si="18"/>
-        <v>S(KC_INT3),</v>
+        <v xml:space="preserve">     S(KC_INT3),</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="10"/>
       <c r="B74" s="21" t="str">
-        <f t="shared" ref="B74:O74" si="19">IF(B48="TERM","",IF(B48="NONE",REPT(" ",12),REPT(" ",10-LEN(B48))&amp;B48))&amp;IF(OR(B48="TERM",B48="NONE"),"",IF(C48="TERM","",IF(C48="",",",", ")))</f>
-        <v xml:space="preserve">            </v>
+        <f t="shared" ref="B74:O74" si="19">IF(B48="TERM","",IF(B48="NONE",REPT(" ",17),REPT(" ",15-LEN(B48))&amp;B48))&amp;IF(OR(B48="TERM",B48="NONE"),"",IF(C48="TERM","",IF(C48="",",",", ")))</f>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="C74" s="21" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="D74" s="21" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="E74" s="21" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="F74" s="22" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="G74" s="22" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="H74" s="22" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="I74" s="22" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="J74" s="22" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="K74" s="22" t="str">
         <f t="shared" si="19"/>
-        <v xml:space="preserve">   _______</v>
+        <v xml:space="preserve">        _______</v>
       </c>
       <c r="L74" s="21" t="str">
         <f t="shared" si="19"/>
@@ -8100,221 +8153,221 @@
         <v>343</v>
       </c>
       <c r="B75" s="15" t="str">
-        <f t="shared" ref="B75:O75" si="20">IF(B49="TERM","",IF(B49="NONE",REPT(" ",12),REPT(" ",10-LEN(B49))&amp;B49))&amp;IF(OR(B49="TERM",B49="NONE"),"",IF(C49="TERM","",IF(C49="",",",", ")))</f>
-        <v xml:space="preserve">     KC_F1, </v>
+        <f t="shared" ref="B75:O75" si="20">IF(B49="TERM","",IF(B49="NONE",REPT(" ",17),REPT(" ",15-LEN(B49))&amp;B49))&amp;IF(OR(B49="TERM",B49="NONE"),"",IF(C49="TERM","",IF(C49="",",",", ")))</f>
+        <v xml:space="preserve">          KC_F1, </v>
       </c>
       <c r="C75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">     KC_F2, </v>
+        <v xml:space="preserve">          KC_F2, </v>
       </c>
       <c r="D75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">     KC_F3, </v>
+        <v xml:space="preserve">          KC_F3, </v>
       </c>
       <c r="E75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">     KC_F4, </v>
+        <v xml:space="preserve">          KC_F4, </v>
       </c>
       <c r="F75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">     KC_F5, </v>
+        <v xml:space="preserve">          KC_F5, </v>
       </c>
       <c r="G75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">     KC_F6, </v>
+        <v xml:space="preserve">          KC_F6, </v>
       </c>
       <c r="H75" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I75" s="16" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">     KC_F7, </v>
+        <v xml:space="preserve">          KC_F7, </v>
       </c>
       <c r="K75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">     KC_F8, </v>
+        <v xml:space="preserve">          KC_F8, </v>
       </c>
       <c r="L75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">     KC_F9, </v>
+        <v xml:space="preserve">          KC_F9, </v>
       </c>
       <c r="M75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    KC_F10, </v>
+        <v xml:space="preserve">         KC_F10, </v>
       </c>
       <c r="N75" s="15" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    KC_F11, </v>
+        <v xml:space="preserve">         KC_F11, </v>
       </c>
       <c r="O75" s="17" t="str">
         <f t="shared" si="20"/>
-        <v xml:space="preserve">    KC_F12,</v>
+        <v xml:space="preserve">         KC_F12,</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="6"/>
       <c r="B76" s="18" t="str">
-        <f t="shared" ref="B76:O76" si="21">IF(B50="TERM","",IF(B50="NONE",REPT(" ",12),REPT(" ",10-LEN(B50))&amp;B50))&amp;IF(OR(B50="TERM",B50="NONE"),"",IF(C50="TERM","",IF(C50="",",",", ")))</f>
-        <v xml:space="preserve">   KC_LNG5, </v>
+        <f t="shared" ref="B76:O76" si="21">IF(B50="TERM","",IF(B50="NONE",REPT(" ",17),REPT(" ",15-LEN(B50))&amp;B50))&amp;IF(OR(B50="TERM",B50="NONE"),"",IF(C50="TERM","",IF(C50="",",",", ")))</f>
+        <v xml:space="preserve">        KC_LNG5, </v>
       </c>
       <c r="C76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_1, </v>
+        <v xml:space="preserve">           KC_1, </v>
       </c>
       <c r="D76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_2, </v>
+        <v xml:space="preserve">           KC_2, </v>
       </c>
       <c r="E76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_3, </v>
+        <v xml:space="preserve">           KC_3, </v>
       </c>
       <c r="F76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_4, </v>
+        <v xml:space="preserve">           KC_4, </v>
       </c>
       <c r="G76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_5, </v>
+        <v xml:space="preserve">           KC_5, </v>
       </c>
       <c r="H76" s="19" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I76" s="19" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_6, </v>
+        <v xml:space="preserve">           KC_6, </v>
       </c>
       <c r="K76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_7, </v>
+        <v xml:space="preserve">           KC_7, </v>
       </c>
       <c r="L76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_8, </v>
+        <v xml:space="preserve">           KC_8, </v>
       </c>
       <c r="M76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_9, </v>
+        <v xml:space="preserve">           KC_9, </v>
       </c>
       <c r="N76" s="18" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">      KC_0, </v>
+        <v xml:space="preserve">           KC_0, </v>
       </c>
       <c r="O76" s="20" t="str">
         <f t="shared" si="21"/>
-        <v xml:space="preserve">   KC_MINS,</v>
+        <v xml:space="preserve">        KC_MINS,</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="6"/>
       <c r="B77" s="18" t="str">
-        <f t="shared" ref="B77:O77" si="22">IF(B51="TERM","",IF(B51="NONE",REPT(" ",12),REPT(" ",10-LEN(B51))&amp;B51))&amp;IF(OR(B51="TERM",B51="NONE"),"",IF(C51="TERM","",IF(C51="",",",", ")))</f>
-        <v xml:space="preserve">   KC_LCTL, </v>
+        <f t="shared" ref="B77:O77" si="22">IF(B51="TERM","",IF(B51="NONE",REPT(" ",17),REPT(" ",15-LEN(B51))&amp;B51))&amp;IF(OR(B51="TERM",B51="NONE"),"",IF(C51="TERM","",IF(C51="",",",", ")))</f>
+        <v xml:space="preserve">        KC_LCTL, </v>
       </c>
       <c r="C77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">   KC_LALT, </v>
+        <v xml:space="preserve">        KC_LALT, </v>
       </c>
       <c r="D77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">   KC_VOLD, </v>
+        <v xml:space="preserve">        KC_VOLD, </v>
       </c>
       <c r="E77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">   KC_VOLU, </v>
+        <v xml:space="preserve">        KC_VOLU, </v>
       </c>
       <c r="F77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">   KC_INT5, </v>
+        <v xml:space="preserve">        KC_INT5, </v>
       </c>
       <c r="G77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">   KC_BSPC, </v>
+        <v xml:space="preserve">        KC_BSPC, </v>
       </c>
       <c r="H77" s="19" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="I77" s="19" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="J77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">    KC_DEL, </v>
+        <v xml:space="preserve">         KC_DEL, </v>
       </c>
       <c r="K77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">   KC_INT4, </v>
+        <v xml:space="preserve">        KC_INT4, </v>
       </c>
       <c r="L77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">   KC_COMM, </v>
+        <v xml:space="preserve">        KC_COMM, </v>
       </c>
       <c r="M77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">    KC_DOT, </v>
+        <v xml:space="preserve">         KC_DOT, </v>
       </c>
       <c r="N77" s="18" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">   KC_SLSH, </v>
+        <v xml:space="preserve">        KC_SLSH, </v>
       </c>
       <c r="O77" s="20" t="str">
         <f t="shared" si="22"/>
-        <v xml:space="preserve">   KC_INT1,</v>
+        <v xml:space="preserve">        KC_INT1,</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="10"/>
       <c r="B78" s="21" t="str">
-        <f t="shared" ref="B78:O78" si="23">IF(B52="TERM","",IF(B52="NONE",REPT(" ",12),REPT(" ",10-LEN(B52))&amp;B52))&amp;IF(OR(B52="TERM",B52="NONE"),"",IF(C52="TERM","",IF(C52="",",",", ")))</f>
-        <v xml:space="preserve">            </v>
+        <f t="shared" ref="B78:O78" si="23">IF(B52="TERM","",IF(B52="NONE",REPT(" ",17),REPT(" ",15-LEN(B52))&amp;B52))&amp;IF(OR(B52="TERM",B52="NONE"),"",IF(C52="TERM","",IF(C52="",",",", ")))</f>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="C78" s="21" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="D78" s="21" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="E78" s="21" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">            </v>
+        <v xml:space="preserve">                 </v>
       </c>
       <c r="F78" s="22" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="G78" s="22" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="H78" s="22" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="I78" s="22" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="J78" s="22" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">   _______, </v>
+        <v xml:space="preserve">        _______, </v>
       </c>
       <c r="K78" s="22" t="str">
         <f t="shared" si="23"/>
-        <v xml:space="preserve">   _______</v>
+        <v xml:space="preserve">        _______</v>
       </c>
       <c r="L78" s="21" t="str">
         <f t="shared" si="23"/>
@@ -8392,7 +8445,7 @@
       </c>
       <c r="B82" s="26" t="str">
         <f>B55&amp;C55&amp;D55&amp;E55&amp;F55&amp;G55&amp;H55&amp;I55&amp;J55&amp;K55&amp;L55&amp;M55&amp;N55&amp;O55</f>
-        <v xml:space="preserve">    KC_ESC,       KC_Q,       KC_W,       KC_E,       KC_R,       KC_T,                               KC_Y,       KC_U,       KC_I,       KC_O,       KC_P,    KC_LBRC,</v>
+        <v xml:space="preserve">         KC_ESC,            KC_Q,            KC_W,            KC_E,            KC_R,            KC_T,                                              KC_Y,            KC_U,            KC_I,            KC_O,            KC_P,         KC_LBRC,</v>
       </c>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
@@ -8412,7 +8465,7 @@
       <c r="A83" s="6"/>
       <c r="B83" s="26" t="str">
         <f t="shared" ref="B83:B85" si="24">B56&amp;C56&amp;D56&amp;E56&amp;F56&amp;G56&amp;H56&amp;I56&amp;J56&amp;K56&amp;L56&amp;M56&amp;N56&amp;O56</f>
-        <v xml:space="preserve">    KC_TAB,       KC_A,       KC_S,       KC_D,       KC_F,       KC_G,                               KC_H,       KC_J,       KC_K,       KC_L,    KC_SCLN,    KC_QUOT,</v>
+        <v xml:space="preserve">         KC_TAB,            KC_A,            KC_S,            KC_D,            KC_F,            KC_G,                                              KC_H,            KC_J,            KC_K,            KC_L,         KC_SCLN,         KC_QUOT,</v>
       </c>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
@@ -8432,7 +8485,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="26" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">   KC_LCTL,       KC_Z,       KC_X,       KC_C,       KC_V,       KC_B,                               KC_N,       KC_M,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
+        <v xml:space="preserve">        KC_LCTL,            KC_Z,            KC_X,            KC_C,            KC_V,            KC_B,                                              KC_N,            KC_M,         KC_COMM,          KC_DOT,         KC_SLSH,         KC_INT1,</v>
       </c>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
@@ -8452,7 +8505,7 @@
       <c r="A85" s="6"/>
       <c r="B85" s="26" t="str">
         <f t="shared" si="24"/>
-        <v xml:space="preserve">                                                      TG_R,       MO_R,   LSFT_SPC,   RSTF_ENT,       MO_L,       TG_L</v>
+        <v xml:space="preserve">                                                                               TG_R,            MO_R,        LSFT_SPC,        RSTF_ENT,            MO_L,            TG_L</v>
       </c>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
@@ -8513,7 +8566,7 @@
       </c>
       <c r="B88" s="26" t="str">
         <f>B59&amp;C59&amp;D59&amp;E59&amp;F59&amp;G59&amp;H59&amp;I59&amp;J59&amp;K59&amp;L59&amp;M59&amp;N59&amp;O59</f>
-        <v xml:space="preserve">   XXXXXXX,    S(KC_1),    S(KC_2),    S(KC_3),    S(KC_4),    S(KC_5),                            S(KC_6),    S(KC_7),    S(KC_8),    S(KC_9),    XXXXXXX,    XXXXXXX,</v>
+        <v xml:space="preserve">        XXXXXXX,         S(KC_1),         S(KC_2),         S(KC_3),         S(KC_4),         S(KC_5),                                           S(KC_6),         S(KC_7),         S(KC_8),         S(KC_9),         XXXXXXX,         XXXXXXX,</v>
       </c>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
@@ -8533,7 +8586,7 @@
       <c r="A89" s="6"/>
       <c r="B89" s="26" t="str">
         <f t="shared" ref="B89:B91" si="25">B60&amp;C60&amp;D60&amp;E60&amp;F60&amp;G60&amp;H60&amp;I60&amp;J60&amp;K60&amp;L60&amp;M60&amp;N60&amp;O60</f>
-        <v xml:space="preserve">   XXXXXXX,    XXXXXXX,    KC_HOME,    KC_PGUP,    KC_PGDN,     KC_END,                            KC_LEFT,    KC_DOWN,      KC_UP,    KC_RGHT,     KC_EQL,    KC_MINS,</v>
+        <v xml:space="preserve">        XXXXXXX,         XXXXXXX,         KC_HOME,         KC_PGUP,         KC_PGDN,          KC_END,                                           KC_LEFT,         KC_DOWN,           KC_UP,         KC_RGHT,          KC_EQL,         KC_MINS,</v>
       </c>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
@@ -8553,7 +8606,7 @@
       <c r="A90" s="6"/>
       <c r="B90" s="26" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    XXXXXXX,    XXXXXXX,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_RBRC,    KC_BSLS,  S(KC_EQL), S(KC_INT3),</v>
+        <v xml:space="preserve">        KC_LCTL,         KC_LALT,         XXXXXXX,         XXXXXXX,         KC_INT5,         KC_BSPC,                                            KC_DEL,         KC_INT4,         KC_RBRC,         KC_BSLS,       S(KC_EQL),      S(KC_INT3),</v>
       </c>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -8573,7 +8626,7 @@
       <c r="A91" s="6"/>
       <c r="B91" s="26" t="str">
         <f t="shared" si="25"/>
-        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
+        <v xml:space="preserve">                                                                            _______,         _______,         _______,         _______,         _______,         _______</v>
       </c>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -8634,7 +8687,7 @@
       </c>
       <c r="B94" s="26" t="str">
         <f>B63&amp;C63&amp;D63&amp;E63&amp;F63&amp;G63&amp;H63&amp;I63&amp;J63&amp;K63&amp;L63&amp;M63&amp;N63&amp;O63</f>
-        <v xml:space="preserve">     KC_F1,      KC_F2,      KC_F3,      KC_F4,      KC_F5,      KC_F6,                              KC_F7,      KC_F8,      KC_F9,     KC_F10,     KC_F11,     KC_F12,</v>
+        <v xml:space="preserve">          KC_F1,           KC_F2,           KC_F3,           KC_F4,           KC_F5,           KC_F6,                                             KC_F7,           KC_F8,           KC_F9,          KC_F10,          KC_F11,          KC_F12,</v>
       </c>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
@@ -8654,7 +8707,7 @@
       <c r="A95" s="6"/>
       <c r="B95" s="26" t="str">
         <f t="shared" ref="B95:B97" si="26">B64&amp;C64&amp;D64&amp;E64&amp;F64&amp;G64&amp;H64&amp;I64&amp;J64&amp;K64&amp;L64&amp;M64&amp;N64&amp;O64</f>
-        <v xml:space="preserve">   KC_LNG5,       KC_1,       KC_2,       KC_3,       KC_4,       KC_5,                               KC_6,       KC_7,       KC_8,       KC_9,       KC_0,    KC_MINS,</v>
+        <v xml:space="preserve">        KC_LNG5,            KC_1,            KC_2,            KC_3,            KC_4,            KC_5,                                              KC_6,            KC_7,            KC_8,            KC_9,            KC_0,         KC_MINS,</v>
       </c>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
@@ -8674,7 +8727,7 @@
       <c r="A96" s="6"/>
       <c r="B96" s="26" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    MS_WHLL,    MS_WHLR,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
+        <v xml:space="preserve">        KC_LCTL,         KC_LALT,         MS_WHLL,         MS_WHLR,         KC_INT5,         KC_BSPC,                                            KC_DEL,         KC_INT4,         KC_COMM,          KC_DOT,         KC_SLSH,         KC_INT1,</v>
       </c>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
@@ -8694,7 +8747,7 @@
       <c r="A97" s="6"/>
       <c r="B97" s="26" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
+        <v xml:space="preserve">                                                                            _______,         _______,         _______,         _______,         _______,         _______</v>
       </c>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
@@ -8755,7 +8808,7 @@
       </c>
       <c r="B100" s="26" t="str">
         <f>B67&amp;C67&amp;D67&amp;E67&amp;F67&amp;G67&amp;H67&amp;I67&amp;J67&amp;K67&amp;L67&amp;M67&amp;N67&amp;O67</f>
-        <v xml:space="preserve">    KC_ESC,       KC_Q,       KC_W,       KC_E,       KC_R,       KC_T,                               KC_Y,       KC_U,       KC_I,       KC_O,       KC_P,    KC_LBRC,</v>
+        <v xml:space="preserve">         KC_ESC,            KC_Q,            KC_W,            KC_E,            KC_R,            KC_T,                                              KC_Y,            KC_U,            KC_I,            KC_O,            KC_P,         KC_LBRC,</v>
       </c>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
@@ -8775,7 +8828,7 @@
       <c r="A101" s="6"/>
       <c r="B101" s="26" t="str">
         <f t="shared" ref="B101:B103" si="27">B68&amp;C68&amp;D68&amp;E68&amp;F68&amp;G68&amp;H68&amp;I68&amp;J68&amp;K68&amp;L68&amp;M68&amp;N68&amp;O68</f>
-        <v xml:space="preserve">    KC_TAB,       KC_A,       KC_S,       KC_D,       KC_F,       KC_G,                               KC_H,       KC_J,       KC_K,       KC_L,    KC_SCLN,    KC_QUOT,</v>
+        <v xml:space="preserve">         KC_TAB,            KC_A,            KC_S,            KC_D,            KC_F,            KC_G,                                              KC_H,            KC_J,            KC_K,            KC_L,         KC_SCLN,         KC_QUOT,</v>
       </c>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
@@ -8795,7 +8848,7 @@
       <c r="A102" s="6"/>
       <c r="B102" s="26" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">   KC_LCTL,       KC_Z,       KC_X,       KC_C,       KC_V,       KC_B,                               KC_N,       KC_M,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
+        <v xml:space="preserve">        KC_LCTL,            KC_Z,            KC_X,            KC_C,            KC_V,            KC_B,                                              KC_N,            KC_M,         KC_COMM,          KC_DOT,         KC_SLSH,         KC_INT1,</v>
       </c>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
@@ -8815,7 +8868,7 @@
       <c r="A103" s="6"/>
       <c r="B103" s="26" t="str">
         <f t="shared" si="27"/>
-        <v xml:space="preserve">                                                      TG_R,     KC_SPC,      MO_RA,      MO_LA,     KC_ENT,       TG_L</v>
+        <v xml:space="preserve">                                                                               TG_R,          KC_SPC,           MO_RA,           MO_LA,          KC_ENT,            TG_L</v>
       </c>
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
@@ -8876,7 +8929,7 @@
       </c>
       <c r="B106" s="26" t="str">
         <f>B71&amp;C71&amp;D71&amp;E71&amp;F71&amp;G71&amp;H71&amp;I71&amp;J71&amp;K71&amp;L71&amp;M71&amp;N71&amp;O71</f>
-        <v xml:space="preserve">   XXXXXXX,    S(KC_1),    S(KC_2),    S(KC_3),    S(KC_4),    S(KC_5),                            S(KC_6),    S(KC_7),    S(KC_8),    S(KC_9),    XXXXXXX,    XXXXXXX,</v>
+        <v xml:space="preserve">        XXXXXXX,         S(KC_1),         S(KC_2),         S(KC_3),         S(KC_4),         S(KC_5),                                           S(KC_6),         S(KC_7),         S(KC_8),         S(KC_9),         XXXXXXX,         XXXXXXX,</v>
       </c>
       <c r="C106" s="26"/>
       <c r="D106" s="26"/>
@@ -8896,7 +8949,7 @@
       <c r="A107" s="6"/>
       <c r="B107" s="26" t="str">
         <f t="shared" ref="B107:B109" si="28">B72&amp;C72&amp;D72&amp;E72&amp;F72&amp;G72&amp;H72&amp;I72&amp;J72&amp;K72&amp;L72&amp;M72&amp;N72&amp;O72</f>
-        <v xml:space="preserve">   XXXXXXX,    XXXXXXX,    KC_HOME,    KC_PGUP,    KC_PGDN,     KC_END,                            KC_LEFT,    KC_DOWN,      KC_UP,    KC_RGHT,     KC_EQL,    KC_MINS,</v>
+        <v xml:space="preserve">        XXXXXXX,         XXXXXXX,         KC_HOME,         KC_PGUP,         KC_PGDN,          KC_END,                                           KC_LEFT,         KC_DOWN,           KC_UP,         KC_RGHT,          KC_EQL,         KC_MINS,</v>
       </c>
       <c r="C107" s="26"/>
       <c r="D107" s="26"/>
@@ -8916,7 +8969,7 @@
       <c r="A108" s="6"/>
       <c r="B108" s="26" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    XXXXXXX,    XXXXXXX,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_RBRC,    KC_BSLS,  S(KC_EQL), S(KC_INT3),</v>
+        <v xml:space="preserve">        KC_LCTL,         KC_LALT,   SGUI(KC_LEFT),  SGUI(KC_RIGHT),         KC_INT5,         KC_BSPC,                                            KC_DEL,         KC_INT4,         KC_RBRC,         KC_BSLS,       S(KC_EQL),      S(KC_INT3),</v>
       </c>
       <c r="C108" s="26"/>
       <c r="D108" s="26"/>
@@ -8936,7 +8989,7 @@
       <c r="A109" s="6"/>
       <c r="B109" s="26" t="str">
         <f t="shared" si="28"/>
-        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
+        <v xml:space="preserve">                                                                            _______,         _______,         _______,         _______,         _______,         _______</v>
       </c>
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
@@ -8997,7 +9050,7 @@
       </c>
       <c r="B112" s="26" t="str">
         <f>B75&amp;C75&amp;D75&amp;E75&amp;F75&amp;G75&amp;H75&amp;I75&amp;J75&amp;K75&amp;L75&amp;M75&amp;N75&amp;O75</f>
-        <v xml:space="preserve">     KC_F1,      KC_F2,      KC_F3,      KC_F4,      KC_F5,      KC_F6,                              KC_F7,      KC_F8,      KC_F9,     KC_F10,     KC_F11,     KC_F12,</v>
+        <v xml:space="preserve">          KC_F1,           KC_F2,           KC_F3,           KC_F4,           KC_F5,           KC_F6,                                             KC_F7,           KC_F8,           KC_F9,          KC_F10,          KC_F11,          KC_F12,</v>
       </c>
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
@@ -9017,7 +9070,7 @@
       <c r="A113" s="6"/>
       <c r="B113" s="26" t="str">
         <f t="shared" ref="B113:B115" si="29">B76&amp;C76&amp;D76&amp;E76&amp;F76&amp;G76&amp;H76&amp;I76&amp;J76&amp;K76&amp;L76&amp;M76&amp;N76&amp;O76</f>
-        <v xml:space="preserve">   KC_LNG5,       KC_1,       KC_2,       KC_3,       KC_4,       KC_5,                               KC_6,       KC_7,       KC_8,       KC_9,       KC_0,    KC_MINS,</v>
+        <v xml:space="preserve">        KC_LNG5,            KC_1,            KC_2,            KC_3,            KC_4,            KC_5,                                              KC_6,            KC_7,            KC_8,            KC_9,            KC_0,         KC_MINS,</v>
       </c>
       <c r="C113" s="26"/>
       <c r="D113" s="26"/>
@@ -9037,7 +9090,7 @@
       <c r="A114" s="6"/>
       <c r="B114" s="26" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">   KC_LCTL,    KC_LALT,    KC_VOLD,    KC_VOLU,    KC_INT5,    KC_BSPC,                             KC_DEL,    KC_INT4,    KC_COMM,     KC_DOT,    KC_SLSH,    KC_INT1,</v>
+        <v xml:space="preserve">        KC_LCTL,         KC_LALT,         KC_VOLD,         KC_VOLU,         KC_INT5,         KC_BSPC,                                            KC_DEL,         KC_INT4,         KC_COMM,          KC_DOT,         KC_SLSH,         KC_INT1,</v>
       </c>
       <c r="C114" s="26"/>
       <c r="D114" s="26"/>
@@ -9057,7 +9110,7 @@
       <c r="A115" s="6"/>
       <c r="B115" s="26" t="str">
         <f t="shared" si="29"/>
-        <v xml:space="preserve">                                                   _______,    _______,    _______,    _______,    _______,    _______</v>
+        <v xml:space="preserve">                                                                            _______,         _______,         _______,         _______,         _______,         _______</v>
       </c>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
